--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="271"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="28020" windowHeight="10920" tabRatio="271"/>
   </bookViews>
   <sheets>
     <sheet name="工作量评估表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="153">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -585,6 +586,14 @@
   </si>
   <si>
     <t>施工情况汇报</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,6 +922,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,14 +960,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1250,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1265,38 +1286,40 @@
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="10" max="11" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="41"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1327,8 +1350,11 @@
       <c r="J3" s="26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1349,13 +1375,14 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="44">
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A5" s="49">
         <v>2</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1373,11 +1400,12 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="47"/>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="7"/>
       <c r="E6" s="18" t="s">
         <v>17</v>
@@ -1385,29 +1413,31 @@
       <c r="F6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="48"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="9"/>
       <c r="I6" s="6"/>
       <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="47"/>
+      <c r="K6" s="54"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="7"/>
       <c r="E7" s="18"/>
       <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="48"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="9"/>
       <c r="I7" s="6"/>
       <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="47"/>
+      <c r="K7" s="54"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="7"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
@@ -1415,17 +1445,18 @@
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="6"/>
       <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="47"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1433,17 +1464,18 @@
         <v>76</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="6"/>
       <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="47"/>
+      <c r="K9" s="54"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="49"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="7"/>
       <c r="E10" s="18" t="s">
         <v>77</v>
@@ -1451,17 +1483,18 @@
       <c r="F10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
       <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="47"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="7"/>
       <c r="E11" s="18" t="s">
         <v>78</v>
@@ -1469,17 +1502,22 @@
       <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="47"/>
+      <c r="J11" s="17">
+        <v>43030</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="49"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="20"/>
       <c r="E12" s="18" t="s">
         <v>79</v>
@@ -1487,17 +1525,22 @@
       <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="47"/>
+      <c r="J12" s="17">
+        <v>43030</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="20"/>
       <c r="E13" s="18" t="s">
         <v>80</v>
@@ -1505,7 +1548,7 @@
       <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H13" s="39" t="s">
@@ -1513,11 +1556,12 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="47"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="24"/>
       <c r="E14" s="30" t="s">
         <v>81</v>
@@ -1525,17 +1569,18 @@
       <c r="F14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="23"/>
       <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="47"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="24"/>
       <c r="E15" s="30" t="s">
         <v>82</v>
@@ -1543,17 +1588,22 @@
       <c r="F15" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="47"/>
+      <c r="J15" s="17">
+        <v>43030</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="24"/>
       <c r="E16" s="30" t="s">
         <v>83</v>
@@ -1561,17 +1611,18 @@
       <c r="F16" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="23"/>
       <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="47"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="24"/>
       <c r="E17" s="30" t="s">
         <v>84</v>
@@ -1579,29 +1630,31 @@
       <c r="F17" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="23"/>
       <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="47"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="7"/>
       <c r="E18" s="18"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="48"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="9"/>
       <c r="I18" s="6"/>
       <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="47"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="20" t="s">
         <v>43</v>
       </c>
@@ -1611,15 +1664,16 @@
       <c r="F19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="9"/>
       <c r="I19" s="6"/>
       <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="47"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
         <v>85</v>
@@ -1627,15 +1681,16 @@
       <c r="F20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="9"/>
       <c r="I20" s="6"/>
       <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="47"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="7"/>
       <c r="E21" s="18" t="s">
         <v>86</v>
@@ -1643,15 +1698,16 @@
       <c r="F21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="9"/>
       <c r="I21" s="6"/>
       <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="47"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18" t="s">
         <v>87</v>
@@ -1659,15 +1715,16 @@
       <c r="F22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="48"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="9"/>
       <c r="I22" s="6"/>
       <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="47"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="7"/>
       <c r="E23" s="18" t="s">
         <v>22</v>
@@ -1675,15 +1732,16 @@
       <c r="F23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="9"/>
       <c r="I23" s="6"/>
       <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="47"/>
+      <c r="K23" s="54"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="20"/>
       <c r="E24" s="18" t="s">
         <v>88</v>
@@ -1691,79 +1749,84 @@
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="47"/>
+      <c r="K24" s="54"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="20"/>
       <c r="E25" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="48"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="17"/>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="47"/>
+      <c r="K25" s="54"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="20"/>
       <c r="E26" s="18" t="s">
         <v>90</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="17"/>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="47"/>
+      <c r="K26" s="54"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="20"/>
       <c r="E27" s="18" t="s">
         <v>91</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="48"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="17"/>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="47"/>
+      <c r="K27" s="54"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="20"/>
       <c r="E28" s="18" t="s">
         <v>92</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="48"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="9"/>
       <c r="I28" s="19"/>
       <c r="J28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="47"/>
+      <c r="K28" s="54"/>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="22"/>
       <c r="E29" s="18" t="s">
         <v>93</v>
@@ -1771,183 +1834,195 @@
       <c r="F29" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="9"/>
       <c r="I29" s="21"/>
       <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="47"/>
+      <c r="K29" s="54"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="22"/>
       <c r="E30" s="18" t="s">
         <v>94</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="48"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="9"/>
       <c r="I30" s="21"/>
       <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="47"/>
+      <c r="K30" s="54"/>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="22"/>
       <c r="E31" s="18" t="s">
         <v>95</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="48"/>
+      <c r="G31" s="42"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
       <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="47"/>
+      <c r="K31" s="54"/>
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="22"/>
       <c r="E32" s="18" t="s">
         <v>96</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="48"/>
+      <c r="G32" s="42"/>
       <c r="H32" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="47"/>
+      <c r="K32" s="54"/>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="22"/>
       <c r="E33" s="18" t="s">
         <v>97</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="48"/>
+      <c r="G33" s="42"/>
       <c r="H33" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="47"/>
+      <c r="K33" s="54"/>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="22"/>
       <c r="E34" s="18" t="s">
         <v>98</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="48"/>
+      <c r="G34" s="42"/>
       <c r="H34" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="47"/>
+      <c r="K34" s="54"/>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="22"/>
       <c r="E35" s="25" t="s">
         <v>99</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="48"/>
+      <c r="G35" s="42"/>
       <c r="H35" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="47"/>
+      <c r="K35" s="54"/>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="22"/>
       <c r="E36" s="25" t="s">
         <v>100</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="48"/>
+      <c r="G36" s="42"/>
       <c r="H36" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="17"/>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="47"/>
+      <c r="K36" s="54"/>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="49"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="52"/>
       <c r="D37" s="22"/>
       <c r="E37" s="25" t="s">
         <v>101</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="48"/>
+      <c r="G37" s="42"/>
       <c r="H37" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="47"/>
+      <c r="K37" s="54"/>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="22"/>
       <c r="E38" s="25" t="s">
         <v>102</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="48"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="9"/>
       <c r="I38" s="21"/>
       <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="47"/>
+      <c r="K38" s="54"/>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="49"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="52"/>
       <c r="D39" s="22"/>
       <c r="E39" s="25" t="s">
         <v>83</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="48"/>
+      <c r="G39" s="42"/>
       <c r="H39" s="9"/>
       <c r="I39" s="21"/>
       <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="44"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="47"/>
+      <c r="K39" s="54"/>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="22"/>
       <c r="E40" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="48"/>
+      <c r="G40" s="42"/>
       <c r="H40" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="47"/>
+      <c r="K40" s="54"/>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="49"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="24"/>
       <c r="E41" s="30" t="s">
         <v>104</v>
@@ -1955,15 +2030,16 @@
       <c r="F41" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="G41" s="49"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="9"/>
       <c r="I41" s="23"/>
       <c r="J41" s="17"/>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="47"/>
+      <c r="K41" s="54"/>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="24"/>
       <c r="E42" s="30" t="s">
         <v>105</v>
@@ -1971,15 +2047,16 @@
       <c r="F42" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="49"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="9"/>
       <c r="I42" s="23"/>
       <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="47"/>
+      <c r="K42" s="54"/>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A43" s="49"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="24"/>
       <c r="E43" s="30" t="s">
         <v>106</v>
@@ -1987,15 +2064,16 @@
       <c r="F43" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="49"/>
+      <c r="G43" s="43"/>
       <c r="H43" s="9"/>
       <c r="I43" s="23"/>
       <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="47"/>
+      <c r="K43" s="54"/>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A44" s="49"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="52"/>
       <c r="D44" s="24"/>
       <c r="E44" s="30" t="s">
         <v>107</v>
@@ -2003,17 +2081,18 @@
       <c r="F44" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="43" t="s">
         <v>146</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="23"/>
       <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="44"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="47"/>
+      <c r="K44" s="54"/>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="49"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="24"/>
       <c r="E45" s="30" t="s">
         <v>108</v>
@@ -2021,17 +2100,18 @@
       <c r="F45" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="43" t="s">
         <v>146</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="23"/>
       <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="47"/>
+      <c r="K45" s="54"/>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="49"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="24"/>
       <c r="E46" s="30" t="s">
         <v>109</v>
@@ -2039,7 +2119,7 @@
       <c r="F46" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="43" t="s">
         <v>146</v>
       </c>
       <c r="H46" s="39" t="s">
@@ -2047,11 +2127,12 @@
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="47"/>
+      <c r="K46" s="54"/>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="24"/>
       <c r="E47" s="30" t="s">
         <v>110</v>
@@ -2059,7 +2140,7 @@
       <c r="F47" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="43" t="s">
         <v>146</v>
       </c>
       <c r="H47" s="39" t="s">
@@ -2067,11 +2148,12 @@
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="47"/>
+      <c r="K47" s="54"/>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="24"/>
       <c r="E48" s="30" t="s">
         <v>111</v>
@@ -2079,7 +2161,7 @@
       <c r="F48" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="43" t="s">
         <v>146</v>
       </c>
       <c r="H48" s="39" t="s">
@@ -2087,11 +2169,12 @@
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="47"/>
+      <c r="K48" s="54"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="49"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="24"/>
       <c r="E49" s="30" t="s">
         <v>112</v>
@@ -2099,7 +2182,7 @@
       <c r="F49" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="G49" s="49" t="s">
+      <c r="G49" s="43" t="s">
         <v>146</v>
       </c>
       <c r="H49" s="39" t="s">
@@ -2107,11 +2190,12 @@
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="1:10" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A50" s="44"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="47"/>
+      <c r="K49" s="54"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A50" s="49"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="24"/>
       <c r="E50" s="30" t="s">
         <v>113</v>
@@ -2119,273 +2203,291 @@
       <c r="F50" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G50" s="49"/>
+      <c r="G50" s="43"/>
       <c r="H50" s="9"/>
       <c r="I50" s="23"/>
       <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="47"/>
+      <c r="K50" s="54"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="49"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="22"/>
       <c r="E51" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="48"/>
+      <c r="G51" s="42"/>
       <c r="H51" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="47"/>
+      <c r="K51" s="54"/>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="49"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="52"/>
       <c r="D52" s="22"/>
       <c r="E52" s="18" t="s">
         <v>115</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="48"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="47"/>
+      <c r="K52" s="54"/>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="49"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="22"/>
       <c r="E53" s="18" t="s">
         <v>116</v>
       </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="48"/>
+      <c r="G53" s="42"/>
       <c r="H53" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="17"/>
-    </row>
-    <row r="54" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="47"/>
+      <c r="K53" s="54"/>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="49"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="22"/>
       <c r="E54" s="18" t="s">
         <v>117</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="48"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="21"/>
       <c r="J54" s="17"/>
-    </row>
-    <row r="55" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="44"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="47"/>
+      <c r="K54" s="54"/>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="49"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="52"/>
       <c r="D55" s="22"/>
       <c r="E55" s="18" t="s">
         <v>118</v>
       </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="48"/>
+      <c r="G55" s="42"/>
       <c r="H55" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="17"/>
-    </row>
-    <row r="56" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="44"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="47"/>
+      <c r="K55" s="54"/>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="49"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="22"/>
       <c r="E56" s="18" t="s">
         <v>119</v>
       </c>
       <c r="F56" s="5"/>
-      <c r="G56" s="48"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="17"/>
-    </row>
-    <row r="57" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="44"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="47"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="49"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="22"/>
       <c r="E57" s="18" t="s">
         <v>120</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="48"/>
+      <c r="G57" s="42"/>
       <c r="H57" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="17"/>
-    </row>
-    <row r="58" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="44"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="47"/>
+      <c r="K57" s="54"/>
+    </row>
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="49"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="52"/>
       <c r="D58" s="22"/>
       <c r="E58" s="18" t="s">
         <v>121</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="48"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="17"/>
-    </row>
-    <row r="59" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="44"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="47"/>
+      <c r="K58" s="54"/>
+    </row>
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="49"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="22"/>
       <c r="E59" s="18" t="s">
         <v>122</v>
       </c>
       <c r="F59" s="5"/>
-      <c r="G59" s="48"/>
+      <c r="G59" s="42"/>
       <c r="H59" s="9"/>
       <c r="I59" s="21"/>
       <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="44"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="47"/>
+      <c r="K59" s="54"/>
+    </row>
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="49"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="22"/>
       <c r="E60" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="48"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="9"/>
       <c r="I60" s="21"/>
       <c r="J60" s="17"/>
-    </row>
-    <row r="61" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="44"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="47"/>
+      <c r="K60" s="54"/>
+    </row>
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="22"/>
       <c r="E61" s="18" t="s">
         <v>124</v>
       </c>
       <c r="F61" s="5"/>
-      <c r="G61" s="48"/>
+      <c r="G61" s="42"/>
       <c r="H61" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="17"/>
-    </row>
-    <row r="62" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="44"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="47"/>
+      <c r="K61" s="54"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="49"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="22"/>
       <c r="E62" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F62" s="5"/>
-      <c r="G62" s="48"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="17"/>
-    </row>
-    <row r="63" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="44"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="47"/>
+      <c r="K62" s="54"/>
+    </row>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="22"/>
       <c r="E63" s="18" t="s">
         <v>126</v>
       </c>
       <c r="F63" s="5"/>
-      <c r="G63" s="48"/>
+      <c r="G63" s="42"/>
       <c r="H63" s="9"/>
       <c r="I63" s="21"/>
       <c r="J63" s="17"/>
-    </row>
-    <row r="64" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="44"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="47"/>
+      <c r="K63" s="54"/>
+    </row>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="52"/>
       <c r="D64" s="22"/>
       <c r="E64" s="18" t="s">
         <v>127</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="48"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="9"/>
       <c r="I64" s="21"/>
       <c r="J64" s="17"/>
-    </row>
-    <row r="65" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="44"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="47"/>
+      <c r="K64" s="54"/>
+    </row>
+    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="22"/>
       <c r="E65" s="18" t="s">
         <v>128</v>
       </c>
       <c r="F65" s="5"/>
-      <c r="G65" s="48"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="9"/>
       <c r="I65" s="21"/>
       <c r="J65" s="17"/>
-    </row>
-    <row r="66" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="44"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="47"/>
+      <c r="K65" s="54"/>
+    </row>
+    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="22"/>
       <c r="E66" s="18" t="s">
         <v>129</v>
       </c>
       <c r="F66" s="5"/>
-      <c r="G66" s="48"/>
+      <c r="G66" s="42"/>
       <c r="H66" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="17"/>
-    </row>
-    <row r="67" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="44"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="47"/>
+      <c r="K66" s="54"/>
+    </row>
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="20"/>
       <c r="E67" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="48"/>
+      <c r="G67" s="42"/>
       <c r="H67" s="9"/>
       <c r="I67" s="19"/>
       <c r="J67" s="17"/>
-    </row>
-    <row r="68" spans="1:10" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A68" s="44"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="47"/>
+      <c r="K67" s="54"/>
+    </row>
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="7"/>
       <c r="E68" s="18" t="s">
         <v>23</v>
@@ -2393,17 +2495,18 @@
       <c r="F68" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="48" t="s">
+      <c r="G68" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="6"/>
       <c r="J68" s="17"/>
-    </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="44"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="47"/>
+      <c r="K68" s="54"/>
+    </row>
+    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="49"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="7"/>
       <c r="E69" s="18" t="s">
         <v>25</v>
@@ -2411,17 +2514,18 @@
       <c r="F69" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="48" t="s">
+      <c r="G69" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="6"/>
       <c r="J69" s="17"/>
-    </row>
-    <row r="70" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="44"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="47"/>
+      <c r="K69" s="54"/>
+    </row>
+    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="49"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="7"/>
       <c r="E70" s="18" t="s">
         <v>27</v>
@@ -2429,17 +2533,18 @@
       <c r="F70" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G70" s="48" t="s">
+      <c r="G70" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="6"/>
       <c r="J70" s="17"/>
-    </row>
-    <row r="71" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="44"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="47"/>
+      <c r="K70" s="54"/>
+    </row>
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="49"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="52"/>
       <c r="D71" s="32"/>
       <c r="E71" s="18" t="s">
         <v>148</v>
@@ -2447,17 +2552,18 @@
       <c r="F71" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G71" s="48" t="s">
+      <c r="G71" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="31"/>
       <c r="J71" s="17"/>
-    </row>
-    <row r="72" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="44"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="47"/>
+      <c r="K71" s="54"/>
+    </row>
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="32"/>
       <c r="E72" s="18" t="s">
         <v>147</v>
@@ -2465,17 +2571,18 @@
       <c r="F72" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G72" s="48" t="s">
+      <c r="G72" s="42" t="s">
         <v>146</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="31"/>
       <c r="J72" s="17"/>
-    </row>
-    <row r="73" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="44"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="47"/>
+      <c r="K72" s="54"/>
+    </row>
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="49"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="28"/>
       <c r="E73" s="37" t="s">
         <v>62</v>
@@ -2483,15 +2590,16 @@
       <c r="F73" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G73" s="50"/>
+      <c r="G73" s="44"/>
       <c r="H73" s="9"/>
       <c r="I73" s="27"/>
       <c r="J73" s="17"/>
-    </row>
-    <row r="74" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="44"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="47"/>
+      <c r="K73" s="54"/>
+    </row>
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="49"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="52"/>
       <c r="D74" s="28"/>
       <c r="E74" s="37" t="s">
         <v>63</v>
@@ -2499,15 +2607,16 @@
       <c r="F74" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="G74" s="50"/>
+      <c r="G74" s="44"/>
       <c r="H74" s="9"/>
       <c r="I74" s="27"/>
       <c r="J74" s="17"/>
-    </row>
-    <row r="75" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="44"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="47"/>
+      <c r="K74" s="54"/>
+    </row>
+    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="49"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="28"/>
       <c r="E75" s="37" t="s">
         <v>64</v>
@@ -2515,15 +2624,16 @@
       <c r="F75" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="G75" s="50"/>
+      <c r="G75" s="44"/>
       <c r="H75" s="9"/>
       <c r="I75" s="27"/>
       <c r="J75" s="17"/>
-    </row>
-    <row r="76" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="44"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="47"/>
+      <c r="K75" s="54"/>
+    </row>
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="49"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="52"/>
       <c r="D76" s="28"/>
       <c r="E76" s="37" t="s">
         <v>65</v>
@@ -2531,15 +2641,16 @@
       <c r="F76" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="G76" s="50"/>
+      <c r="G76" s="44"/>
       <c r="H76" s="9"/>
       <c r="I76" s="27"/>
       <c r="J76" s="17"/>
-    </row>
-    <row r="77" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="44"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="47"/>
+      <c r="K76" s="54"/>
+    </row>
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="49"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="28"/>
       <c r="E77" s="37" t="s">
         <v>66</v>
@@ -2547,15 +2658,16 @@
       <c r="F77" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="G77" s="50"/>
+      <c r="G77" s="44"/>
       <c r="H77" s="9"/>
       <c r="I77" s="27"/>
       <c r="J77" s="17"/>
-    </row>
-    <row r="78" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="44"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="47"/>
+      <c r="K77" s="54"/>
+    </row>
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="49"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="28"/>
       <c r="E78" s="37" t="s">
         <v>67</v>
@@ -2563,15 +2675,16 @@
       <c r="F78" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="G78" s="50"/>
+      <c r="G78" s="44"/>
       <c r="H78" s="9"/>
       <c r="I78" s="27"/>
       <c r="J78" s="17"/>
-    </row>
-    <row r="79" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="44"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="47"/>
+      <c r="K78" s="54"/>
+    </row>
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="49"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="52"/>
       <c r="D79" s="28"/>
       <c r="E79" s="37" t="s">
         <v>68</v>
@@ -2579,15 +2692,16 @@
       <c r="F79" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G79" s="50"/>
+      <c r="G79" s="44"/>
       <c r="H79" s="9"/>
       <c r="I79" s="27"/>
       <c r="J79" s="17"/>
-    </row>
-    <row r="80" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="44"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="47"/>
+      <c r="K79" s="54"/>
+    </row>
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="49"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="52"/>
       <c r="D80" s="28"/>
       <c r="E80" s="37" t="s">
         <v>69</v>
@@ -2595,17 +2709,18 @@
       <c r="F80" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="G80" s="50"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="39" t="s">
         <v>144</v>
       </c>
       <c r="I80" s="27"/>
       <c r="J80" s="17"/>
-    </row>
-    <row r="81" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="44"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="47"/>
+      <c r="K80" s="54"/>
+    </row>
+    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="49"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="28"/>
       <c r="E81" s="37" t="s">
         <v>70</v>
@@ -2613,15 +2728,16 @@
       <c r="F81" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="G81" s="50"/>
+      <c r="G81" s="44"/>
       <c r="H81" s="9"/>
       <c r="I81" s="27"/>
       <c r="J81" s="17"/>
-    </row>
-    <row r="82" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="44"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="47"/>
+      <c r="K81" s="54"/>
+    </row>
+    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="49"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="52"/>
       <c r="D82" s="28"/>
       <c r="E82" s="37" t="s">
         <v>71</v>
@@ -2629,71 +2745,76 @@
       <c r="F82" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="G82" s="50"/>
+      <c r="G82" s="44"/>
       <c r="H82" s="9"/>
       <c r="I82" s="27"/>
       <c r="J82" s="17"/>
-    </row>
-    <row r="83" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="44"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="47"/>
+      <c r="K82" s="54"/>
+    </row>
+    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="49"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="28"/>
       <c r="E83" s="37" t="s">
         <v>72</v>
       </c>
       <c r="F83" s="5"/>
-      <c r="G83" s="48"/>
+      <c r="G83" s="42"/>
       <c r="H83" s="9"/>
       <c r="I83" s="27"/>
       <c r="J83" s="17"/>
-    </row>
-    <row r="84" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="44"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="47"/>
+      <c r="K83" s="54"/>
+    </row>
+    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="49"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="52"/>
       <c r="D84" s="28"/>
       <c r="E84" s="37" t="s">
         <v>73</v>
       </c>
       <c r="F84" s="5"/>
-      <c r="G84" s="48"/>
+      <c r="G84" s="42"/>
       <c r="H84" s="9"/>
       <c r="I84" s="27"/>
       <c r="J84" s="17"/>
-    </row>
-    <row r="85" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="44"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="47"/>
+      <c r="K84" s="54"/>
+    </row>
+    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="49"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="52"/>
       <c r="D85" s="28"/>
       <c r="E85" s="37" t="s">
         <v>74</v>
       </c>
       <c r="F85" s="5"/>
-      <c r="G85" s="48"/>
+      <c r="G85" s="42"/>
       <c r="H85" s="9"/>
       <c r="I85" s="27"/>
       <c r="J85" s="17"/>
-    </row>
-    <row r="86" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="44"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="47"/>
+      <c r="K85" s="54"/>
+    </row>
+    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="49"/>
+      <c r="B86" s="50"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="28"/>
       <c r="E86" s="37" t="s">
         <v>75</v>
       </c>
       <c r="F86" s="5"/>
-      <c r="G86" s="48"/>
+      <c r="G86" s="42"/>
       <c r="H86" s="9"/>
       <c r="I86" s="27"/>
       <c r="J86" s="17"/>
-    </row>
-    <row r="87" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="44"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="47"/>
+      <c r="K86" s="54"/>
+    </row>
+    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="49"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="52"/>
       <c r="D87" s="7" t="s">
         <v>29</v>
       </c>
@@ -2701,54 +2822,58 @@
         <v>30</v>
       </c>
       <c r="F87" s="5"/>
-      <c r="G87" s="48"/>
+      <c r="G87" s="42"/>
       <c r="H87" s="9"/>
       <c r="I87" s="6"/>
       <c r="J87" s="17"/>
-    </row>
-    <row r="88" spans="1:10" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A88" s="44"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="47"/>
+      <c r="K87" s="54"/>
+    </row>
+    <row r="88" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A88" s="49"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="52"/>
       <c r="D88" s="7"/>
       <c r="E88" s="18" t="s">
         <v>31</v>
       </c>
       <c r="F88" s="5"/>
-      <c r="G88" s="48"/>
+      <c r="G88" s="42"/>
       <c r="H88" s="9"/>
       <c r="I88" s="6"/>
       <c r="J88" s="17"/>
-    </row>
-    <row r="89" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="44"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="47"/>
+      <c r="K88" s="54"/>
+    </row>
+    <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="49"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="22"/>
       <c r="E89" s="18" t="s">
         <v>131</v>
       </c>
       <c r="F89" s="5"/>
-      <c r="G89" s="48"/>
+      <c r="G89" s="42"/>
       <c r="H89" s="9"/>
       <c r="I89" s="21"/>
       <c r="J89" s="17"/>
-    </row>
-    <row r="90" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="44"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="47"/>
+      <c r="K89" s="54"/>
+    </row>
+    <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="49"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="52"/>
       <c r="D90" s="7"/>
       <c r="E90" s="18" t="s">
         <v>132</v>
       </c>
       <c r="F90" s="5"/>
-      <c r="G90" s="48"/>
+      <c r="G90" s="42"/>
       <c r="H90" s="9"/>
       <c r="I90" s="6"/>
       <c r="J90" s="17"/>
-    </row>
-    <row r="91" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K90" s="54"/>
+    </row>
+    <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>3</v>
       </c>
@@ -2765,8 +2890,9 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="17"/>
-    </row>
-    <row r="92" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K91" s="54"/>
+    </row>
+    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>5</v>
       </c>
@@ -2781,8 +2907,9 @@
       <c r="H92" s="3"/>
       <c r="I92" s="6"/>
       <c r="J92" s="17"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K92" s="54"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E93" s="35"/>
       <c r="F93" s="14" t="s">
         <v>35</v>
@@ -2790,21 +2917,21 @@
       <c r="G93" s="14"/>
       <c r="H93" s="15"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E94" s="35"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E95" s="35"/>
       <c r="F95" s="16"/>
       <c r="G95" s="16"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E96" s="35"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E97" s="35"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E98" s="35"/>
     </row>
   </sheetData>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -10,12 +10,11 @@
     <sheet name="工作量评估表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="154">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -169,19 +168,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>系统级（包括检查项目&lt;树形结构&gt;，检查标准），用于填报施工现场日、周、月检表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>安全资料目录（包括项目，科目，名称&lt;树形结构&gt;）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>检查项目可以分 安全、质量、文明检查项目（方案分类，方案名称）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统级：包括分类&lt;安全类：安全用电&gt;和检查内容，检查标准，可用于 1：施工现场安全用电检查表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -294,19 +285,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>安全检查项目</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>计量单位</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>安全资料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工现场检查分类</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -594,6 +577,26 @@
   </si>
   <si>
     <t>开发完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统级（包括检查项目&lt;树形结构&gt;，检查标准），用于填报施工现场日、周、月检表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全检查项目</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全用电检查分类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统级：安全用电检查标准，可用于 1：施工现场安全用电检查表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -936,6 +939,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -958,12 +967,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,7 +1277,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1290,33 +1293,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -1339,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>44</v>
@@ -1350,8 +1353,8 @@
       <c r="J3" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="53" t="s">
-        <v>151</v>
+      <c r="K3" s="45" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1375,14 +1378,14 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="54"/>
+      <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="49">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1395,17 +1398,17 @@
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="54"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="7"/>
       <c r="E6" s="18" t="s">
         <v>17</v>
@@ -1417,12 +1420,12 @@
       <c r="H6" s="9"/>
       <c r="I6" s="6"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="54"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="7"/>
       <c r="E7" s="18"/>
       <c r="F7" s="5" t="s">
@@ -1432,12 +1435,12 @@
       <c r="H7" s="9"/>
       <c r="I7" s="6"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="54"/>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="7"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
@@ -1446,202 +1449,214 @@
         <v>19</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="6"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="54"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="6"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="54"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="7"/>
       <c r="E10" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="54"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="7"/>
       <c r="E11" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="6"/>
       <c r="J11" s="17">
         <v>43030</v>
       </c>
-      <c r="K11" s="54" t="s">
-        <v>152</v>
+      <c r="K11" s="46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="20"/>
       <c r="E12" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17">
         <v>43030</v>
       </c>
-      <c r="K12" s="54" t="s">
-        <v>152</v>
+      <c r="K12" s="46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="52"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="20"/>
       <c r="E13" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I13" s="19"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="54"/>
+      <c r="J13" s="17">
+        <v>43032</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="24"/>
       <c r="E14" s="30" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="54"/>
+      <c r="J14" s="17">
+        <v>43034</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="49"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="24"/>
       <c r="E15" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="23"/>
       <c r="J15" s="17">
         <v>43030</v>
       </c>
-      <c r="K15" s="54" t="s">
-        <v>152</v>
+      <c r="K15" s="46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="24"/>
       <c r="E16" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="23"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="54"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="24"/>
       <c r="E17" s="30" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="23"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="54"/>
+      <c r="J17" s="17">
+        <v>43034</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="7"/>
       <c r="E18" s="18"/>
       <c r="F18" s="5"/>
@@ -1649,12 +1664,12 @@
       <c r="H18" s="9"/>
       <c r="I18" s="6"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="54"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="20" t="s">
         <v>43</v>
       </c>
@@ -1668,15 +1683,15 @@
       <c r="H19" s="9"/>
       <c r="I19" s="6"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="54"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>39</v>
@@ -1685,15 +1700,15 @@
       <c r="H20" s="9"/>
       <c r="I20" s="6"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="54"/>
+      <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="7"/>
       <c r="E21" s="18" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>21</v>
@@ -1702,15 +1717,15 @@
       <c r="H21" s="9"/>
       <c r="I21" s="6"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="54"/>
+      <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A22" s="49"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>41</v>
@@ -1719,12 +1734,12 @@
       <c r="H22" s="9"/>
       <c r="I22" s="6"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="54"/>
+      <c r="K22" s="46"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A23" s="49"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="7"/>
       <c r="E23" s="18" t="s">
         <v>22</v>
@@ -1736,758 +1751,758 @@
       <c r="H23" s="9"/>
       <c r="I23" s="6"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="54"/>
+      <c r="K23" s="46"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="52"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="20"/>
       <c r="E24" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="54"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="20"/>
       <c r="E25" s="18" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="42"/>
       <c r="H25" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="54"/>
+      <c r="K25" s="46"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="49"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="52"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="20"/>
       <c r="E26" s="18" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="42"/>
       <c r="H26" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="17"/>
-      <c r="K26" s="54"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="52"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="20"/>
       <c r="E27" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="42"/>
       <c r="H27" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="17"/>
-      <c r="K27" s="54"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="52"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="20"/>
       <c r="E28" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="42"/>
       <c r="H28" s="9"/>
       <c r="I28" s="19"/>
       <c r="J28" s="17"/>
-      <c r="K28" s="54"/>
+      <c r="K28" s="46"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="52"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="22"/>
       <c r="E29" s="18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="9"/>
       <c r="I29" s="21"/>
       <c r="J29" s="17"/>
-      <c r="K29" s="54"/>
+      <c r="K29" s="46"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="52"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="22"/>
       <c r="E30" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="42"/>
       <c r="H30" s="9"/>
       <c r="I30" s="21"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="54"/>
+      <c r="K30" s="46"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="52"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="22"/>
       <c r="E31" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="42"/>
       <c r="H31" s="9"/>
       <c r="I31" s="21"/>
       <c r="J31" s="17"/>
-      <c r="K31" s="54"/>
+      <c r="K31" s="46"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="49"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="52"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="22"/>
       <c r="E32" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="42"/>
       <c r="H32" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="17"/>
-      <c r="K32" s="54"/>
+      <c r="K32" s="46"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="52"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="22"/>
       <c r="E33" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="42"/>
       <c r="H33" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="54"/>
+      <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="52"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="22"/>
       <c r="E34" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="42"/>
       <c r="H34" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="17"/>
-      <c r="K34" s="54"/>
+      <c r="K34" s="46"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="52"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="22"/>
       <c r="E35" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="42"/>
       <c r="H35" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="17"/>
-      <c r="K35" s="54"/>
+      <c r="K35" s="46"/>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="52"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="22"/>
       <c r="E36" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="42"/>
       <c r="H36" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="54"/>
+      <c r="K36" s="46"/>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="49"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="52"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="22"/>
       <c r="E37" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="42"/>
       <c r="H37" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="54"/>
+      <c r="K37" s="46"/>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="52"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="22"/>
       <c r="E38" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="42"/>
       <c r="H38" s="9"/>
       <c r="I38" s="21"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="54"/>
+      <c r="K38" s="46"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="52"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="22"/>
       <c r="E39" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="42"/>
       <c r="H39" s="9"/>
       <c r="I39" s="21"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="54"/>
+      <c r="K39" s="46"/>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="52"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="22"/>
       <c r="E40" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="42"/>
       <c r="H40" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="54"/>
+      <c r="K40" s="46"/>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="49"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="52"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="24"/>
       <c r="E41" s="30" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="9"/>
       <c r="I41" s="23"/>
       <c r="J41" s="17"/>
-      <c r="K41" s="54"/>
+      <c r="K41" s="46"/>
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A42" s="49"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="52"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="24"/>
       <c r="E42" s="30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="9"/>
       <c r="I42" s="23"/>
       <c r="J42" s="17"/>
-      <c r="K42" s="54"/>
+      <c r="K42" s="46"/>
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A43" s="49"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="52"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="24"/>
       <c r="E43" s="30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="9"/>
       <c r="I43" s="23"/>
       <c r="J43" s="17"/>
-      <c r="K43" s="54"/>
+      <c r="K43" s="46"/>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A44" s="49"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="52"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="24"/>
       <c r="E44" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="23"/>
       <c r="J44" s="17"/>
-      <c r="K44" s="54"/>
+      <c r="K44" s="46"/>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="49"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="52"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="24"/>
       <c r="E45" s="30" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="23"/>
       <c r="J45" s="17"/>
-      <c r="K45" s="54"/>
+      <c r="K45" s="46"/>
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="49"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="52"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="24"/>
       <c r="E46" s="30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="54"/>
+      <c r="K46" s="46"/>
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="52"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="24"/>
       <c r="E47" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="54"/>
+      <c r="K47" s="46"/>
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A48" s="49"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="52"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="24"/>
       <c r="E48" s="30" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="54"/>
+      <c r="K48" s="46"/>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="49"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="52"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="24"/>
       <c r="E49" s="30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="17"/>
-      <c r="K49" s="54"/>
+      <c r="K49" s="46"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A50" s="49"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="52"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="24"/>
       <c r="E50" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="9"/>
       <c r="I50" s="23"/>
       <c r="J50" s="17"/>
-      <c r="K50" s="54"/>
+      <c r="K50" s="46"/>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="49"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="52"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="22"/>
       <c r="E51" s="18" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="42"/>
       <c r="H51" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="17"/>
-      <c r="K51" s="54"/>
+      <c r="K51" s="46"/>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="49"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="52"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="22"/>
       <c r="E52" s="18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="42"/>
       <c r="H52" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="54"/>
+      <c r="K52" s="46"/>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="49"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="52"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="22"/>
       <c r="E53" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="42"/>
       <c r="H53" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="17"/>
-      <c r="K53" s="54"/>
+      <c r="K53" s="46"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="49"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="52"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="22"/>
       <c r="E54" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="42"/>
       <c r="H54" s="9"/>
       <c r="I54" s="21"/>
       <c r="J54" s="17"/>
-      <c r="K54" s="54"/>
+      <c r="K54" s="46"/>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="52"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="22"/>
       <c r="E55" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="42"/>
       <c r="H55" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="54"/>
+      <c r="K55" s="46"/>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="49"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="52"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="22"/>
       <c r="E56" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="42"/>
       <c r="H56" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="17"/>
-      <c r="K56" s="54"/>
+      <c r="K56" s="46"/>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="49"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="52"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="22"/>
       <c r="E57" s="18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="42"/>
       <c r="H57" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="17"/>
-      <c r="K57" s="54"/>
+      <c r="K57" s="46"/>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="49"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="52"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="22"/>
       <c r="E58" s="18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="42"/>
       <c r="H58" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="17"/>
-      <c r="K58" s="54"/>
+      <c r="K58" s="46"/>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="49"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="52"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="22"/>
       <c r="E59" s="18" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="42"/>
       <c r="H59" s="9"/>
       <c r="I59" s="21"/>
       <c r="J59" s="17"/>
-      <c r="K59" s="54"/>
+      <c r="K59" s="46"/>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="49"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="52"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="22"/>
       <c r="E60" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="42"/>
       <c r="H60" s="9"/>
       <c r="I60" s="21"/>
       <c r="J60" s="17"/>
-      <c r="K60" s="54"/>
+      <c r="K60" s="46"/>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="52"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="22"/>
       <c r="E61" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="42"/>
       <c r="H61" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="54"/>
+      <c r="K61" s="46"/>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="49"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="52"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="22"/>
       <c r="E62" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="42"/>
       <c r="H62" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="54"/>
+      <c r="K62" s="46"/>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="49"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="52"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="22"/>
       <c r="E63" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="42"/>
       <c r="H63" s="9"/>
       <c r="I63" s="21"/>
       <c r="J63" s="17"/>
-      <c r="K63" s="54"/>
+      <c r="K63" s="46"/>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="49"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="52"/>
+      <c r="A64" s="51"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="22"/>
       <c r="E64" s="18" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="42"/>
       <c r="H64" s="9"/>
       <c r="I64" s="21"/>
       <c r="J64" s="17"/>
-      <c r="K64" s="54"/>
+      <c r="K64" s="46"/>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="49"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="52"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="22"/>
       <c r="E65" s="18" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="42"/>
       <c r="H65" s="9"/>
       <c r="I65" s="21"/>
       <c r="J65" s="17"/>
-      <c r="K65" s="54"/>
+      <c r="K65" s="46"/>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="49"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="52"/>
+      <c r="A66" s="51"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="22"/>
       <c r="E66" s="18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="42"/>
       <c r="H66" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="17"/>
-      <c r="K66" s="54"/>
+      <c r="K66" s="46"/>
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="49"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="52"/>
+      <c r="A67" s="51"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="20"/>
       <c r="E67" s="18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="42"/>
       <c r="H67" s="9"/>
       <c r="I67" s="19"/>
       <c r="J67" s="17"/>
-      <c r="K67" s="54"/>
+      <c r="K67" s="46"/>
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A68" s="49"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="52"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="7"/>
       <c r="E68" s="18" t="s">
         <v>23</v>
@@ -2496,17 +2511,17 @@
         <v>24</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="6"/>
       <c r="J68" s="17"/>
-      <c r="K68" s="54"/>
+      <c r="K68" s="46"/>
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="49"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="52"/>
+      <c r="A69" s="51"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="7"/>
       <c r="E69" s="18" t="s">
         <v>25</v>
@@ -2515,17 +2530,17 @@
         <v>26</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="6"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="54"/>
+      <c r="K69" s="46"/>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="49"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="52"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="7"/>
       <c r="E70" s="18" t="s">
         <v>27</v>
@@ -2534,287 +2549,287 @@
         <v>28</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="6"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="54"/>
+      <c r="K70" s="46"/>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="49"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="52"/>
+      <c r="A71" s="51"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="32"/>
       <c r="E71" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="31"/>
       <c r="J71" s="17"/>
-      <c r="K71" s="54"/>
+      <c r="K71" s="46"/>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="49"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="52"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="32"/>
       <c r="E72" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="31"/>
       <c r="J72" s="17"/>
-      <c r="K72" s="54"/>
+      <c r="K72" s="46"/>
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="49"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="52"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="28"/>
       <c r="E73" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="9"/>
       <c r="I73" s="27"/>
       <c r="J73" s="17"/>
-      <c r="K73" s="54"/>
+      <c r="K73" s="46"/>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="49"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="52"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="28"/>
       <c r="E74" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G74" s="44"/>
       <c r="H74" s="9"/>
       <c r="I74" s="27"/>
       <c r="J74" s="17"/>
-      <c r="K74" s="54"/>
+      <c r="K74" s="46"/>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="49"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="52"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="28"/>
       <c r="E75" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G75" s="44"/>
       <c r="H75" s="9"/>
       <c r="I75" s="27"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="54"/>
+      <c r="K75" s="46"/>
     </row>
     <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="49"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="52"/>
+      <c r="A76" s="51"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="28"/>
       <c r="E76" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="9"/>
       <c r="I76" s="27"/>
       <c r="J76" s="17"/>
-      <c r="K76" s="54"/>
+      <c r="K76" s="46"/>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="49"/>
-      <c r="B77" s="50"/>
-      <c r="C77" s="52"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="28"/>
       <c r="E77" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G77" s="44"/>
       <c r="H77" s="9"/>
       <c r="I77" s="27"/>
       <c r="J77" s="17"/>
-      <c r="K77" s="54"/>
+      <c r="K77" s="46"/>
     </row>
     <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="52"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="28"/>
       <c r="E78" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G78" s="44"/>
       <c r="H78" s="9"/>
       <c r="I78" s="27"/>
       <c r="J78" s="17"/>
-      <c r="K78" s="54"/>
+      <c r="K78" s="46"/>
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="49"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="52"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="28"/>
       <c r="E79" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G79" s="44"/>
       <c r="H79" s="9"/>
       <c r="I79" s="27"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="54"/>
+      <c r="K79" s="46"/>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="49"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="52"/>
+      <c r="A80" s="51"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="28"/>
       <c r="E80" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G80" s="44"/>
       <c r="H80" s="39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I80" s="27"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="54"/>
+      <c r="K80" s="46"/>
     </row>
     <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="49"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="52"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="28"/>
       <c r="E81" s="37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G81" s="44"/>
       <c r="H81" s="9"/>
       <c r="I81" s="27"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="54"/>
+      <c r="K81" s="46"/>
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="49"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="52"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="28"/>
       <c r="E82" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G82" s="44"/>
       <c r="H82" s="9"/>
       <c r="I82" s="27"/>
       <c r="J82" s="17"/>
-      <c r="K82" s="54"/>
+      <c r="K82" s="46"/>
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="49"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="52"/>
+      <c r="A83" s="51"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="28"/>
       <c r="E83" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="42"/>
       <c r="H83" s="9"/>
       <c r="I83" s="27"/>
       <c r="J83" s="17"/>
-      <c r="K83" s="54"/>
+      <c r="K83" s="46"/>
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="49"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="52"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="28"/>
       <c r="E84" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="42"/>
       <c r="H84" s="9"/>
       <c r="I84" s="27"/>
       <c r="J84" s="17"/>
-      <c r="K84" s="54"/>
+      <c r="K84" s="46"/>
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="49"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="52"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="28"/>
       <c r="E85" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="42"/>
       <c r="H85" s="9"/>
       <c r="I85" s="27"/>
       <c r="J85" s="17"/>
-      <c r="K85" s="54"/>
+      <c r="K85" s="46"/>
     </row>
     <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="49"/>
-      <c r="B86" s="50"/>
-      <c r="C86" s="52"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="28"/>
       <c r="E86" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="42"/>
       <c r="H86" s="9"/>
       <c r="I86" s="27"/>
       <c r="J86" s="17"/>
-      <c r="K86" s="54"/>
+      <c r="K86" s="46"/>
     </row>
     <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="49"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="52"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="7" t="s">
         <v>29</v>
       </c>
@@ -2826,12 +2841,12 @@
       <c r="H87" s="9"/>
       <c r="I87" s="6"/>
       <c r="J87" s="17"/>
-      <c r="K87" s="54"/>
+      <c r="K87" s="46"/>
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A88" s="49"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="52"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="7"/>
       <c r="E88" s="18" t="s">
         <v>31</v>
@@ -2841,37 +2856,37 @@
       <c r="H88" s="9"/>
       <c r="I88" s="6"/>
       <c r="J88" s="17"/>
-      <c r="K88" s="54"/>
+      <c r="K88" s="46"/>
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="49"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="52"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="22"/>
       <c r="E89" s="18" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="42"/>
       <c r="H89" s="9"/>
       <c r="I89" s="21"/>
       <c r="J89" s="17"/>
-      <c r="K89" s="54"/>
+      <c r="K89" s="46"/>
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="49"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="52"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="7"/>
       <c r="E90" s="18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="42"/>
       <c r="H90" s="9"/>
       <c r="I90" s="6"/>
       <c r="J90" s="17"/>
-      <c r="K90" s="54"/>
+      <c r="K90" s="46"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
@@ -2890,7 +2905,7 @@
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="17"/>
-      <c r="K91" s="54"/>
+      <c r="K91" s="46"/>
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
@@ -2907,7 +2922,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="6"/>
       <c r="J92" s="17"/>
-      <c r="K92" s="54"/>
+      <c r="K92" s="46"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E93" s="35"/>
@@ -2928,10 +2943,10 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E96" s="35"/>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E97" s="35"/>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E98" s="35"/>
     </row>
   </sheetData>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -172,10 +172,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>检查项目可以分 安全、质量、文明检查项目（方案分类，方案名称）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>设备编号 机械名称 操作人员 维修人员 设备验收情况 （上传）附件</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -597,6 +593,10 @@
   </si>
   <si>
     <t>系统级：安全用电检查标准，可用于 1：施工现场安全用电检查表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统级：施工方案</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1342,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>44</v>
@@ -1354,7 +1354,7 @@
         <v>46</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1398,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1449,7 +1449,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="6"/>
@@ -1464,11 +1464,11 @@
         <v>16</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="6"/>
@@ -1481,13 +1481,13 @@
       <c r="C10" s="54"/>
       <c r="D10" s="7"/>
       <c r="E10" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
@@ -1500,13 +1500,13 @@
       <c r="C11" s="54"/>
       <c r="D11" s="7"/>
       <c r="E11" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="6"/>
@@ -1514,7 +1514,7 @@
         <v>43030</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1523,13 +1523,13 @@
       <c r="C12" s="54"/>
       <c r="D12" s="20"/>
       <c r="E12" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="19"/>
@@ -1537,7 +1537,7 @@
         <v>43030</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1546,23 +1546,23 @@
       <c r="C13" s="54"/>
       <c r="D13" s="20"/>
       <c r="E13" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="17">
         <v>43032</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1571,13 +1571,13 @@
       <c r="C14" s="54"/>
       <c r="D14" s="24"/>
       <c r="E14" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="23"/>
@@ -1585,7 +1585,7 @@
         <v>43034</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1594,13 +1594,13 @@
       <c r="C15" s="54"/>
       <c r="D15" s="24"/>
       <c r="E15" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="23"/>
@@ -1608,7 +1608,7 @@
         <v>43030</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1617,13 +1617,13 @@
       <c r="C16" s="54"/>
       <c r="D16" s="24"/>
       <c r="E16" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="29" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="23"/>
@@ -1636,13 +1636,13 @@
       <c r="C17" s="54"/>
       <c r="D17" s="24"/>
       <c r="E17" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>153</v>
-      </c>
       <c r="G17" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="23"/>
@@ -1650,7 +1650,7 @@
         <v>43034</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1691,7 +1691,7 @@
       <c r="C20" s="54"/>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>39</v>
@@ -1708,7 +1708,7 @@
       <c r="C21" s="54"/>
       <c r="D21" s="7"/>
       <c r="E21" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>21</v>
@@ -1725,7 +1725,7 @@
       <c r="C22" s="54"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>41</v>
@@ -1759,14 +1759,14 @@
       <c r="C24" s="54"/>
       <c r="D24" s="20"/>
       <c r="E24" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="17"/>
@@ -1778,12 +1778,12 @@
       <c r="C25" s="54"/>
       <c r="D25" s="20"/>
       <c r="E25" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="42"/>
       <c r="H25" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="17"/>
@@ -1795,12 +1795,12 @@
       <c r="C26" s="54"/>
       <c r="D26" s="20"/>
       <c r="E26" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="42"/>
       <c r="H26" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="17"/>
@@ -1812,12 +1812,12 @@
       <c r="C27" s="54"/>
       <c r="D27" s="20"/>
       <c r="E27" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="42"/>
       <c r="H27" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="17"/>
@@ -1829,7 +1829,7 @@
       <c r="C28" s="54"/>
       <c r="D28" s="20"/>
       <c r="E28" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="42"/>
@@ -1844,10 +1844,10 @@
       <c r="C29" s="54"/>
       <c r="D29" s="22"/>
       <c r="E29" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="9"/>
@@ -1861,7 +1861,7 @@
       <c r="C30" s="54"/>
       <c r="D30" s="22"/>
       <c r="E30" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="42"/>
@@ -1876,7 +1876,7 @@
       <c r="C31" s="54"/>
       <c r="D31" s="22"/>
       <c r="E31" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="42"/>
@@ -1891,12 +1891,12 @@
       <c r="C32" s="54"/>
       <c r="D32" s="22"/>
       <c r="E32" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="42"/>
       <c r="H32" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="17"/>
@@ -1908,12 +1908,12 @@
       <c r="C33" s="54"/>
       <c r="D33" s="22"/>
       <c r="E33" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="42"/>
       <c r="H33" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="17"/>
@@ -1925,12 +1925,12 @@
       <c r="C34" s="54"/>
       <c r="D34" s="22"/>
       <c r="E34" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="42"/>
       <c r="H34" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="17"/>
@@ -1942,12 +1942,12 @@
       <c r="C35" s="54"/>
       <c r="D35" s="22"/>
       <c r="E35" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="42"/>
       <c r="H35" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="17"/>
@@ -1959,12 +1959,12 @@
       <c r="C36" s="54"/>
       <c r="D36" s="22"/>
       <c r="E36" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="42"/>
       <c r="H36" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="17"/>
@@ -1976,12 +1976,12 @@
       <c r="C37" s="54"/>
       <c r="D37" s="22"/>
       <c r="E37" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="42"/>
       <c r="H37" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="17"/>
@@ -1993,7 +1993,7 @@
       <c r="C38" s="54"/>
       <c r="D38" s="22"/>
       <c r="E38" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="42"/>
@@ -2008,7 +2008,7 @@
       <c r="C39" s="54"/>
       <c r="D39" s="22"/>
       <c r="E39" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="42"/>
@@ -2023,12 +2023,12 @@
       <c r="C40" s="54"/>
       <c r="D40" s="22"/>
       <c r="E40" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="42"/>
       <c r="H40" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="17"/>
@@ -2040,10 +2040,10 @@
       <c r="C41" s="54"/>
       <c r="D41" s="24"/>
       <c r="E41" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="9"/>
@@ -2057,10 +2057,10 @@
       <c r="C42" s="54"/>
       <c r="D42" s="24"/>
       <c r="E42" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="9"/>
@@ -2074,10 +2074,10 @@
       <c r="C43" s="54"/>
       <c r="D43" s="24"/>
       <c r="E43" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="9"/>
@@ -2091,13 +2091,13 @@
       <c r="C44" s="54"/>
       <c r="D44" s="24"/>
       <c r="E44" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="23"/>
@@ -2110,13 +2110,13 @@
       <c r="C45" s="54"/>
       <c r="D45" s="24"/>
       <c r="E45" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="23"/>
@@ -2129,16 +2129,16 @@
       <c r="C46" s="54"/>
       <c r="D46" s="24"/>
       <c r="E46" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="17"/>
@@ -2150,16 +2150,16 @@
       <c r="C47" s="54"/>
       <c r="D47" s="24"/>
       <c r="E47" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="17"/>
@@ -2171,16 +2171,16 @@
       <c r="C48" s="54"/>
       <c r="D48" s="24"/>
       <c r="E48" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="17"/>
@@ -2192,16 +2192,16 @@
       <c r="C49" s="54"/>
       <c r="D49" s="24"/>
       <c r="E49" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="17"/>
@@ -2213,10 +2213,10 @@
       <c r="C50" s="54"/>
       <c r="D50" s="24"/>
       <c r="E50" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="9"/>
@@ -2230,12 +2230,12 @@
       <c r="C51" s="54"/>
       <c r="D51" s="22"/>
       <c r="E51" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="42"/>
       <c r="H51" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="17"/>
@@ -2247,12 +2247,12 @@
       <c r="C52" s="54"/>
       <c r="D52" s="22"/>
       <c r="E52" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="42"/>
       <c r="H52" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="17"/>
@@ -2264,12 +2264,12 @@
       <c r="C53" s="54"/>
       <c r="D53" s="22"/>
       <c r="E53" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="42"/>
       <c r="H53" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="17"/>
@@ -2281,7 +2281,7 @@
       <c r="C54" s="54"/>
       <c r="D54" s="22"/>
       <c r="E54" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="42"/>
@@ -2296,12 +2296,12 @@
       <c r="C55" s="54"/>
       <c r="D55" s="22"/>
       <c r="E55" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="42"/>
       <c r="H55" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="17"/>
@@ -2313,12 +2313,12 @@
       <c r="C56" s="54"/>
       <c r="D56" s="22"/>
       <c r="E56" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="42"/>
       <c r="H56" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="17"/>
@@ -2330,12 +2330,12 @@
       <c r="C57" s="54"/>
       <c r="D57" s="22"/>
       <c r="E57" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="42"/>
       <c r="H57" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="17"/>
@@ -2347,12 +2347,12 @@
       <c r="C58" s="54"/>
       <c r="D58" s="22"/>
       <c r="E58" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="42"/>
       <c r="H58" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="17"/>
@@ -2364,7 +2364,7 @@
       <c r="C59" s="54"/>
       <c r="D59" s="22"/>
       <c r="E59" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="42"/>
@@ -2379,7 +2379,7 @@
       <c r="C60" s="54"/>
       <c r="D60" s="22"/>
       <c r="E60" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="42"/>
@@ -2394,12 +2394,12 @@
       <c r="C61" s="54"/>
       <c r="D61" s="22"/>
       <c r="E61" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="42"/>
       <c r="H61" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="17"/>
@@ -2411,12 +2411,12 @@
       <c r="C62" s="54"/>
       <c r="D62" s="22"/>
       <c r="E62" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="42"/>
       <c r="H62" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="17"/>
@@ -2428,7 +2428,7 @@
       <c r="C63" s="54"/>
       <c r="D63" s="22"/>
       <c r="E63" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="42"/>
@@ -2443,7 +2443,7 @@
       <c r="C64" s="54"/>
       <c r="D64" s="22"/>
       <c r="E64" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="42"/>
@@ -2458,7 +2458,7 @@
       <c r="C65" s="54"/>
       <c r="D65" s="22"/>
       <c r="E65" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="42"/>
@@ -2473,12 +2473,12 @@
       <c r="C66" s="54"/>
       <c r="D66" s="22"/>
       <c r="E66" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="42"/>
       <c r="H66" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="17"/>
@@ -2490,7 +2490,7 @@
       <c r="C67" s="54"/>
       <c r="D67" s="20"/>
       <c r="E67" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="42"/>
@@ -2511,7 +2511,7 @@
         <v>24</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="6"/>
@@ -2530,7 +2530,7 @@
         <v>26</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="6"/>
@@ -2549,7 +2549,7 @@
         <v>28</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="6"/>
@@ -2562,13 +2562,13 @@
       <c r="C71" s="54"/>
       <c r="D71" s="32"/>
       <c r="E71" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="G71" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="31"/>
@@ -2581,13 +2581,13 @@
       <c r="C72" s="54"/>
       <c r="D72" s="32"/>
       <c r="E72" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="31"/>
@@ -2600,10 +2600,10 @@
       <c r="C73" s="54"/>
       <c r="D73" s="28"/>
       <c r="E73" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="9"/>
@@ -2617,10 +2617,10 @@
       <c r="C74" s="54"/>
       <c r="D74" s="28"/>
       <c r="E74" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G74" s="44"/>
       <c r="H74" s="9"/>
@@ -2634,10 +2634,10 @@
       <c r="C75" s="54"/>
       <c r="D75" s="28"/>
       <c r="E75" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G75" s="44"/>
       <c r="H75" s="9"/>
@@ -2651,10 +2651,10 @@
       <c r="C76" s="54"/>
       <c r="D76" s="28"/>
       <c r="E76" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="9"/>
@@ -2668,10 +2668,10 @@
       <c r="C77" s="54"/>
       <c r="D77" s="28"/>
       <c r="E77" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G77" s="44"/>
       <c r="H77" s="9"/>
@@ -2685,10 +2685,10 @@
       <c r="C78" s="54"/>
       <c r="D78" s="28"/>
       <c r="E78" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G78" s="44"/>
       <c r="H78" s="9"/>
@@ -2702,10 +2702,10 @@
       <c r="C79" s="54"/>
       <c r="D79" s="28"/>
       <c r="E79" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G79" s="44"/>
       <c r="H79" s="9"/>
@@ -2719,14 +2719,14 @@
       <c r="C80" s="54"/>
       <c r="D80" s="28"/>
       <c r="E80" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G80" s="44"/>
       <c r="H80" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I80" s="27"/>
       <c r="J80" s="17"/>
@@ -2738,10 +2738,10 @@
       <c r="C81" s="54"/>
       <c r="D81" s="28"/>
       <c r="E81" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G81" s="44"/>
       <c r="H81" s="9"/>
@@ -2755,10 +2755,10 @@
       <c r="C82" s="54"/>
       <c r="D82" s="28"/>
       <c r="E82" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G82" s="44"/>
       <c r="H82" s="9"/>
@@ -2772,7 +2772,7 @@
       <c r="C83" s="54"/>
       <c r="D83" s="28"/>
       <c r="E83" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="42"/>
@@ -2787,7 +2787,7 @@
       <c r="C84" s="54"/>
       <c r="D84" s="28"/>
       <c r="E84" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="42"/>
@@ -2802,7 +2802,7 @@
       <c r="C85" s="54"/>
       <c r="D85" s="28"/>
       <c r="E85" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="42"/>
@@ -2817,7 +2817,7 @@
       <c r="C86" s="54"/>
       <c r="D86" s="28"/>
       <c r="E86" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="42"/>
@@ -2864,7 +2864,7 @@
       <c r="C89" s="54"/>
       <c r="D89" s="22"/>
       <c r="E89" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="42"/>
@@ -2879,7 +2879,7 @@
       <c r="C90" s="54"/>
       <c r="D90" s="7"/>
       <c r="E90" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="42"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -165,10 +165,6 @@
   </si>
   <si>
     <t>计划结束时间</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全资料目录（包括项目，科目，名称&lt;树形结构&gt;）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -597,6 +593,26 @@
   </si>
   <si>
     <t>系统级：施工方案</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋军</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全资料目录（包括项目，科目，名称&lt;树形结构&gt;）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟化数据模型，可以复用，通过code来区分</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1274,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1290,9 +1306,10 @@
     <col min="8" max="8" width="9.75" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1324,7 @@
       <c r="J1" s="48"/>
       <c r="K1" s="40"/>
     </row>
-    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +1339,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="41"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1342,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>44</v>
@@ -1354,10 +1371,13 @@
         <v>46</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1380,7 +1400,7 @@
       <c r="J4" s="17"/>
       <c r="K4" s="46"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A5" s="51">
         <v>2</v>
       </c>
@@ -1398,14 +1418,14 @@
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="17"/>
       <c r="K5" s="46"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="52"/>
       <c r="C6" s="54"/>
@@ -1422,7 +1442,7 @@
       <c r="J6" s="17"/>
       <c r="K6" s="46"/>
     </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="52"/>
       <c r="C7" s="54"/>
@@ -1437,7 +1457,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="46"/>
     </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51"/>
       <c r="B8" s="52"/>
       <c r="C8" s="54"/>
@@ -1449,14 +1469,14 @@
         <v>19</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="6"/>
       <c r="J8" s="17"/>
       <c r="K8" s="46"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="B9" s="52"/>
       <c r="C9" s="54"/>
@@ -1464,49 +1484,53 @@
         <v>16</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="6"/>
       <c r="J9" s="17"/>
       <c r="K9" s="46"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="51"/>
       <c r="B10" s="52"/>
       <c r="C10" s="54"/>
       <c r="D10" s="7"/>
       <c r="E10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="42" t="s">
         <v>153</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>141</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="46"/>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="17">
+        <v>43037</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="51"/>
       <c r="B11" s="52"/>
       <c r="C11" s="54"/>
       <c r="D11" s="7"/>
       <c r="E11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="6"/>
@@ -1514,22 +1538,22 @@
         <v>43030</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="51"/>
       <c r="B12" s="52"/>
       <c r="C12" s="54"/>
       <c r="D12" s="20"/>
       <c r="E12" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="19"/>
@@ -1537,47 +1561,47 @@
         <v>43030</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="51"/>
       <c r="B13" s="52"/>
       <c r="C13" s="54"/>
       <c r="D13" s="20"/>
       <c r="E13" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="17">
         <v>43032</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="51"/>
       <c r="B14" s="52"/>
       <c r="C14" s="54"/>
       <c r="D14" s="24"/>
       <c r="E14" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="23"/>
@@ -1585,22 +1609,22 @@
         <v>43034</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="51"/>
       <c r="B15" s="52"/>
       <c r="C15" s="54"/>
       <c r="D15" s="24"/>
       <c r="E15" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="23"/>
@@ -1608,27 +1632,34 @@
         <v>43030</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="51"/>
       <c r="B16" s="52"/>
       <c r="C16" s="54"/>
       <c r="D16" s="24"/>
       <c r="E16" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="46"/>
+      <c r="J16" s="17">
+        <v>43037</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="51"/>
@@ -1636,13 +1667,13 @@
       <c r="C17" s="54"/>
       <c r="D17" s="24"/>
       <c r="E17" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>152</v>
-      </c>
       <c r="G17" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="23"/>
@@ -1650,7 +1681,7 @@
         <v>43034</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1691,7 +1722,7 @@
       <c r="C20" s="54"/>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>39</v>
@@ -1708,7 +1739,7 @@
       <c r="C21" s="54"/>
       <c r="D21" s="7"/>
       <c r="E21" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>21</v>
@@ -1725,7 +1756,7 @@
       <c r="C22" s="54"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>41</v>
@@ -1759,14 +1790,14 @@
       <c r="C24" s="54"/>
       <c r="D24" s="20"/>
       <c r="E24" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="17"/>
@@ -1778,12 +1809,12 @@
       <c r="C25" s="54"/>
       <c r="D25" s="20"/>
       <c r="E25" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="42"/>
       <c r="H25" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="17"/>
@@ -1795,12 +1826,12 @@
       <c r="C26" s="54"/>
       <c r="D26" s="20"/>
       <c r="E26" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="42"/>
       <c r="H26" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="17"/>
@@ -1812,12 +1843,12 @@
       <c r="C27" s="54"/>
       <c r="D27" s="20"/>
       <c r="E27" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="42"/>
       <c r="H27" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="17"/>
@@ -1829,7 +1860,7 @@
       <c r="C28" s="54"/>
       <c r="D28" s="20"/>
       <c r="E28" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="42"/>
@@ -1844,10 +1875,10 @@
       <c r="C29" s="54"/>
       <c r="D29" s="22"/>
       <c r="E29" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="43"/>
       <c r="H29" s="9"/>
@@ -1861,7 +1892,7 @@
       <c r="C30" s="54"/>
       <c r="D30" s="22"/>
       <c r="E30" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="42"/>
@@ -1876,7 +1907,7 @@
       <c r="C31" s="54"/>
       <c r="D31" s="22"/>
       <c r="E31" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="42"/>
@@ -1891,12 +1922,12 @@
       <c r="C32" s="54"/>
       <c r="D32" s="22"/>
       <c r="E32" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="42"/>
       <c r="H32" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="17"/>
@@ -1908,12 +1939,12 @@
       <c r="C33" s="54"/>
       <c r="D33" s="22"/>
       <c r="E33" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="42"/>
       <c r="H33" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="17"/>
@@ -1925,12 +1956,12 @@
       <c r="C34" s="54"/>
       <c r="D34" s="22"/>
       <c r="E34" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="42"/>
       <c r="H34" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="17"/>
@@ -1942,12 +1973,12 @@
       <c r="C35" s="54"/>
       <c r="D35" s="22"/>
       <c r="E35" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="42"/>
       <c r="H35" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="17"/>
@@ -1959,12 +1990,12 @@
       <c r="C36" s="54"/>
       <c r="D36" s="22"/>
       <c r="E36" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="42"/>
       <c r="H36" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="17"/>
@@ -1976,12 +2007,12 @@
       <c r="C37" s="54"/>
       <c r="D37" s="22"/>
       <c r="E37" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="42"/>
       <c r="H37" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="17"/>
@@ -1993,7 +2024,7 @@
       <c r="C38" s="54"/>
       <c r="D38" s="22"/>
       <c r="E38" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="42"/>
@@ -2008,7 +2039,7 @@
       <c r="C39" s="54"/>
       <c r="D39" s="22"/>
       <c r="E39" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="42"/>
@@ -2023,12 +2054,12 @@
       <c r="C40" s="54"/>
       <c r="D40" s="22"/>
       <c r="E40" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="42"/>
       <c r="H40" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="17"/>
@@ -2040,10 +2071,10 @@
       <c r="C41" s="54"/>
       <c r="D41" s="24"/>
       <c r="E41" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="9"/>
@@ -2057,10 +2088,10 @@
       <c r="C42" s="54"/>
       <c r="D42" s="24"/>
       <c r="E42" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="9"/>
@@ -2074,10 +2105,10 @@
       <c r="C43" s="54"/>
       <c r="D43" s="24"/>
       <c r="E43" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="9"/>
@@ -2091,13 +2122,13 @@
       <c r="C44" s="54"/>
       <c r="D44" s="24"/>
       <c r="E44" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="23"/>
@@ -2110,13 +2141,13 @@
       <c r="C45" s="54"/>
       <c r="D45" s="24"/>
       <c r="E45" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="23"/>
@@ -2129,16 +2160,16 @@
       <c r="C46" s="54"/>
       <c r="D46" s="24"/>
       <c r="E46" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="17"/>
@@ -2150,16 +2181,16 @@
       <c r="C47" s="54"/>
       <c r="D47" s="24"/>
       <c r="E47" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="17"/>
@@ -2171,16 +2202,16 @@
       <c r="C48" s="54"/>
       <c r="D48" s="24"/>
       <c r="E48" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="17"/>
@@ -2192,16 +2223,16 @@
       <c r="C49" s="54"/>
       <c r="D49" s="24"/>
       <c r="E49" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="17"/>
@@ -2213,10 +2244,10 @@
       <c r="C50" s="54"/>
       <c r="D50" s="24"/>
       <c r="E50" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="9"/>
@@ -2230,12 +2261,12 @@
       <c r="C51" s="54"/>
       <c r="D51" s="22"/>
       <c r="E51" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="42"/>
       <c r="H51" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="17"/>
@@ -2247,12 +2278,12 @@
       <c r="C52" s="54"/>
       <c r="D52" s="22"/>
       <c r="E52" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="42"/>
       <c r="H52" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="17"/>
@@ -2264,12 +2295,12 @@
       <c r="C53" s="54"/>
       <c r="D53" s="22"/>
       <c r="E53" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="42"/>
       <c r="H53" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="17"/>
@@ -2281,7 +2312,7 @@
       <c r="C54" s="54"/>
       <c r="D54" s="22"/>
       <c r="E54" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="42"/>
@@ -2296,12 +2327,12 @@
       <c r="C55" s="54"/>
       <c r="D55" s="22"/>
       <c r="E55" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="42"/>
       <c r="H55" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="17"/>
@@ -2313,12 +2344,12 @@
       <c r="C56" s="54"/>
       <c r="D56" s="22"/>
       <c r="E56" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="42"/>
       <c r="H56" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="17"/>
@@ -2330,12 +2361,12 @@
       <c r="C57" s="54"/>
       <c r="D57" s="22"/>
       <c r="E57" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="42"/>
       <c r="H57" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="17"/>
@@ -2347,12 +2378,12 @@
       <c r="C58" s="54"/>
       <c r="D58" s="22"/>
       <c r="E58" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="42"/>
       <c r="H58" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="17"/>
@@ -2364,7 +2395,7 @@
       <c r="C59" s="54"/>
       <c r="D59" s="22"/>
       <c r="E59" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="42"/>
@@ -2379,7 +2410,7 @@
       <c r="C60" s="54"/>
       <c r="D60" s="22"/>
       <c r="E60" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="42"/>
@@ -2394,12 +2425,12 @@
       <c r="C61" s="54"/>
       <c r="D61" s="22"/>
       <c r="E61" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="42"/>
       <c r="H61" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="17"/>
@@ -2411,12 +2442,12 @@
       <c r="C62" s="54"/>
       <c r="D62" s="22"/>
       <c r="E62" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="42"/>
       <c r="H62" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="17"/>
@@ -2428,7 +2459,7 @@
       <c r="C63" s="54"/>
       <c r="D63" s="22"/>
       <c r="E63" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="42"/>
@@ -2443,7 +2474,7 @@
       <c r="C64" s="54"/>
       <c r="D64" s="22"/>
       <c r="E64" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="42"/>
@@ -2458,7 +2489,7 @@
       <c r="C65" s="54"/>
       <c r="D65" s="22"/>
       <c r="E65" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="42"/>
@@ -2473,12 +2504,12 @@
       <c r="C66" s="54"/>
       <c r="D66" s="22"/>
       <c r="E66" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="42"/>
       <c r="H66" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="17"/>
@@ -2490,7 +2521,7 @@
       <c r="C67" s="54"/>
       <c r="D67" s="20"/>
       <c r="E67" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="42"/>
@@ -2511,7 +2542,7 @@
         <v>24</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="6"/>
@@ -2530,7 +2561,7 @@
         <v>26</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="6"/>
@@ -2549,7 +2580,7 @@
         <v>28</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="6"/>
@@ -2562,13 +2593,13 @@
       <c r="C71" s="54"/>
       <c r="D71" s="32"/>
       <c r="E71" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="G71" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="31"/>
@@ -2581,13 +2612,13 @@
       <c r="C72" s="54"/>
       <c r="D72" s="32"/>
       <c r="E72" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="31"/>
@@ -2600,10 +2631,10 @@
       <c r="C73" s="54"/>
       <c r="D73" s="28"/>
       <c r="E73" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="9"/>
@@ -2617,10 +2648,10 @@
       <c r="C74" s="54"/>
       <c r="D74" s="28"/>
       <c r="E74" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G74" s="44"/>
       <c r="H74" s="9"/>
@@ -2634,10 +2665,10 @@
       <c r="C75" s="54"/>
       <c r="D75" s="28"/>
       <c r="E75" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G75" s="44"/>
       <c r="H75" s="9"/>
@@ -2651,10 +2682,10 @@
       <c r="C76" s="54"/>
       <c r="D76" s="28"/>
       <c r="E76" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="9"/>
@@ -2668,10 +2699,10 @@
       <c r="C77" s="54"/>
       <c r="D77" s="28"/>
       <c r="E77" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G77" s="44"/>
       <c r="H77" s="9"/>
@@ -2685,10 +2716,10 @@
       <c r="C78" s="54"/>
       <c r="D78" s="28"/>
       <c r="E78" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G78" s="44"/>
       <c r="H78" s="9"/>
@@ -2702,10 +2733,10 @@
       <c r="C79" s="54"/>
       <c r="D79" s="28"/>
       <c r="E79" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G79" s="44"/>
       <c r="H79" s="9"/>
@@ -2719,14 +2750,14 @@
       <c r="C80" s="54"/>
       <c r="D80" s="28"/>
       <c r="E80" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G80" s="44"/>
       <c r="H80" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I80" s="27"/>
       <c r="J80" s="17"/>
@@ -2738,10 +2769,10 @@
       <c r="C81" s="54"/>
       <c r="D81" s="28"/>
       <c r="E81" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G81" s="44"/>
       <c r="H81" s="9"/>
@@ -2755,10 +2786,10 @@
       <c r="C82" s="54"/>
       <c r="D82" s="28"/>
       <c r="E82" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G82" s="44"/>
       <c r="H82" s="9"/>
@@ -2772,7 +2803,7 @@
       <c r="C83" s="54"/>
       <c r="D83" s="28"/>
       <c r="E83" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="42"/>
@@ -2787,7 +2818,7 @@
       <c r="C84" s="54"/>
       <c r="D84" s="28"/>
       <c r="E84" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="42"/>
@@ -2802,7 +2833,7 @@
       <c r="C85" s="54"/>
       <c r="D85" s="28"/>
       <c r="E85" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="42"/>
@@ -2817,7 +2848,7 @@
       <c r="C86" s="54"/>
       <c r="D86" s="28"/>
       <c r="E86" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="42"/>
@@ -2864,7 +2895,7 @@
       <c r="C89" s="54"/>
       <c r="D89" s="22"/>
       <c r="E89" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="42"/>
@@ -2879,7 +2910,7 @@
       <c r="C90" s="54"/>
       <c r="D90" s="7"/>
       <c r="E90" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="42"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -183,10 +183,6 @@
   </si>
   <si>
     <t>奖励和处罚通知，两个单据</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间 安保岗位 计划值班人员 实际值班人员 交班注意事项（1、安保器具是否齐全；2、安保范围设施是否完整；3、摄像系统是否正常；4、场内物质情况是否异常等。）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -613,6 +609,14 @@
   </si>
   <si>
     <t>虚拟化数据模型，可以复用，通过code来区分</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间 安保岗位 计划值班人员 实际值班人员 交班注意事项（1、安保器具是否齐全；2、安保范围设施是否完整；3、摄像系统是否正常；4、场内物质情况是否异常等。）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -827,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,6 +987,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1292,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1359,7 +1366,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>44</v>
@@ -1371,10 +1378,10 @@
         <v>46</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L3" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1418,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1469,7 +1476,7 @@
         <v>19</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="6"/>
@@ -1484,11 +1491,11 @@
         <v>16</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="6"/>
@@ -1501,13 +1508,13 @@
       <c r="C10" s="54"/>
       <c r="D10" s="7"/>
       <c r="E10" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="42" t="s">
         <v>152</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>153</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
@@ -1515,7 +1522,7 @@
         <v>43037</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1524,13 +1531,13 @@
       <c r="C11" s="54"/>
       <c r="D11" s="7"/>
       <c r="E11" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="6"/>
@@ -1538,7 +1545,7 @@
         <v>43030</v>
       </c>
       <c r="K11" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1547,13 +1554,13 @@
       <c r="C12" s="54"/>
       <c r="D12" s="20"/>
       <c r="E12" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="19"/>
@@ -1561,7 +1568,7 @@
         <v>43030</v>
       </c>
       <c r="K12" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1570,23 +1577,23 @@
       <c r="C13" s="54"/>
       <c r="D13" s="20"/>
       <c r="E13" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="17">
         <v>43032</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1595,13 +1602,13 @@
       <c r="C14" s="54"/>
       <c r="D14" s="24"/>
       <c r="E14" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="23"/>
@@ -1609,7 +1616,7 @@
         <v>43034</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1618,13 +1625,13 @@
       <c r="C15" s="54"/>
       <c r="D15" s="24"/>
       <c r="E15" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="23"/>
@@ -1632,7 +1639,7 @@
         <v>43030</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1641,13 +1648,13 @@
       <c r="C16" s="54"/>
       <c r="D16" s="24"/>
       <c r="E16" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="23"/>
@@ -1655,10 +1662,10 @@
         <v>43037</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1667,13 +1674,13 @@
       <c r="C17" s="54"/>
       <c r="D17" s="24"/>
       <c r="E17" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>151</v>
-      </c>
       <c r="G17" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="23"/>
@@ -1681,7 +1688,7 @@
         <v>43034</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1722,7 +1729,7 @@
       <c r="C20" s="54"/>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>39</v>
@@ -1739,7 +1746,7 @@
       <c r="C21" s="54"/>
       <c r="D21" s="7"/>
       <c r="E21" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>21</v>
@@ -1756,7 +1763,7 @@
       <c r="C22" s="54"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>41</v>
@@ -1790,14 +1797,14 @@
       <c r="C24" s="54"/>
       <c r="D24" s="20"/>
       <c r="E24" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="17"/>
@@ -1809,12 +1816,12 @@
       <c r="C25" s="54"/>
       <c r="D25" s="20"/>
       <c r="E25" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="42"/>
       <c r="H25" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="17"/>
@@ -1826,12 +1833,12 @@
       <c r="C26" s="54"/>
       <c r="D26" s="20"/>
       <c r="E26" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="42"/>
       <c r="H26" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="17"/>
@@ -1843,12 +1850,12 @@
       <c r="C27" s="54"/>
       <c r="D27" s="20"/>
       <c r="E27" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="42"/>
       <c r="H27" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="17"/>
@@ -1860,7 +1867,7 @@
       <c r="C28" s="54"/>
       <c r="D28" s="20"/>
       <c r="E28" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="42"/>
@@ -1875,7 +1882,7 @@
       <c r="C29" s="54"/>
       <c r="D29" s="22"/>
       <c r="E29" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>50</v>
@@ -1892,7 +1899,7 @@
       <c r="C30" s="54"/>
       <c r="D30" s="22"/>
       <c r="E30" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="42"/>
@@ -1907,7 +1914,7 @@
       <c r="C31" s="54"/>
       <c r="D31" s="22"/>
       <c r="E31" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="42"/>
@@ -1922,12 +1929,12 @@
       <c r="C32" s="54"/>
       <c r="D32" s="22"/>
       <c r="E32" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="42"/>
       <c r="H32" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I32" s="21"/>
       <c r="J32" s="17"/>
@@ -1939,12 +1946,12 @@
       <c r="C33" s="54"/>
       <c r="D33" s="22"/>
       <c r="E33" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="42"/>
       <c r="H33" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I33" s="21"/>
       <c r="J33" s="17"/>
@@ -1956,12 +1963,12 @@
       <c r="C34" s="54"/>
       <c r="D34" s="22"/>
       <c r="E34" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="42"/>
       <c r="H34" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="17"/>
@@ -1973,12 +1980,12 @@
       <c r="C35" s="54"/>
       <c r="D35" s="22"/>
       <c r="E35" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="42"/>
       <c r="H35" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I35" s="21"/>
       <c r="J35" s="17"/>
@@ -1990,12 +1997,12 @@
       <c r="C36" s="54"/>
       <c r="D36" s="22"/>
       <c r="E36" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="42"/>
       <c r="H36" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I36" s="21"/>
       <c r="J36" s="17"/>
@@ -2007,12 +2014,12 @@
       <c r="C37" s="54"/>
       <c r="D37" s="22"/>
       <c r="E37" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="42"/>
       <c r="H37" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="17"/>
@@ -2024,7 +2031,7 @@
       <c r="C38" s="54"/>
       <c r="D38" s="22"/>
       <c r="E38" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="42"/>
@@ -2039,7 +2046,7 @@
       <c r="C39" s="54"/>
       <c r="D39" s="22"/>
       <c r="E39" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="42"/>
@@ -2054,12 +2061,12 @@
       <c r="C40" s="54"/>
       <c r="D40" s="22"/>
       <c r="E40" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="42"/>
       <c r="H40" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I40" s="21"/>
       <c r="J40" s="17"/>
@@ -2071,7 +2078,7 @@
       <c r="C41" s="54"/>
       <c r="D41" s="24"/>
       <c r="E41" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="29" t="s">
         <v>47</v>
@@ -2088,7 +2095,7 @@
       <c r="C42" s="54"/>
       <c r="D42" s="24"/>
       <c r="E42" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" s="29" t="s">
         <v>48</v>
@@ -2105,7 +2112,7 @@
       <c r="C43" s="54"/>
       <c r="D43" s="24"/>
       <c r="E43" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F43" s="29" t="s">
         <v>49</v>
@@ -2122,18 +2129,22 @@
       <c r="C44" s="54"/>
       <c r="D44" s="24"/>
       <c r="E44" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="G44" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H44" s="9"/>
       <c r="I44" s="23"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="46"/>
+      <c r="J44" s="17">
+        <v>43037</v>
+      </c>
+      <c r="K44" s="55" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="51"/>
@@ -2141,13 +2152,13 @@
       <c r="C45" s="54"/>
       <c r="D45" s="24"/>
       <c r="E45" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="23"/>
@@ -2160,16 +2171,16 @@
       <c r="C46" s="54"/>
       <c r="D46" s="24"/>
       <c r="E46" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="17"/>
@@ -2181,16 +2192,16 @@
       <c r="C47" s="54"/>
       <c r="D47" s="24"/>
       <c r="E47" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G47" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="17"/>
@@ -2202,16 +2213,16 @@
       <c r="C48" s="54"/>
       <c r="D48" s="24"/>
       <c r="E48" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="17"/>
@@ -2223,16 +2234,16 @@
       <c r="C49" s="54"/>
       <c r="D49" s="24"/>
       <c r="E49" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="17"/>
@@ -2244,10 +2255,10 @@
       <c r="C50" s="54"/>
       <c r="D50" s="24"/>
       <c r="E50" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="9"/>
@@ -2261,12 +2272,12 @@
       <c r="C51" s="54"/>
       <c r="D51" s="22"/>
       <c r="E51" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="42"/>
       <c r="H51" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I51" s="21"/>
       <c r="J51" s="17"/>
@@ -2278,12 +2289,12 @@
       <c r="C52" s="54"/>
       <c r="D52" s="22"/>
       <c r="E52" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="42"/>
       <c r="H52" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I52" s="21"/>
       <c r="J52" s="17"/>
@@ -2295,12 +2306,12 @@
       <c r="C53" s="54"/>
       <c r="D53" s="22"/>
       <c r="E53" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="42"/>
       <c r="H53" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I53" s="21"/>
       <c r="J53" s="17"/>
@@ -2312,7 +2323,7 @@
       <c r="C54" s="54"/>
       <c r="D54" s="22"/>
       <c r="E54" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="42"/>
@@ -2327,12 +2338,12 @@
       <c r="C55" s="54"/>
       <c r="D55" s="22"/>
       <c r="E55" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="42"/>
       <c r="H55" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I55" s="21"/>
       <c r="J55" s="17"/>
@@ -2344,12 +2355,12 @@
       <c r="C56" s="54"/>
       <c r="D56" s="22"/>
       <c r="E56" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="42"/>
       <c r="H56" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I56" s="21"/>
       <c r="J56" s="17"/>
@@ -2361,12 +2372,12 @@
       <c r="C57" s="54"/>
       <c r="D57" s="22"/>
       <c r="E57" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="42"/>
       <c r="H57" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I57" s="21"/>
       <c r="J57" s="17"/>
@@ -2378,12 +2389,12 @@
       <c r="C58" s="54"/>
       <c r="D58" s="22"/>
       <c r="E58" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F58" s="5"/>
       <c r="G58" s="42"/>
       <c r="H58" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I58" s="21"/>
       <c r="J58" s="17"/>
@@ -2395,7 +2406,7 @@
       <c r="C59" s="54"/>
       <c r="D59" s="22"/>
       <c r="E59" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="42"/>
@@ -2410,7 +2421,7 @@
       <c r="C60" s="54"/>
       <c r="D60" s="22"/>
       <c r="E60" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="42"/>
@@ -2425,12 +2436,12 @@
       <c r="C61" s="54"/>
       <c r="D61" s="22"/>
       <c r="E61" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="42"/>
       <c r="H61" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I61" s="21"/>
       <c r="J61" s="17"/>
@@ -2442,12 +2453,12 @@
       <c r="C62" s="54"/>
       <c r="D62" s="22"/>
       <c r="E62" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F62" s="5"/>
       <c r="G62" s="42"/>
       <c r="H62" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I62" s="21"/>
       <c r="J62" s="17"/>
@@ -2459,7 +2470,7 @@
       <c r="C63" s="54"/>
       <c r="D63" s="22"/>
       <c r="E63" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="42"/>
@@ -2474,7 +2485,7 @@
       <c r="C64" s="54"/>
       <c r="D64" s="22"/>
       <c r="E64" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="42"/>
@@ -2489,7 +2500,7 @@
       <c r="C65" s="54"/>
       <c r="D65" s="22"/>
       <c r="E65" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="42"/>
@@ -2504,12 +2515,12 @@
       <c r="C66" s="54"/>
       <c r="D66" s="22"/>
       <c r="E66" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="42"/>
       <c r="H66" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I66" s="21"/>
       <c r="J66" s="17"/>
@@ -2521,7 +2532,7 @@
       <c r="C67" s="54"/>
       <c r="D67" s="20"/>
       <c r="E67" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="42"/>
@@ -2542,7 +2553,7 @@
         <v>24</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="6"/>
@@ -2561,7 +2572,7 @@
         <v>26</v>
       </c>
       <c r="G69" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H69" s="9"/>
       <c r="I69" s="6"/>
@@ -2580,7 +2591,7 @@
         <v>28</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H70" s="9"/>
       <c r="I70" s="6"/>
@@ -2593,13 +2604,13 @@
       <c r="C71" s="54"/>
       <c r="D71" s="32"/>
       <c r="E71" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>143</v>
-      </c>
       <c r="G71" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="31"/>
@@ -2612,13 +2623,13 @@
       <c r="C72" s="54"/>
       <c r="D72" s="32"/>
       <c r="E72" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H72" s="9"/>
       <c r="I72" s="31"/>
@@ -2631,10 +2642,10 @@
       <c r="C73" s="54"/>
       <c r="D73" s="28"/>
       <c r="E73" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F73" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G73" s="44"/>
       <c r="H73" s="9"/>
@@ -2648,10 +2659,10 @@
       <c r="C74" s="54"/>
       <c r="D74" s="28"/>
       <c r="E74" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F74" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G74" s="44"/>
       <c r="H74" s="9"/>
@@ -2665,10 +2676,10 @@
       <c r="C75" s="54"/>
       <c r="D75" s="28"/>
       <c r="E75" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F75" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G75" s="44"/>
       <c r="H75" s="9"/>
@@ -2682,10 +2693,10 @@
       <c r="C76" s="54"/>
       <c r="D76" s="28"/>
       <c r="E76" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F76" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G76" s="44"/>
       <c r="H76" s="9"/>
@@ -2699,10 +2710,10 @@
       <c r="C77" s="54"/>
       <c r="D77" s="28"/>
       <c r="E77" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G77" s="44"/>
       <c r="H77" s="9"/>
@@ -2716,10 +2727,10 @@
       <c r="C78" s="54"/>
       <c r="D78" s="28"/>
       <c r="E78" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G78" s="44"/>
       <c r="H78" s="9"/>
@@ -2733,10 +2744,10 @@
       <c r="C79" s="54"/>
       <c r="D79" s="28"/>
       <c r="E79" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F79" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G79" s="44"/>
       <c r="H79" s="9"/>
@@ -2750,14 +2761,14 @@
       <c r="C80" s="54"/>
       <c r="D80" s="28"/>
       <c r="E80" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F80" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G80" s="44"/>
       <c r="H80" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I80" s="27"/>
       <c r="J80" s="17"/>
@@ -2769,10 +2780,10 @@
       <c r="C81" s="54"/>
       <c r="D81" s="28"/>
       <c r="E81" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F81" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G81" s="44"/>
       <c r="H81" s="9"/>
@@ -2786,10 +2797,10 @@
       <c r="C82" s="54"/>
       <c r="D82" s="28"/>
       <c r="E82" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F82" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G82" s="44"/>
       <c r="H82" s="9"/>
@@ -2803,7 +2814,7 @@
       <c r="C83" s="54"/>
       <c r="D83" s="28"/>
       <c r="E83" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="42"/>
@@ -2818,7 +2829,7 @@
       <c r="C84" s="54"/>
       <c r="D84" s="28"/>
       <c r="E84" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="42"/>
@@ -2833,7 +2844,7 @@
       <c r="C85" s="54"/>
       <c r="D85" s="28"/>
       <c r="E85" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="42"/>
@@ -2848,7 +2859,7 @@
       <c r="C86" s="54"/>
       <c r="D86" s="28"/>
       <c r="E86" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="42"/>
@@ -2895,7 +2906,7 @@
       <c r="C89" s="54"/>
       <c r="D89" s="22"/>
       <c r="E89" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="42"/>
@@ -2910,7 +2921,7 @@
       <c r="C90" s="54"/>
       <c r="D90" s="7"/>
       <c r="E90" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="42"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="160">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -613,6 +613,10 @@
   </si>
   <si>
     <t>时间 安保岗位 计划值班人员 实际值班人员 交班注意事项（1、安保器具是否齐全；2、安保范围设施是否完整；3、摄像系统是否正常；4、场内物质情况是否异常等。）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -965,6 +969,9 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,9 +994,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1299,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1317,33 +1321,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
       <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1408,11 +1412,11 @@
       <c r="K4" s="46"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="51">
+      <c r="A5" s="52">
         <v>2</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1433,9 +1437,9 @@
       <c r="K5" s="46"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="7"/>
       <c r="E6" s="18" t="s">
         <v>17</v>
@@ -1450,9 +1454,9 @@
       <c r="K6" s="46"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="7"/>
       <c r="E7" s="18"/>
       <c r="F7" s="5" t="s">
@@ -1465,9 +1469,9 @@
       <c r="K7" s="46"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="51"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="7"/>
       <c r="E8" s="18" t="s">
         <v>18</v>
@@ -1484,9 +1488,9 @@
       <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="7" t="s">
         <v>16</v>
       </c>
@@ -1503,9 +1507,9 @@
       <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="7"/>
       <c r="E10" s="18" t="s">
         <v>72</v>
@@ -1526,9 +1530,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="7"/>
       <c r="E11" s="18" t="s">
         <v>73</v>
@@ -1549,9 +1553,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="20"/>
       <c r="E12" s="18" t="s">
         <v>74</v>
@@ -1572,9 +1576,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="20"/>
       <c r="E13" s="18" t="s">
         <v>75</v>
@@ -1597,9 +1601,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="24"/>
       <c r="E14" s="30" t="s">
         <v>148</v>
@@ -1620,9 +1624,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="24"/>
       <c r="E15" s="30" t="s">
         <v>76</v>
@@ -1643,9 +1647,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="24"/>
       <c r="E16" s="30" t="s">
         <v>77</v>
@@ -1669,9 +1673,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="24"/>
       <c r="E17" s="30" t="s">
         <v>149</v>
@@ -1692,9 +1696,9 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="7"/>
       <c r="E18" s="18"/>
       <c r="F18" s="5"/>
@@ -1705,9 +1709,9 @@
       <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="20" t="s">
         <v>43</v>
       </c>
@@ -1724,9 +1728,9 @@
       <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="7"/>
       <c r="E20" s="18" t="s">
         <v>78</v>
@@ -1741,9 +1745,9 @@
       <c r="K20" s="46"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="7"/>
       <c r="E21" s="18" t="s">
         <v>79</v>
@@ -1758,9 +1762,9 @@
       <c r="K21" s="46"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="54"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="7"/>
       <c r="E22" s="18" t="s">
         <v>80</v>
@@ -1775,9 +1779,9 @@
       <c r="K22" s="46"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="7"/>
       <c r="E23" s="18" t="s">
         <v>22</v>
@@ -1792,9 +1796,9 @@
       <c r="K23" s="46"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="20"/>
       <c r="E24" s="18" t="s">
         <v>81</v>
@@ -1811,9 +1815,9 @@
       <c r="K24" s="46"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="20"/>
       <c r="E25" s="18" t="s">
         <v>82</v>
@@ -1828,9 +1832,9 @@
       <c r="K25" s="46"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="54"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="20"/>
       <c r="E26" s="18" t="s">
         <v>83</v>
@@ -1845,9 +1849,9 @@
       <c r="K26" s="46"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="20"/>
       <c r="E27" s="18" t="s">
         <v>84</v>
@@ -1862,9 +1866,9 @@
       <c r="K27" s="46"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="20"/>
       <c r="E28" s="18" t="s">
         <v>85</v>
@@ -1877,9 +1881,9 @@
       <c r="K28" s="46"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="22"/>
       <c r="E29" s="18" t="s">
         <v>86</v>
@@ -1894,9 +1898,9 @@
       <c r="K29" s="46"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="22"/>
       <c r="E30" s="18" t="s">
         <v>87</v>
@@ -1909,9 +1913,9 @@
       <c r="K30" s="46"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="54"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="22"/>
       <c r="E31" s="18" t="s">
         <v>88</v>
@@ -1924,9 +1928,9 @@
       <c r="K31" s="46"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="22"/>
       <c r="E32" s="18" t="s">
         <v>89</v>
@@ -1941,9 +1945,9 @@
       <c r="K32" s="46"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="22"/>
       <c r="E33" s="18" t="s">
         <v>90</v>
@@ -1958,9 +1962,9 @@
       <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="22"/>
       <c r="E34" s="18" t="s">
         <v>91</v>
@@ -1975,9 +1979,9 @@
       <c r="K34" s="46"/>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="54"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="22"/>
       <c r="E35" s="25" t="s">
         <v>92</v>
@@ -1992,9 +1996,9 @@
       <c r="K35" s="46"/>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="22"/>
       <c r="E36" s="25" t="s">
         <v>93</v>
@@ -2009,9 +2013,9 @@
       <c r="K36" s="46"/>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="22"/>
       <c r="E37" s="25" t="s">
         <v>94</v>
@@ -2026,9 +2030,9 @@
       <c r="K37" s="46"/>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="22"/>
       <c r="E38" s="25" t="s">
         <v>95</v>
@@ -2041,9 +2045,9 @@
       <c r="K38" s="46"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="22"/>
       <c r="E39" s="25" t="s">
         <v>77</v>
@@ -2056,9 +2060,9 @@
       <c r="K39" s="46"/>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="22"/>
       <c r="E40" s="18" t="s">
         <v>96</v>
@@ -2073,9 +2077,9 @@
       <c r="K40" s="46"/>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="51"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="54"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="24"/>
       <c r="E41" s="30" t="s">
         <v>97</v>
@@ -2090,9 +2094,9 @@
       <c r="K41" s="46"/>
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="54"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="24"/>
       <c r="E42" s="30" t="s">
         <v>98</v>
@@ -2107,9 +2111,9 @@
       <c r="K42" s="46"/>
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="24"/>
       <c r="E43" s="30" t="s">
         <v>99</v>
@@ -2124,9 +2128,9 @@
       <c r="K43" s="46"/>
     </row>
     <row r="44" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A44" s="51"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="24"/>
       <c r="E44" s="30" t="s">
         <v>100</v>
@@ -2142,14 +2146,14 @@
       <c r="J44" s="17">
         <v>43037</v>
       </c>
-      <c r="K44" s="55" t="s">
+      <c r="K44" s="47" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="52"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="24"/>
       <c r="E45" s="30" t="s">
         <v>101</v>
@@ -2162,13 +2166,17 @@
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="23"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="46"/>
+      <c r="J45" s="17">
+        <v>43038</v>
+      </c>
+      <c r="K45" s="46" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="51"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="54"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="24"/>
       <c r="E46" s="30" t="s">
         <v>102</v>
@@ -2183,13 +2191,17 @@
         <v>137</v>
       </c>
       <c r="I46" s="23"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="46"/>
+      <c r="J46" s="17">
+        <v>43039</v>
+      </c>
+      <c r="K46" s="46" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="54"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="24"/>
       <c r="E47" s="30" t="s">
         <v>103</v>
@@ -2204,13 +2216,17 @@
         <v>137</v>
       </c>
       <c r="I47" s="23"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="46"/>
+      <c r="J47" s="17">
+        <v>43039</v>
+      </c>
+      <c r="K47" s="46" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="48" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A48" s="51"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="54"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="55"/>
       <c r="D48" s="24"/>
       <c r="E48" s="30" t="s">
         <v>104</v>
@@ -2229,9 +2245,9 @@
       <c r="K48" s="46"/>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="54"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="24"/>
       <c r="E49" s="30" t="s">
         <v>105</v>
@@ -2250,9 +2266,9 @@
       <c r="K49" s="46"/>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="54"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="24"/>
       <c r="E50" s="30" t="s">
         <v>106</v>
@@ -2267,9 +2283,9 @@
       <c r="K50" s="46"/>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="51"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="54"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="22"/>
       <c r="E51" s="18" t="s">
         <v>107</v>
@@ -2284,9 +2300,9 @@
       <c r="K51" s="46"/>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="51"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="54"/>
+      <c r="A52" s="52"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="22"/>
       <c r="E52" s="18" t="s">
         <v>108</v>
@@ -2301,9 +2317,9 @@
       <c r="K52" s="46"/>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="51"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="54"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="22"/>
       <c r="E53" s="18" t="s">
         <v>109</v>
@@ -2318,9 +2334,9 @@
       <c r="K53" s="46"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="51"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="22"/>
       <c r="E54" s="18" t="s">
         <v>110</v>
@@ -2333,9 +2349,9 @@
       <c r="K54" s="46"/>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="54"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="22"/>
       <c r="E55" s="18" t="s">
         <v>111</v>
@@ -2350,9 +2366,9 @@
       <c r="K55" s="46"/>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="54"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="22"/>
       <c r="E56" s="18" t="s">
         <v>112</v>
@@ -2367,9 +2383,9 @@
       <c r="K56" s="46"/>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="22"/>
       <c r="E57" s="18" t="s">
         <v>113</v>
@@ -2384,9 +2400,9 @@
       <c r="K57" s="46"/>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="54"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="55"/>
       <c r="D58" s="22"/>
       <c r="E58" s="18" t="s">
         <v>114</v>
@@ -2401,9 +2417,9 @@
       <c r="K58" s="46"/>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="51"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="54"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="22"/>
       <c r="E59" s="18" t="s">
         <v>115</v>
@@ -2416,9 +2432,9 @@
       <c r="K59" s="46"/>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="51"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="54"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="22"/>
       <c r="E60" s="18" t="s">
         <v>116</v>
@@ -2431,9 +2447,9 @@
       <c r="K60" s="46"/>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="51"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="54"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="22"/>
       <c r="E61" s="18" t="s">
         <v>117</v>
@@ -2448,9 +2464,9 @@
       <c r="K61" s="46"/>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="51"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="54"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="22"/>
       <c r="E62" s="18" t="s">
         <v>118</v>
@@ -2465,9 +2481,9 @@
       <c r="K62" s="46"/>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="51"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="54"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="55"/>
       <c r="D63" s="22"/>
       <c r="E63" s="18" t="s">
         <v>119</v>
@@ -2480,9 +2496,9 @@
       <c r="K63" s="46"/>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="51"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="54"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="22"/>
       <c r="E64" s="18" t="s">
         <v>120</v>
@@ -2495,9 +2511,9 @@
       <c r="K64" s="46"/>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="51"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="54"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="22"/>
       <c r="E65" s="18" t="s">
         <v>121</v>
@@ -2510,9 +2526,9 @@
       <c r="K65" s="46"/>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="51"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="54"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="55"/>
       <c r="D66" s="22"/>
       <c r="E66" s="18" t="s">
         <v>122</v>
@@ -2527,9 +2543,9 @@
       <c r="K66" s="46"/>
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="51"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="54"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="20"/>
       <c r="E67" s="18" t="s">
         <v>123</v>
@@ -2542,9 +2558,9 @@
       <c r="K67" s="46"/>
     </row>
     <row r="68" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A68" s="51"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="54"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="55"/>
       <c r="D68" s="7"/>
       <c r="E68" s="18" t="s">
         <v>23</v>
@@ -2561,9 +2577,9 @@
       <c r="K68" s="46"/>
     </row>
     <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="54"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="55"/>
       <c r="D69" s="7"/>
       <c r="E69" s="18" t="s">
         <v>25</v>
@@ -2580,9 +2596,9 @@
       <c r="K69" s="46"/>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="51"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="54"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="55"/>
       <c r="D70" s="7"/>
       <c r="E70" s="18" t="s">
         <v>27</v>
@@ -2599,9 +2615,9 @@
       <c r="K70" s="46"/>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="51"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="54"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="32"/>
       <c r="E71" s="18" t="s">
         <v>141</v>
@@ -2618,9 +2634,9 @@
       <c r="K71" s="46"/>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="54"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="32"/>
       <c r="E72" s="18" t="s">
         <v>140</v>
@@ -2637,9 +2653,9 @@
       <c r="K72" s="46"/>
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="51"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="54"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="28"/>
       <c r="E73" s="37" t="s">
         <v>57</v>
@@ -2654,9 +2670,9 @@
       <c r="K73" s="46"/>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="51"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="54"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="55"/>
       <c r="D74" s="28"/>
       <c r="E74" s="37" t="s">
         <v>58</v>
@@ -2671,9 +2687,9 @@
       <c r="K74" s="46"/>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="51"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="54"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="55"/>
       <c r="D75" s="28"/>
       <c r="E75" s="37" t="s">
         <v>59</v>
@@ -2688,9 +2704,9 @@
       <c r="K75" s="46"/>
     </row>
     <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="51"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="54"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="55"/>
       <c r="D76" s="28"/>
       <c r="E76" s="37" t="s">
         <v>60</v>
@@ -2705,9 +2721,9 @@
       <c r="K76" s="46"/>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="51"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="54"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="28"/>
       <c r="E77" s="37" t="s">
         <v>61</v>
@@ -2722,9 +2738,9 @@
       <c r="K77" s="46"/>
     </row>
     <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="51"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="54"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="28"/>
       <c r="E78" s="37" t="s">
         <v>62</v>
@@ -2739,9 +2755,9 @@
       <c r="K78" s="46"/>
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="51"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="54"/>
+      <c r="A79" s="52"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="28"/>
       <c r="E79" s="37" t="s">
         <v>63</v>
@@ -2756,9 +2772,9 @@
       <c r="K79" s="46"/>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="51"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="54"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="55"/>
       <c r="D80" s="28"/>
       <c r="E80" s="37" t="s">
         <v>64</v>
@@ -2775,9 +2791,9 @@
       <c r="K80" s="46"/>
     </row>
     <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="51"/>
-      <c r="B81" s="52"/>
-      <c r="C81" s="54"/>
+      <c r="A81" s="52"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="28"/>
       <c r="E81" s="37" t="s">
         <v>65</v>
@@ -2792,9 +2808,9 @@
       <c r="K81" s="46"/>
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="51"/>
-      <c r="B82" s="52"/>
-      <c r="C82" s="54"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="28"/>
       <c r="E82" s="37" t="s">
         <v>66</v>
@@ -2809,9 +2825,9 @@
       <c r="K82" s="46"/>
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="51"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="54"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="55"/>
       <c r="D83" s="28"/>
       <c r="E83" s="37" t="s">
         <v>67</v>
@@ -2824,9 +2840,9 @@
       <c r="K83" s="46"/>
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="51"/>
-      <c r="B84" s="52"/>
-      <c r="C84" s="54"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="28"/>
       <c r="E84" s="37" t="s">
         <v>68</v>
@@ -2839,9 +2855,9 @@
       <c r="K84" s="46"/>
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="51"/>
-      <c r="B85" s="52"/>
-      <c r="C85" s="54"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="55"/>
       <c r="D85" s="28"/>
       <c r="E85" s="37" t="s">
         <v>69</v>
@@ -2854,9 +2870,9 @@
       <c r="K85" s="46"/>
     </row>
     <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="51"/>
-      <c r="B86" s="52"/>
-      <c r="C86" s="54"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="55"/>
       <c r="D86" s="28"/>
       <c r="E86" s="37" t="s">
         <v>70</v>
@@ -2869,9 +2885,9 @@
       <c r="K86" s="46"/>
     </row>
     <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="51"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="54"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="55"/>
       <c r="D87" s="7" t="s">
         <v>29</v>
       </c>
@@ -2886,9 +2902,9 @@
       <c r="K87" s="46"/>
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A88" s="51"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="54"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="55"/>
       <c r="D88" s="7"/>
       <c r="E88" s="18" t="s">
         <v>31</v>
@@ -2901,9 +2917,9 @@
       <c r="K88" s="46"/>
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="51"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="54"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="55"/>
       <c r="D89" s="22"/>
       <c r="E89" s="18" t="s">
         <v>124</v>
@@ -2916,9 +2932,9 @@
       <c r="K89" s="46"/>
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="51"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="54"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="55"/>
       <c r="D90" s="7"/>
       <c r="E90" s="18" t="s">
         <v>125</v>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -613,6 +613,10 @@
   </si>
   <si>
     <t>时间 安保岗位 计划值班人员 实际值班人员 交班注意事项（1、安保器具是否齐全；2、安保范围设施是否完整；3、摄像系统是否正常；4、场内物质情况是否异常等。）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1303,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2241,8 +2245,12 @@
         <v>137</v>
       </c>
       <c r="I48" s="23"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="46"/>
+      <c r="J48" s="17">
+        <v>43041</v>
+      </c>
+      <c r="K48" s="46" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="52"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="161">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -1308,7 +1308,7 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2270,8 +2270,12 @@
         <v>137</v>
       </c>
       <c r="I49" s="23"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="46"/>
+      <c r="J49" s="17">
+        <v>43041</v>
+      </c>
+      <c r="K49" s="46" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A50" s="52"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9390" tabRatio="271"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="工作量评估表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="167">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -554,12 +554,16 @@
     <t>后续陆续添加</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,7 +872,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -942,7 +946,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -977,7 +980,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1153,14 +1155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="3" max="4" width="13.125" customWidth="1"/>
@@ -1173,7 +1175,7 @@
     <col min="12" max="12" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="21.95" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1190,7 @@
       <c r="J1" s="36"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="18" customHeight="1">
       <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1205,7 @@
       <c r="J2" s="38"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1264,7 +1266,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="24">
       <c r="A5" s="39">
         <v>2</v>
       </c>
@@ -1294,7 +1296,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="1" customFormat="1">
       <c r="A6" s="39"/>
       <c r="B6" s="41"/>
       <c r="C6" s="43"/>
@@ -1311,7 +1313,7 @@
       <c r="J6" s="20"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="1" customFormat="1">
       <c r="A7" s="39"/>
       <c r="B7" s="41"/>
       <c r="C7" s="43"/>
@@ -1326,7 +1328,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="1" customFormat="1">
       <c r="A8" s="39"/>
       <c r="B8" s="41"/>
       <c r="C8" s="43"/>
@@ -1350,7 +1352,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="1" customFormat="1">
       <c r="A9" s="39"/>
       <c r="B9" s="41"/>
       <c r="C9" s="43"/>
@@ -1371,7 +1373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="1" customFormat="1">
       <c r="A10" s="39"/>
       <c r="B10" s="41"/>
       <c r="C10" s="43"/>
@@ -1394,7 +1396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="1" customFormat="1">
       <c r="A11" s="39"/>
       <c r="B11" s="41"/>
       <c r="C11" s="43"/>
@@ -1417,7 +1419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="1" customFormat="1">
       <c r="A12" s="39"/>
       <c r="B12" s="41"/>
       <c r="C12" s="43"/>
@@ -1440,7 +1442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" s="1" customFormat="1">
       <c r="A13" s="39"/>
       <c r="B13" s="41"/>
       <c r="C13" s="43"/>
@@ -1465,7 +1467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" s="1" customFormat="1">
       <c r="A14" s="39"/>
       <c r="B14" s="41"/>
       <c r="C14" s="43"/>
@@ -1488,7 +1490,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" s="1" customFormat="1">
       <c r="A15" s="39"/>
       <c r="B15" s="41"/>
       <c r="C15" s="43"/>
@@ -1511,7 +1513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" s="1" customFormat="1">
       <c r="A16" s="39"/>
       <c r="B16" s="41"/>
       <c r="C16" s="43"/>
@@ -1531,13 +1533,13 @@
         <v>43037</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" s="1" customFormat="1">
       <c r="A17" s="39"/>
       <c r="B17" s="41"/>
       <c r="C17" s="43"/>
@@ -1560,7 +1562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="1" customFormat="1">
       <c r="A18" s="39"/>
       <c r="B18" s="41"/>
       <c r="C18" s="43"/>
@@ -1573,7 +1575,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="24">
       <c r="A19" s="39"/>
       <c r="B19" s="41"/>
       <c r="C19" s="43"/>
@@ -1594,7 +1596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="1" customFormat="1">
       <c r="A20" s="39"/>
       <c r="B20" s="41"/>
       <c r="C20" s="43"/>
@@ -1611,7 +1613,7 @@
       <c r="J20" s="20"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="1" customFormat="1">
       <c r="A21" s="39"/>
       <c r="B21" s="41"/>
       <c r="C21" s="43"/>
@@ -1628,7 +1630,7 @@
       <c r="J21" s="20"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="24">
       <c r="A22" s="39"/>
       <c r="B22" s="41"/>
       <c r="C22" s="43"/>
@@ -1645,7 +1647,7 @@
       <c r="J22" s="20"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="24">
       <c r="A23" s="39"/>
       <c r="B23" s="41"/>
       <c r="C23" s="43"/>
@@ -1662,7 +1664,7 @@
       <c r="J23" s="20"/>
       <c r="K23" s="21"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" s="1" customFormat="1">
       <c r="A24" s="39"/>
       <c r="B24" s="41"/>
       <c r="C24" s="43"/>
@@ -1681,7 +1683,7 @@
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" s="1" customFormat="1">
       <c r="A25" s="39"/>
       <c r="B25" s="41"/>
       <c r="C25" s="43"/>
@@ -1696,9 +1698,11 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1">
       <c r="A26" s="39"/>
       <c r="B26" s="41"/>
       <c r="C26" s="43"/>
@@ -1713,9 +1717,11 @@
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="20"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1">
       <c r="A27" s="39"/>
       <c r="B27" s="41"/>
       <c r="C27" s="43"/>
@@ -1732,7 +1738,7 @@
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" s="1" customFormat="1">
       <c r="A28" s="39"/>
       <c r="B28" s="41"/>
       <c r="C28" s="43"/>
@@ -1747,7 +1753,7 @@
       <c r="J28" s="20"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" s="1" customFormat="1">
       <c r="A29" s="39"/>
       <c r="B29" s="41"/>
       <c r="C29" s="43"/>
@@ -1764,7 +1770,7 @@
       <c r="J29" s="20"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" s="1" customFormat="1">
       <c r="A30" s="39"/>
       <c r="B30" s="41"/>
       <c r="C30" s="43"/>
@@ -1779,7 +1785,7 @@
       <c r="J30" s="20"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" s="1" customFormat="1">
       <c r="A31" s="39"/>
       <c r="B31" s="41"/>
       <c r="C31" s="43"/>
@@ -1794,7 +1800,7 @@
       <c r="J31" s="20"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" s="1" customFormat="1">
       <c r="A32" s="39"/>
       <c r="B32" s="41"/>
       <c r="C32" s="43"/>
@@ -1809,9 +1815,11 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K32" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1">
       <c r="A33" s="39"/>
       <c r="B33" s="41"/>
       <c r="C33" s="43"/>
@@ -1828,7 +1836,7 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" s="1" customFormat="1">
       <c r="A34" s="39"/>
       <c r="B34" s="41"/>
       <c r="C34" s="43"/>
@@ -1843,9 +1851,11 @@
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="20"/>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K34" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1">
       <c r="A35" s="39"/>
       <c r="B35" s="41"/>
       <c r="C35" s="43"/>
@@ -1862,7 +1872,7 @@
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="1" customFormat="1">
       <c r="A36" s="39"/>
       <c r="B36" s="41"/>
       <c r="C36" s="43"/>
@@ -1879,7 +1889,7 @@
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="1" customFormat="1">
       <c r="A37" s="39"/>
       <c r="B37" s="41"/>
       <c r="C37" s="43"/>
@@ -1896,7 +1906,7 @@
       <c r="J37" s="20"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="1" customFormat="1">
       <c r="A38" s="39"/>
       <c r="B38" s="41"/>
       <c r="C38" s="43"/>
@@ -1911,7 +1921,7 @@
       <c r="J38" s="20"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="1" customFormat="1">
       <c r="A39" s="39"/>
       <c r="B39" s="41"/>
       <c r="C39" s="43"/>
@@ -1926,7 +1936,7 @@
       <c r="J39" s="20"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="1" customFormat="1">
       <c r="A40" s="39"/>
       <c r="B40" s="41"/>
       <c r="C40" s="43"/>
@@ -1943,7 +1953,7 @@
       <c r="J40" s="20"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" s="1" customFormat="1">
       <c r="A41" s="39"/>
       <c r="B41" s="41"/>
       <c r="C41" s="43"/>
@@ -1960,7 +1970,7 @@
       <c r="J41" s="20"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="24">
       <c r="A42" s="39"/>
       <c r="B42" s="41"/>
       <c r="C42" s="43"/>
@@ -1977,7 +1987,7 @@
       <c r="J42" s="20"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="24">
       <c r="A43" s="39"/>
       <c r="B43" s="41"/>
       <c r="C43" s="43"/>
@@ -1994,7 +2004,7 @@
       <c r="J43" s="20"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="33">
       <c r="A44" s="39"/>
       <c r="B44" s="41"/>
       <c r="C44" s="43"/>
@@ -2017,7 +2027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" s="1" customFormat="1">
       <c r="A45" s="39"/>
       <c r="B45" s="41"/>
       <c r="C45" s="43"/>
@@ -2040,7 +2050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="1" customFormat="1">
       <c r="A46" s="39"/>
       <c r="B46" s="41"/>
       <c r="C46" s="43"/>
@@ -2065,7 +2075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" s="1" customFormat="1">
       <c r="A47" s="39"/>
       <c r="B47" s="41"/>
       <c r="C47" s="43"/>
@@ -2090,7 +2100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="36">
       <c r="A48" s="39"/>
       <c r="B48" s="41"/>
       <c r="C48" s="43"/>
@@ -2115,7 +2125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" s="1" customFormat="1">
       <c r="A49" s="39"/>
       <c r="B49" s="41"/>
       <c r="C49" s="43"/>
@@ -2140,7 +2150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="24">
       <c r="A50" s="39"/>
       <c r="B50" s="41"/>
       <c r="C50" s="43"/>
@@ -2157,7 +2167,7 @@
       <c r="J50" s="20"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="1" customFormat="1">
       <c r="A51" s="39"/>
       <c r="B51" s="41"/>
       <c r="C51" s="43"/>
@@ -2174,7 +2184,7 @@
       <c r="J51" s="20"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="1" customFormat="1">
       <c r="A52" s="39"/>
       <c r="B52" s="41"/>
       <c r="C52" s="43"/>
@@ -2191,7 +2201,7 @@
       <c r="J52" s="20"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" s="1" customFormat="1">
       <c r="A53" s="39"/>
       <c r="B53" s="41"/>
       <c r="C53" s="43"/>
@@ -2208,7 +2218,7 @@
       <c r="J53" s="20"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" s="1" customFormat="1">
       <c r="A54" s="39"/>
       <c r="B54" s="41"/>
       <c r="C54" s="43"/>
@@ -2223,7 +2233,7 @@
       <c r="J54" s="20"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" s="1" customFormat="1">
       <c r="A55" s="39"/>
       <c r="B55" s="41"/>
       <c r="C55" s="43"/>
@@ -2240,7 +2250,7 @@
       <c r="J55" s="20"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" s="1" customFormat="1">
       <c r="A56" s="39"/>
       <c r="B56" s="41"/>
       <c r="C56" s="43"/>
@@ -2257,7 +2267,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" s="1" customFormat="1">
       <c r="A57" s="39"/>
       <c r="B57" s="41"/>
       <c r="C57" s="43"/>
@@ -2274,7 +2284,7 @@
       <c r="J57" s="20"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="1" customFormat="1">
       <c r="A58" s="39"/>
       <c r="B58" s="41"/>
       <c r="C58" s="43"/>
@@ -2291,7 +2301,7 @@
       <c r="J58" s="20"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="1" customFormat="1">
       <c r="A59" s="39"/>
       <c r="B59" s="41"/>
       <c r="C59" s="43"/>
@@ -2306,7 +2316,7 @@
       <c r="J59" s="20"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="1" customFormat="1">
       <c r="A60" s="39"/>
       <c r="B60" s="41"/>
       <c r="C60" s="43"/>
@@ -2321,7 +2331,7 @@
       <c r="J60" s="20"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" s="1" customFormat="1">
       <c r="A61" s="39"/>
       <c r="B61" s="41"/>
       <c r="C61" s="43"/>
@@ -2338,7 +2348,7 @@
       <c r="J61" s="20"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" s="1" customFormat="1">
       <c r="A62" s="39"/>
       <c r="B62" s="41"/>
       <c r="C62" s="43"/>
@@ -2355,7 +2365,7 @@
       <c r="J62" s="20"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="1" customFormat="1">
       <c r="A63" s="39"/>
       <c r="B63" s="41"/>
       <c r="C63" s="43"/>
@@ -2370,7 +2380,7 @@
       <c r="J63" s="20"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="1" customFormat="1">
       <c r="A64" s="39"/>
       <c r="B64" s="41"/>
       <c r="C64" s="43"/>
@@ -2385,7 +2395,7 @@
       <c r="J64" s="20"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" s="1" customFormat="1">
       <c r="A65" s="39"/>
       <c r="B65" s="41"/>
       <c r="C65" s="43"/>
@@ -2400,7 +2410,7 @@
       <c r="J65" s="20"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="1" customFormat="1">
       <c r="A66" s="39"/>
       <c r="B66" s="41"/>
       <c r="C66" s="43"/>
@@ -2417,7 +2427,7 @@
       <c r="J66" s="20"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="39"/>
       <c r="B67" s="41"/>
       <c r="C67" s="43"/>
@@ -2432,7 +2442,7 @@
       <c r="J67" s="20"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="24">
       <c r="A68" s="39"/>
       <c r="B68" s="41"/>
       <c r="C68" s="43"/>
@@ -2451,7 +2461,7 @@
       <c r="J68" s="20"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="1" customFormat="1">
       <c r="A69" s="39"/>
       <c r="B69" s="41"/>
       <c r="C69" s="43"/>
@@ -2470,7 +2480,7 @@
       <c r="J69" s="20"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="1" customFormat="1">
       <c r="A70" s="39"/>
       <c r="B70" s="41"/>
       <c r="C70" s="43"/>
@@ -2489,7 +2499,7 @@
       <c r="J70" s="20"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="1" customFormat="1">
       <c r="A71" s="39"/>
       <c r="B71" s="41"/>
       <c r="C71" s="43"/>
@@ -2508,7 +2518,7 @@
       <c r="J71" s="20"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="1" customFormat="1">
       <c r="A72" s="39"/>
       <c r="B72" s="41"/>
       <c r="C72" s="43"/>
@@ -2527,7 +2537,7 @@
       <c r="J72" s="20"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="1" customFormat="1">
       <c r="A73" s="39"/>
       <c r="B73" s="41"/>
       <c r="C73" s="43"/>
@@ -2548,7 +2558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" s="1" customFormat="1">
       <c r="A74" s="39"/>
       <c r="B74" s="41"/>
       <c r="C74" s="43"/>
@@ -2569,7 +2579,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="1" customFormat="1">
       <c r="A75" s="39"/>
       <c r="B75" s="41"/>
       <c r="C75" s="43"/>
@@ -2590,7 +2600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="1" customFormat="1">
       <c r="A76" s="39"/>
       <c r="B76" s="41"/>
       <c r="C76" s="43"/>
@@ -2611,7 +2621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="1" customFormat="1">
       <c r="A77" s="39"/>
       <c r="B77" s="41"/>
       <c r="C77" s="43"/>
@@ -2632,7 +2642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="39"/>
       <c r="B78" s="41"/>
       <c r="C78" s="43"/>
@@ -2653,7 +2663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="1" customFormat="1">
       <c r="A79" s="39"/>
       <c r="B79" s="41"/>
       <c r="C79" s="43"/>
@@ -2674,7 +2684,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="1" customFormat="1">
       <c r="A80" s="39"/>
       <c r="B80" s="41"/>
       <c r="C80" s="43"/>
@@ -2695,7 +2705,7 @@
       <c r="J80" s="20"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="1" customFormat="1">
       <c r="A81" s="39"/>
       <c r="B81" s="41"/>
       <c r="C81" s="43"/>
@@ -2714,7 +2724,7 @@
       <c r="J81" s="20"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="1" customFormat="1">
       <c r="A82" s="39"/>
       <c r="B82" s="41"/>
       <c r="C82" s="43"/>
@@ -2733,7 +2743,7 @@
       <c r="J82" s="20"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="1" customFormat="1">
       <c r="A83" s="39"/>
       <c r="B83" s="41"/>
       <c r="C83" s="43"/>
@@ -2750,7 +2760,7 @@
       <c r="J83" s="20"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="1" customFormat="1">
       <c r="A84" s="39"/>
       <c r="B84" s="41"/>
       <c r="C84" s="43"/>
@@ -2767,7 +2777,7 @@
       <c r="J84" s="20"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="1" customFormat="1">
       <c r="A85" s="39"/>
       <c r="B85" s="41"/>
       <c r="C85" s="43"/>
@@ -2784,7 +2794,7 @@
       <c r="J85" s="20"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="1" customFormat="1">
       <c r="A86" s="39"/>
       <c r="B86" s="41"/>
       <c r="C86" s="43"/>
@@ -2801,7 +2811,7 @@
       <c r="J86" s="20"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" s="1" customFormat="1">
       <c r="A87" s="39"/>
       <c r="B87" s="41"/>
       <c r="C87" s="43"/>
@@ -2820,7 +2830,7 @@
       <c r="J87" s="20"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="1" customFormat="1">
       <c r="A88" s="39"/>
       <c r="B88" s="41"/>
       <c r="C88" s="43"/>
@@ -2837,7 +2847,7 @@
       <c r="J88" s="20"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" s="1" customFormat="1">
       <c r="A89" s="39"/>
       <c r="B89" s="41"/>
       <c r="C89" s="43"/>
@@ -2856,7 +2866,7 @@
       <c r="J89" s="20"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" s="1" customFormat="1">
       <c r="A90" s="40"/>
       <c r="B90" s="42"/>
       <c r="C90" s="43"/>
@@ -2873,7 +2883,7 @@
       <c r="J90" s="34"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" s="1" customFormat="1">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="9"/>
@@ -2890,7 +2900,7 @@
       <c r="J91" s="20"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" s="1" customFormat="1">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="C92" s="9"/>
@@ -2907,7 +2917,7 @@
       <c r="J92" s="20"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" s="1" customFormat="1">
       <c r="A93" s="9"/>
       <c r="B93" s="10"/>
       <c r="C93" s="9"/>
@@ -2926,7 +2936,7 @@
       <c r="J93" s="20"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
@@ -2943,7 +2953,7 @@
       <c r="J94" s="20"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
@@ -2958,7 +2968,7 @@
       <c r="J95" s="20"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="1" customFormat="1">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
@@ -2973,7 +2983,7 @@
       <c r="J96" s="20"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10">
       <c r="A97" s="9">
         <v>3</v>
       </c>
@@ -2991,7 +3001,7 @@
       <c r="I97" s="28"/>
       <c r="J97" s="28"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="27"/>
@@ -3003,7 +3013,7 @@
       <c r="I98" s="28"/>
       <c r="J98" s="28"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10">
       <c r="A99" s="9">
         <v>5</v>
       </c>
@@ -3019,7 +3029,7 @@
       <c r="I99" s="28"/>
       <c r="J99" s="28"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10">
       <c r="A100" s="28"/>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -3033,10 +3043,10 @@
       <c r="I100" s="28"/>
       <c r="J100" s="28"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10">
       <c r="E101" s="33"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10">
       <c r="E102" s="33"/>
     </row>
   </sheetData>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -497,6 +497,9 @@
     <t>工程进度款单据</t>
   </si>
   <si>
+    <t>开发80%</t>
+  </si>
+  <si>
     <t>工程结算单据</t>
   </si>
   <si>
@@ -553,10 +556,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -618,22 +621,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,14 +639,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -664,7 +654,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -678,9 +704,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,49 +736,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -760,11 +768,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -800,36 +803,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -842,19 +815,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +875,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,37 +935,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,31 +959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,25 +971,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1046,15 +1049,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1070,6 +1064,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1081,17 +1090,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,10 +1152,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1161,136 +1164,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1745,8 +1748,8 @@
   <sheetPr/>
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F73" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3332,7 +3335,9 @@
       <c r="H82" s="18"/>
       <c r="I82" s="11"/>
       <c r="J82" s="22"/>
-      <c r="K82" s="23"/>
+      <c r="K82" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:11">
       <c r="A83" s="11"/>
@@ -3349,7 +3354,9 @@
       <c r="H83" s="18"/>
       <c r="I83" s="11"/>
       <c r="J83" s="22"/>
-      <c r="K83" s="23"/>
+      <c r="K83" s="23" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:11">
       <c r="A84" s="11"/>
@@ -3366,7 +3373,9 @@
       <c r="H84" s="18"/>
       <c r="I84" s="11"/>
       <c r="J84" s="22"/>
-      <c r="K84" s="23"/>
+      <c r="K84" s="23" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:11">
       <c r="A85" s="11"/>
@@ -3374,7 +3383,7 @@
       <c r="C85" s="15"/>
       <c r="D85" s="12"/>
       <c r="E85" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="24" t="s">
@@ -3391,7 +3400,7 @@
       <c r="C86" s="15"/>
       <c r="D86" s="12"/>
       <c r="E86" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="24" t="s">
@@ -3407,10 +3416,10 @@
       <c r="B87" s="12"/>
       <c r="C87" s="15"/>
       <c r="D87" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="24" t="s">
@@ -3427,7 +3436,7 @@
       <c r="C88" s="15"/>
       <c r="D88" s="12"/>
       <c r="E88" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="24" t="s">
@@ -3444,7 +3453,7 @@
       <c r="C89" s="15"/>
       <c r="D89" s="12"/>
       <c r="E89" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="24" t="s">
@@ -3463,7 +3472,7 @@
       <c r="C90" s="15"/>
       <c r="D90" s="25"/>
       <c r="E90" s="8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="24" t="s">
@@ -3480,7 +3489,7 @@
       <c r="C91" s="11"/>
       <c r="D91" s="12"/>
       <c r="E91" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="24" t="s">
@@ -3497,7 +3506,7 @@
       <c r="C92" s="11"/>
       <c r="D92" s="12"/>
       <c r="E92" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="24" t="s">
@@ -3514,7 +3523,7 @@
       <c r="C93" s="11"/>
       <c r="D93" s="12"/>
       <c r="E93" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="24" t="s">
@@ -3533,7 +3542,7 @@
       <c r="C94" s="27"/>
       <c r="D94" s="11"/>
       <c r="E94" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="24" t="s">
@@ -3550,7 +3559,7 @@
       <c r="C95" s="27"/>
       <c r="D95" s="11"/>
       <c r="E95" s="14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
@@ -3565,7 +3574,7 @@
       <c r="C96" s="27"/>
       <c r="D96" s="11"/>
       <c r="E96" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
@@ -3579,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="31"/>
@@ -3610,7 +3619,7 @@
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="33"/>
@@ -3627,7 +3636,7 @@
       <c r="D100" s="30"/>
       <c r="E100" s="33"/>
       <c r="F100" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -497,9 +497,6 @@
     <t>工程进度款单据</t>
   </si>
   <si>
-    <t>开发80%</t>
-  </si>
-  <si>
     <t>工程结算单据</t>
   </si>
   <si>
@@ -556,10 +553,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -621,17 +618,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,12 +671,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -667,15 +685,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,39 +702,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -736,20 +718,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,12 +762,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -803,7 +800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,13 +824,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,121 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,13 +956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,7 +980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,17 +1046,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,15 +1081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1114,11 +1096,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,8 +1114,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1146,16 +1134,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,136 +1161,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1748,8 +1745,8 @@
   <sheetPr/>
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E70" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3374,7 +3371,7 @@
       <c r="I84" s="11"/>
       <c r="J84" s="22"/>
       <c r="K84" s="23" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:11">
@@ -3383,7 +3380,7 @@
       <c r="C85" s="15"/>
       <c r="D85" s="12"/>
       <c r="E85" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="24" t="s">
@@ -3400,7 +3397,7 @@
       <c r="C86" s="15"/>
       <c r="D86" s="12"/>
       <c r="E86" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="24" t="s">
@@ -3416,10 +3413,10 @@
       <c r="B87" s="12"/>
       <c r="C87" s="15"/>
       <c r="D87" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E87" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="24" t="s">
@@ -3436,7 +3433,7 @@
       <c r="C88" s="15"/>
       <c r="D88" s="12"/>
       <c r="E88" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="24" t="s">
@@ -3453,7 +3450,7 @@
       <c r="C89" s="15"/>
       <c r="D89" s="12"/>
       <c r="E89" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="24" t="s">
@@ -3472,7 +3469,7 @@
       <c r="C90" s="15"/>
       <c r="D90" s="25"/>
       <c r="E90" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="24" t="s">
@@ -3489,7 +3486,7 @@
       <c r="C91" s="11"/>
       <c r="D91" s="12"/>
       <c r="E91" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="24" t="s">
@@ -3506,7 +3503,7 @@
       <c r="C92" s="11"/>
       <c r="D92" s="12"/>
       <c r="E92" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="24" t="s">
@@ -3523,7 +3520,7 @@
       <c r="C93" s="11"/>
       <c r="D93" s="12"/>
       <c r="E93" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F93" s="10"/>
       <c r="G93" s="24" t="s">
@@ -3542,7 +3539,7 @@
       <c r="C94" s="27"/>
       <c r="D94" s="11"/>
       <c r="E94" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F94" s="28"/>
       <c r="G94" s="24" t="s">
@@ -3559,7 +3556,7 @@
       <c r="C95" s="27"/>
       <c r="D95" s="11"/>
       <c r="E95" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
@@ -3574,7 +3571,7 @@
       <c r="C96" s="27"/>
       <c r="D96" s="11"/>
       <c r="E96" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F96" s="28"/>
       <c r="G96" s="28"/>
@@ -3588,10 +3585,10 @@
         <v>3</v>
       </c>
       <c r="B97" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="29" t="s">
         <v>162</v>
-      </c>
-      <c r="C97" s="29" t="s">
-        <v>163</v>
       </c>
       <c r="D97" s="30"/>
       <c r="E97" s="31"/>
@@ -3619,7 +3616,7 @@
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D99" s="30"/>
       <c r="E99" s="33"/>
@@ -3636,7 +3633,7 @@
       <c r="D100" s="30"/>
       <c r="E100" s="33"/>
       <c r="F100" s="32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -91,6 +91,15 @@
     <t>待办处理</t>
   </si>
   <si>
+    <t>刘洋</t>
+  </si>
+  <si>
+    <t>开发完成</t>
+  </si>
+  <si>
+    <t>完成工作流的配置</t>
+  </si>
+  <si>
     <t>已办查看</t>
   </si>
   <si>
@@ -98,9 +107,6 @@
   </si>
   <si>
     <t>用于根据岗位展示 岗位职责及相应权限的菜单</t>
-  </si>
-  <si>
-    <t>开发完成</t>
   </si>
   <si>
     <t>登录主页可配置，差权限可看范围</t>
@@ -183,7 +189,27 @@
     <t>图纸会审</t>
   </si>
   <si>
-    <t>单据挂附件走工作流审批。形成会审纪要，并以附件方式上传到指定的资料目录，会审通过后不允许修改附件。</t>
+    <r>
+      <t>单据挂附件走工作流审批。形成会审纪要，并以附件方式上传到指定的资料目录，会审通过后不允许修改附件。(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转到会议纪要中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>施工方案总设计</t>
@@ -360,9 +386,6 @@
     <t>会议纪要</t>
   </si>
   <si>
-    <t>刘洋</t>
-  </si>
-  <si>
     <t>工程影像资料</t>
   </si>
   <si>
@@ -403,6 +426,15 @@
   </si>
   <si>
     <t>施工情况汇报</t>
+  </si>
+  <si>
+    <t>项目总进度计划监控</t>
+  </si>
+  <si>
+    <t>总计划与实际完成情况对比分析横道图</t>
+  </si>
+  <si>
+    <t>开发过程中(50%)</t>
   </si>
   <si>
     <t>材设基础信息</t>
@@ -527,9 +559,6 @@
     <t>开发完成80%</t>
   </si>
   <si>
-    <t>进度完成情况分析</t>
-  </si>
-  <si>
     <t>劳务结算台帐</t>
   </si>
   <si>
@@ -545,19 +574,11 @@
     <t>合计</t>
   </si>
   <si>
-    <t>项目总进度计划监控</t>
+    <t>开发完成</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>总计划与实际完成情况对比分析横道图</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>宋军</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发过程中(50%)</t>
+    <t>根据实际情况，进行增补</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -806,9 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E61" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1169,42 +1187,42 @@
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="3" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="29.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="78.75" customWidth="1"/>
+    <col min="6" max="6" width="51.75" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1269,11 +1287,11 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="39">
+      <c r="A5" s="38">
         <v>2</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1291,12 +1309,17 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
+      <c r="K5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14" t="s">
         <v>23</v>
@@ -1304,37 +1327,46 @@
       <c r="F6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="16"/>
       <c r="I6" s="9"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="K6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="10"/>
       <c r="E7" s="14"/>
       <c r="F7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="9"/>
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="10"/>
       <c r="E8" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>22</v>
@@ -1343,21 +1375,21 @@
       <c r="I8" s="9"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="15" t="s">
@@ -1367,19 +1399,19 @@
       <c r="I9" s="9"/>
       <c r="J9" s="20"/>
       <c r="K9" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="39"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="10"/>
       <c r="E10" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>22</v>
@@ -1390,19 +1422,19 @@
         <v>43037</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>22</v>
@@ -1413,19 +1445,19 @@
         <v>43030</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>22</v>
@@ -1436,44 +1468,44 @@
         <v>43030</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="10"/>
       <c r="E13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="20">
         <v>43032</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="39"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="43"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="10"/>
       <c r="E14" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>22</v>
@@ -1484,19 +1516,19 @@
         <v>43034</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="39"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="10"/>
       <c r="E15" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>22</v>
@@ -1507,19 +1539,19 @@
         <v>43030</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="39"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="10"/>
       <c r="E16" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>22</v>
@@ -1530,22 +1562,22 @@
         <v>43037</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="10"/>
       <c r="E17" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>22</v>
@@ -1556,13 +1588,13 @@
         <v>43034</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14"/>
       <c r="F18" s="8"/>
@@ -1573,36 +1605,36 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A19" s="39"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="16"/>
       <c r="I19" s="9"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="39"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
@@ -1611,15 +1643,15 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
@@ -1628,15 +1660,15 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A22" s="39"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="10"/>
       <c r="E22" s="14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
@@ -1645,15 +1677,15 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A23" s="39"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="10"/>
       <c r="E23" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
@@ -1662,86 +1694,86 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="39"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="10"/>
       <c r="E24" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="39"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="10"/>
       <c r="E25" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="15"/>
       <c r="H25" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="20"/>
       <c r="K25" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="39"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="15"/>
       <c r="H26" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="39"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="15"/>
       <c r="H27" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="20"/>
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="39"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="10"/>
       <c r="E28" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="15"/>
@@ -1751,15 +1783,15 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="39"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="10"/>
       <c r="E29" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="16"/>
@@ -1768,12 +1800,12 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="39"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="15"/>
@@ -1783,12 +1815,12 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="39"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="15"/>
@@ -1798,118 +1830,118 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="39"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="10"/>
       <c r="E32" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="15"/>
       <c r="H32" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="20"/>
       <c r="K32" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="39"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="10"/>
       <c r="E33" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="15"/>
       <c r="H33" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="39"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="10"/>
       <c r="E34" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="15"/>
       <c r="H34" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="20"/>
       <c r="K34" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="39"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="10"/>
       <c r="E35" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="15"/>
       <c r="H35" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="20"/>
       <c r="K35" s="21"/>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="39"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="10"/>
       <c r="E36" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="15"/>
       <c r="H36" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="20"/>
       <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="39"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="42"/>
       <c r="D37" s="10"/>
       <c r="E37" s="18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="15"/>
       <c r="H37" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="20"/>
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="39"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="10"/>
       <c r="E38" s="18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="15"/>
@@ -1919,12 +1951,12 @@
       <c r="K38" s="21"/>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="39"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="10"/>
       <c r="E39" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="15"/>
@@ -1934,32 +1966,32 @@
       <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="39"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="10"/>
       <c r="E40" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="15"/>
       <c r="H40" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="20"/>
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="39"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="10"/>
       <c r="E41" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
@@ -1968,15 +2000,15 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A42" s="39"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="10"/>
       <c r="E42" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
@@ -1985,15 +2017,15 @@
       <c r="K42" s="21"/>
     </row>
     <row r="43" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A43" s="39"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="10"/>
       <c r="E43" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
@@ -2001,16 +2033,16 @@
       <c r="J43" s="20"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A44" s="39"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="43"/>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A44" s="38"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="10"/>
       <c r="E44" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>22</v>
@@ -2021,19 +2053,19 @@
         <v>43037</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="39"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="10"/>
       <c r="E45" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>22</v>
@@ -2044,119 +2076,119 @@
         <v>43038</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="39"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="43"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="10"/>
       <c r="E46" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="20">
         <v>43039</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="39"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="43"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A47" s="38"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="10"/>
       <c r="E47" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="20">
         <v>43039</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A48" s="39"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="43"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A48" s="38"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="20">
         <v>43041</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="39"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="43"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A49" s="38"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="10"/>
       <c r="E49" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="20">
         <v>43041</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A50" s="39"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="43"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="10"/>
       <c r="E50" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="16"/>
@@ -2165,63 +2197,63 @@
       <c r="K50" s="21"/>
     </row>
     <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="39"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="43"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="10"/>
       <c r="E51" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="15"/>
       <c r="H51" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="20"/>
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="39"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="43"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="42"/>
       <c r="D52" s="10"/>
       <c r="E52" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="15"/>
       <c r="H52" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="20"/>
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="39"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="43"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="10"/>
       <c r="E53" s="14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="15"/>
       <c r="H53" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="20"/>
       <c r="K53" s="21"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="39"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="43"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="10"/>
       <c r="E54" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="15"/>
@@ -2231,80 +2263,80 @@
       <c r="K54" s="21"/>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="39"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="43"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="10"/>
       <c r="E55" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="15"/>
       <c r="H55" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="20"/>
       <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="39"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="43"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="10"/>
       <c r="E56" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="15"/>
       <c r="H56" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="20"/>
       <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="39"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="43"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="10"/>
       <c r="E57" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="15"/>
       <c r="H57" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="20"/>
       <c r="K57" s="21"/>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="39"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="43"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="10"/>
       <c r="E58" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="15"/>
       <c r="H58" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="20"/>
       <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="39"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="43"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="10"/>
       <c r="E59" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="15"/>
@@ -2314,12 +2346,12 @@
       <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="39"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="43"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="10"/>
       <c r="E60" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="15"/>
@@ -2329,65 +2361,65 @@
       <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="39"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="43"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="10"/>
       <c r="E61" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="15"/>
       <c r="H61" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="20"/>
       <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="39"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="43"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="10"/>
       <c r="E62" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="15"/>
       <c r="H62" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="20"/>
       <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="39"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="43"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="10"/>
       <c r="E63" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="15" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H63" s="16"/>
       <c r="I63" s="9"/>
       <c r="J63" s="20"/>
       <c r="K63" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="39"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="43"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="10"/>
       <c r="E64" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="15"/>
@@ -2397,12 +2429,12 @@
       <c r="K64" s="21"/>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="39"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="43"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="10"/>
       <c r="E65" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="15"/>
@@ -2412,29 +2444,29 @@
       <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="39"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="43"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="10"/>
       <c r="E66" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="15"/>
       <c r="H66" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="20"/>
       <c r="K66" s="21"/>
     </row>
     <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="39"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="43"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="10"/>
       <c r="E67" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="15"/>
@@ -2443,16 +2475,16 @@
       <c r="J67" s="20"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A68" s="39"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="43"/>
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A68" s="38"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="10"/>
       <c r="E68" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G68" s="15" t="s">
         <v>22</v>
@@ -2461,19 +2493,19 @@
       <c r="I68" s="9"/>
       <c r="J68" s="20"/>
       <c r="K68" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="39"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="43"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A69" s="38"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="42"/>
       <c r="D69" s="10"/>
       <c r="E69" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G69" s="15" t="s">
         <v>22</v>
@@ -2482,19 +2514,19 @@
       <c r="I69" s="9"/>
       <c r="J69" s="20"/>
       <c r="K69" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="39"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="43"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A70" s="38"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="10"/>
       <c r="E70" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>22</v>
@@ -2503,19 +2535,19 @@
       <c r="I70" s="9"/>
       <c r="J70" s="20"/>
       <c r="K70" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="39"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="43"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="10"/>
       <c r="E71" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>22</v>
@@ -2524,19 +2556,19 @@
       <c r="I71" s="9"/>
       <c r="J71" s="20"/>
       <c r="K71" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="39"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="43"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="10"/>
       <c r="E72" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>22</v>
@@ -2545,291 +2577,291 @@
       <c r="I72" s="9"/>
       <c r="J72" s="20"/>
       <c r="K72" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="39"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="43"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="10"/>
       <c r="E73" s="14" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H73" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="H73" s="16"/>
       <c r="I73" s="9"/>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="39"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="43"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="10"/>
       <c r="E74" s="9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="9"/>
       <c r="J74" s="20"/>
       <c r="K74" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="39"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="43"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="42"/>
       <c r="D75" s="10"/>
       <c r="E75" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H75" s="16"/>
       <c r="I75" s="9"/>
       <c r="J75" s="20"/>
       <c r="K75" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="39"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="43"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="42"/>
       <c r="D76" s="10"/>
       <c r="E76" s="9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G76" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H76" s="16"/>
       <c r="I76" s="9"/>
       <c r="J76" s="20"/>
       <c r="K76" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="39"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="43"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="42"/>
       <c r="D77" s="10"/>
       <c r="E77" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H77" s="16"/>
       <c r="I77" s="9"/>
       <c r="J77" s="20"/>
       <c r="K77" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="39"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="43"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="10"/>
       <c r="E78" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G78" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H78" s="16"/>
       <c r="I78" s="9"/>
       <c r="J78" s="20"/>
       <c r="K78" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="39"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="43"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="10"/>
       <c r="E79" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G79" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="9"/>
       <c r="J79" s="20"/>
       <c r="K79" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="39"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="43"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="10"/>
       <c r="E80" s="9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G80" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H80" s="16"/>
       <c r="I80" s="9"/>
       <c r="J80" s="20"/>
       <c r="K80" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="39"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="43"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="10"/>
       <c r="E81" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="20"/>
       <c r="K81" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="39"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="43"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="10"/>
       <c r="E82" s="9" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="9"/>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="39"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="43"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="42"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G83" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H83" s="16"/>
       <c r="I83" s="9"/>
       <c r="J83" s="20"/>
       <c r="K83" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="39"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="43"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="10"/>
       <c r="E84" s="9" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H84" s="16"/>
       <c r="I84" s="9"/>
       <c r="J84" s="20"/>
       <c r="K84" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="39"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="43"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="10"/>
       <c r="E85" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H85" s="16"/>
       <c r="I85" s="9"/>
       <c r="J85" s="20"/>
       <c r="K85" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="39"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="43"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="10"/>
       <c r="E86" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H86" s="16"/>
       <c r="I86" s="20">
@@ -2841,16 +2873,16 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="39"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="43"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="10"/>
       <c r="E87" s="9" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="20">
@@ -2862,18 +2894,18 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="39"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="43"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="20">
@@ -2885,16 +2917,16 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="39"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="43"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="10"/>
       <c r="E89" s="9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="20">
@@ -2906,19 +2938,19 @@
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="39"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="43"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="42"/>
       <c r="D90" s="10"/>
       <c r="E90" s="9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I90" s="20">
         <v>43066</v>
@@ -2929,16 +2961,16 @@
       <c r="K90" s="21"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="40"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="43"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="42"/>
       <c r="D91" s="23"/>
       <c r="E91" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="20">
@@ -2955,11 +2987,11 @@
       <c r="C92" s="9"/>
       <c r="D92" s="10"/>
       <c r="E92" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H92" s="9"/>
       <c r="I92" s="20">
@@ -2976,11 +3008,11 @@
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
       <c r="E93" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="20">
@@ -2997,14 +3029,14 @@
       <c r="C94" s="9"/>
       <c r="D94" s="10"/>
       <c r="E94" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I94" s="20">
         <v>43072</v>
@@ -3020,139 +3052,126 @@
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
       <c r="E95" s="9" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H95" s="25"/>
+        <v>25</v>
+      </c>
+      <c r="H95" s="16"/>
       <c r="I95" s="20"/>
       <c r="J95" s="20"/>
       <c r="K95" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="9"/>
       <c r="E96" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F96" s="27"/>
+        <v>160</v>
+      </c>
+      <c r="F96" s="26"/>
       <c r="G96" s="22" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="20"/>
+      <c r="J96" s="20">
+        <v>43062</v>
+      </c>
       <c r="K96" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="9"/>
       <c r="E97" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
+        <v>162</v>
+      </c>
+      <c r="F97" s="26"/>
+      <c r="G97" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="20"/>
+      <c r="I97" s="20">
+        <v>43074</v>
+      </c>
+      <c r="J97" s="20">
+        <v>43074</v>
+      </c>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="20">
-        <v>43074</v>
-      </c>
-      <c r="J98" s="20">
-        <v>43074</v>
-      </c>
-      <c r="K98" s="21"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="9">
+        <v>3</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D98" s="28"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="9">
-        <v>3</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D99" s="29"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="29"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="31"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
+      <c r="A100" s="9">
+        <v>5</v>
+      </c>
       <c r="B100" s="9"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="29"/>
-      <c r="E100" s="32"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="29"/>
-      <c r="H100" s="29"/>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
+      <c r="C100" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="28"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="28"/>
+      <c r="J100" s="28"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="9">
-        <v>5</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D101" s="29"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
+      <c r="J101" s="28"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="29"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
+      <c r="E102" s="33"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E103" s="34"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E104" s="34"/>
+      <c r="E103" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="172">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -581,12 +581,24 @@
     <t>根据实际情况，进行增补</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +673,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -756,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -874,6 +893,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1178,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1898,8 +1920,12 @@
         <v>40</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="21"/>
+      <c r="J35" s="20">
+        <v>43069</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="38"/>
@@ -1916,7 +1942,9 @@
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="20"/>
-      <c r="K36" s="21"/>
+      <c r="K36" s="43" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="38"/>
@@ -1933,7 +1961,9 @@
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="20"/>
-      <c r="K37" s="21"/>
+      <c r="K37" s="43" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="38"/>
@@ -1948,7 +1978,9 @@
       <c r="H38" s="16"/>
       <c r="I38" s="9"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="21"/>
+      <c r="K38" s="21" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="38"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="177">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -284,24 +284,13 @@
     <t>劳务人员登记备案</t>
   </si>
   <si>
-    <t>现场施工机械一览表</t>
-  </si>
-  <si>
     <t>设备编号 机械名称 操作人员 维修人员 设备验收情况 （上传）附件</t>
   </si>
   <si>
     <t>施工现场安全用电检查表</t>
   </si>
   <si>
-    <t xml:space="preserve">被检单位:   工程名称:   施工员:  检查时间:   整改意见
-分录：检查内容   检查标准 检查结论 </t>
-  </si>
-  <si>
     <t>施工现场维修记录</t>
-  </si>
-  <si>
-    <t xml:space="preserve">工程名称    时间   维修人员   
-维修内容:  </t>
   </si>
   <si>
     <t>安保人员值班安排及值班记录表</t>
@@ -591,6 +580,40 @@
   </si>
   <si>
     <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工工种</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>在整理劳务人员登记备案，临时抽取出来的</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>现场施工机械一览表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">被检单位:   工程名称:   施工员:  检查时间:   整改意见
+分录：检查内容   检查标准 检查结论 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">工程名称    时间   维修人员   
+维修内容:  </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -682,7 +705,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +727,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -868,6 +897,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -893,9 +934,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="E39" sqref="E39:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1218,33 +1256,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -1309,11 +1347,11 @@
       <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="38">
+      <c r="A5" s="42">
         <v>2</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="43" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1332,16 +1370,16 @@
       <c r="I5" s="9"/>
       <c r="J5" s="20"/>
       <c r="K5" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14" t="s">
         <v>23</v>
@@ -1363,9 +1401,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="10"/>
       <c r="E7" s="14"/>
       <c r="F7" s="8" t="s">
@@ -1380,9 +1418,9 @@
       <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="10"/>
       <c r="E8" s="14" t="s">
         <v>29</v>
@@ -1404,9 +1442,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
@@ -1425,9 +1463,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="10"/>
       <c r="E10" s="14" t="s">
         <v>34</v>
@@ -1448,9 +1486,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
         <v>36</v>
@@ -1471,9 +1509,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
         <v>38</v>
@@ -1494,9 +1532,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="10"/>
       <c r="E13" s="14" t="s">
         <v>39</v>
@@ -1519,9 +1557,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="42"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="10"/>
       <c r="E14" s="17" t="s">
         <v>41</v>
@@ -1542,9 +1580,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="10"/>
       <c r="E15" s="17" t="s">
         <v>43</v>
@@ -1565,9 +1603,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="42"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="10"/>
       <c r="E16" s="17" t="s">
         <v>45</v>
@@ -1591,9 +1629,9 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="10"/>
       <c r="E17" s="17" t="s">
         <v>48</v>
@@ -1614,9 +1652,9 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="42"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="10"/>
       <c r="E18" s="14"/>
       <c r="F18" s="8"/>
@@ -1627,9 +1665,9 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="42"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="10" t="s">
         <v>50</v>
       </c>
@@ -1648,9 +1686,9 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="42"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14" t="s">
         <v>53</v>
@@ -1665,9 +1703,9 @@
       <c r="K20" s="21"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="42"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
         <v>55</v>
@@ -1682,9 +1720,9 @@
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A22" s="38"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="42"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="10"/>
       <c r="E22" s="14" t="s">
         <v>56</v>
@@ -1699,9 +1737,9 @@
       <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A23" s="38"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="10"/>
       <c r="E23" s="14" t="s">
         <v>58</v>
@@ -1716,9 +1754,9 @@
       <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="42"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="10"/>
       <c r="E24" s="14" t="s">
         <v>59</v>
@@ -1735,9 +1773,9 @@
       <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="42"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="10"/>
       <c r="E25" s="14" t="s">
         <v>61</v>
@@ -1754,9 +1792,9 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="42"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14" t="s">
         <v>62</v>
@@ -1773,9 +1811,9 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="42"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14" t="s">
         <v>63</v>
@@ -1790,9 +1828,9 @@
       <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="38"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="42"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="10"/>
       <c r="E28" s="14" t="s">
         <v>64</v>
@@ -1805,9 +1843,9 @@
       <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="10"/>
       <c r="E29" s="14" t="s">
         <v>65</v>
@@ -1822,9 +1860,9 @@
       <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="42"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14" t="s">
         <v>67</v>
@@ -1837,9 +1875,9 @@
       <c r="K30" s="21"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="42"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14" t="s">
         <v>68</v>
@@ -1852,9 +1890,9 @@
       <c r="K31" s="21"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="42"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="10"/>
       <c r="E32" s="14" t="s">
         <v>69</v>
@@ -1870,10 +1908,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="38"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="42"/>
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="42"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="10"/>
       <c r="E33" s="14" t="s">
         <v>70</v>
@@ -1887,10 +1925,10 @@
       <c r="J33" s="20"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="38"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="42"/>
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="42"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="10"/>
       <c r="E34" s="14" t="s">
         <v>71</v>
@@ -1906,10 +1944,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="38"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="42"/>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="42"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="10"/>
       <c r="E35" s="18" t="s">
         <v>72</v>
@@ -1920,17 +1958,17 @@
         <v>40</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="20">
+      <c r="J35" s="37">
         <v>43069</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="38"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="42"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="42"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="10"/>
       <c r="E36" s="18" t="s">
         <v>73</v>
@@ -1941,15 +1979,15 @@
         <v>40</v>
       </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="38"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="42"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="10"/>
       <c r="E37" s="18" t="s">
         <v>74</v>
@@ -1960,15 +1998,15 @@
         <v>40</v>
       </c>
       <c r="I37" s="9"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="38"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="42"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="42"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="10"/>
       <c r="E38" s="18" t="s">
         <v>75</v>
@@ -1977,15 +2015,15 @@
       <c r="G38" s="15"/>
       <c r="H38" s="16"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="20"/>
+      <c r="J38" s="37"/>
       <c r="K38" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="42"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="42"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="10"/>
       <c r="E39" s="18" t="s">
         <v>45</v>
@@ -1994,70 +2032,81 @@
       <c r="G39" s="15"/>
       <c r="H39" s="16"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="38"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="14" t="s">
-        <v>76</v>
+      <c r="J39" s="37"/>
+      <c r="K39" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="42"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="18" t="s">
+        <v>170</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="15"/>
       <c r="H40" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" s="34"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="42"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="38"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="42"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="42"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="10"/>
       <c r="E42" s="17" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
       <c r="I42" s="9"/>
       <c r="J42" s="20"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A43" s="38"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="42"/>
+      <c r="K42" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A43" s="42"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="10"/>
       <c r="E43" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
@@ -2065,39 +2114,33 @@
       <c r="J43" s="20"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="42"/>
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A44" s="42"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="10"/>
       <c r="E44" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>22</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G44" s="15"/>
       <c r="H44" s="16"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="20">
-        <v>43037</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="38"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="42"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A45" s="42"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="10"/>
       <c r="E45" s="17" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>22</v>
@@ -2105,47 +2148,45 @@
       <c r="H45" s="16"/>
       <c r="I45" s="9"/>
       <c r="J45" s="20">
-        <v>43038</v>
+        <v>43037</v>
       </c>
       <c r="K45" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="42"/>
+    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="42"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="10"/>
       <c r="E46" s="17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H46" s="16"/>
       <c r="I46" s="9"/>
       <c r="J46" s="20">
-        <v>43039</v>
+        <v>43038</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A47" s="38"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="42"/>
+    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="42"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="10"/>
       <c r="E47" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>22</v>
@@ -2161,16 +2202,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="42"/>
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A48" s="42"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="46"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>22</v>
@@ -2180,22 +2221,22 @@
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="20">
-        <v>43041</v>
+        <v>43039</v>
       </c>
       <c r="K48" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A49" s="38"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="42"/>
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A49" s="42"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="10"/>
       <c r="E49" s="17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>22</v>
@@ -2212,46 +2253,54 @@
       </c>
     </row>
     <row r="50" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A50" s="38"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="42"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="10"/>
       <c r="E50" s="17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="38"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="42"/>
+      <c r="J50" s="20">
+        <v>43041</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A51" s="42"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="8"/>
+      <c r="E51" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="G51" s="15"/>
-      <c r="H51" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H51" s="16"/>
       <c r="I51" s="9"/>
       <c r="J51" s="20"/>
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="42"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="10"/>
       <c r="E52" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="15"/>
@@ -2263,12 +2312,12 @@
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="38"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="42"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="10"/>
       <c r="E53" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="15"/>
@@ -2280,44 +2329,44 @@
       <c r="K53" s="21"/>
     </row>
     <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="38"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="42"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="10"/>
       <c r="E54" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
+      <c r="H54" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="20"/>
       <c r="K54" s="21"/>
     </row>
     <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="38"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="42"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="10"/>
       <c r="E55" s="14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H55" s="16"/>
       <c r="I55" s="9"/>
       <c r="J55" s="20"/>
       <c r="K55" s="21"/>
     </row>
     <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="38"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="42"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="10"/>
       <c r="E56" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="15"/>
@@ -2329,12 +2378,12 @@
       <c r="K56" s="21"/>
     </row>
     <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="38"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="42"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="10"/>
       <c r="E57" s="14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="15"/>
@@ -2346,12 +2395,12 @@
       <c r="K57" s="21"/>
     </row>
     <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="42"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="10"/>
       <c r="E58" s="14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="15"/>
@@ -2363,27 +2412,29 @@
       <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="38"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="42"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="10"/>
       <c r="E59" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="16"/>
+      <c r="H59" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="20"/>
       <c r="K59" s="21"/>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="38"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="42"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="10"/>
       <c r="E60" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="15"/>
@@ -2393,29 +2444,27 @@
       <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="38"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="42"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="10"/>
       <c r="E61" s="14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H61" s="16"/>
       <c r="I61" s="9"/>
       <c r="J61" s="20"/>
       <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="38"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="42"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="10"/>
       <c r="E62" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="15"/>
@@ -2427,46 +2476,48 @@
       <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="38"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="10"/>
       <c r="E63" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F63" s="8"/>
-      <c r="G63" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="16"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I63" s="9"/>
       <c r="J63" s="20"/>
-      <c r="K63" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="38"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="42"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="10"/>
       <c r="E64" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F64" s="8"/>
-      <c r="G64" s="15"/>
+      <c r="G64" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="H64" s="16"/>
       <c r="I64" s="9"/>
       <c r="J64" s="20"/>
-      <c r="K64" s="21"/>
+      <c r="K64" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="38"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="42"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="10"/>
       <c r="E65" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="15"/>
@@ -2476,68 +2527,62 @@
       <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="38"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="42"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="10"/>
       <c r="E66" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="15"/>
-      <c r="H66" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H66" s="16"/>
       <c r="I66" s="9"/>
       <c r="J66" s="20"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="38"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="42"/>
+    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="42"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="46"/>
       <c r="D67" s="10"/>
       <c r="E67" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="16"/>
+      <c r="H67" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="20"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A68" s="38"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="42"/>
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="42"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="10"/>
       <c r="E68" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>22</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="16"/>
       <c r="I68" s="9"/>
       <c r="J68" s="20"/>
-      <c r="K68" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A69" s="38"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="42"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A69" s="42"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="10"/>
       <c r="E69" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G69" s="15" t="s">
         <v>22</v>
@@ -2550,15 +2595,15 @@
       </c>
     </row>
     <row r="70" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A70" s="38"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="42"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="10"/>
       <c r="E70" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>22</v>
@@ -2570,16 +2615,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="38"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="42"/>
+    <row r="71" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A71" s="42"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="10"/>
       <c r="E71" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>22</v>
@@ -2592,15 +2637,15 @@
       </c>
     </row>
     <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="38"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="42"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="46"/>
       <c r="D72" s="10"/>
       <c r="E72" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>22</v>
@@ -2613,15 +2658,15 @@
       </c>
     </row>
     <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="38"/>
-      <c r="B73" s="40"/>
-      <c r="C73" s="42"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="46"/>
       <c r="D73" s="10"/>
       <c r="E73" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>22</v>
@@ -2630,40 +2675,40 @@
       <c r="I73" s="9"/>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="38"/>
-      <c r="B74" s="40"/>
-      <c r="C74" s="42"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>25</v>
+      <c r="E74" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="9"/>
       <c r="J74" s="20"/>
       <c r="K74" s="21" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="38"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="42"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="10"/>
       <c r="E75" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G75" s="22" t="s">
         <v>25</v>
@@ -2676,15 +2721,15 @@
       </c>
     </row>
     <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="38"/>
-      <c r="B76" s="40"/>
-      <c r="C76" s="42"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="10"/>
       <c r="E76" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>25</v>
@@ -2697,15 +2742,15 @@
       </c>
     </row>
     <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="38"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="42"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="10"/>
       <c r="E77" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>25</v>
@@ -2718,15 +2763,15 @@
       </c>
     </row>
     <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="38"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="42"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="10"/>
       <c r="E78" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>25</v>
@@ -2738,16 +2783,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="38"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="42"/>
+    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="42"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="10"/>
       <c r="E79" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G79" s="22" t="s">
         <v>25</v>
@@ -2759,16 +2804,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="38"/>
-      <c r="B80" s="40"/>
-      <c r="C80" s="42"/>
+    <row r="80" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="42"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="46"/>
       <c r="D80" s="10"/>
       <c r="E80" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G80" s="22" t="s">
         <v>25</v>
@@ -2781,22 +2826,20 @@
       </c>
     </row>
     <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="38"/>
-      <c r="B81" s="40"/>
-      <c r="C81" s="42"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="10"/>
       <c r="E81" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H81" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H81" s="16"/>
       <c r="I81" s="9"/>
       <c r="J81" s="20"/>
       <c r="K81" s="21" t="s">
@@ -2804,20 +2847,22 @@
       </c>
     </row>
     <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="38"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="42"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="10"/>
       <c r="E82" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G82" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
@@ -2825,15 +2870,15 @@
       </c>
     </row>
     <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="38"/>
-      <c r="B83" s="40"/>
-      <c r="C83" s="42"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="46"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G83" s="22" t="s">
         <v>25</v>
@@ -2846,14 +2891,16 @@
       </c>
     </row>
     <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="38"/>
-      <c r="B84" s="40"/>
-      <c r="C84" s="42"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="46"/>
       <c r="D84" s="10"/>
       <c r="E84" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F84" s="8"/>
+        <v>142</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="G84" s="22" t="s">
         <v>25</v>
       </c>
@@ -2865,12 +2912,12 @@
       </c>
     </row>
     <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="38"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="42"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="46"/>
       <c r="D85" s="10"/>
       <c r="E85" s="9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="22" t="s">
@@ -2883,34 +2930,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="38"/>
-      <c r="B86" s="40"/>
-      <c r="C86" s="42"/>
+    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="42"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="46"/>
       <c r="D86" s="10"/>
       <c r="E86" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="22" t="s">
         <v>25</v>
       </c>
       <c r="H86" s="16"/>
-      <c r="I86" s="20">
-        <v>43061</v>
-      </c>
-      <c r="J86" s="20">
-        <v>43062</v>
-      </c>
-      <c r="K86" s="21"/>
-    </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="38"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="42"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="42"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="10"/>
       <c r="E87" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="22" t="s">
@@ -2918,22 +2963,20 @@
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="20">
-        <v>43063</v>
+        <v>43061</v>
       </c>
       <c r="J87" s="20">
-        <v>43064</v>
+        <v>43062</v>
       </c>
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="38"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>152</v>
+      <c r="A88" s="42"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="22" t="s">
@@ -2941,20 +2984,22 @@
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="20">
+        <v>43063</v>
+      </c>
+      <c r="J88" s="20">
         <v>43064</v>
       </c>
-      <c r="J88" s="20">
-        <v>43065</v>
-      </c>
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="38"/>
-      <c r="B89" s="40"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="9" t="s">
-        <v>153</v>
+      <c r="A89" s="42"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>149</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="22" t="s">
@@ -2962,7 +3007,7 @@
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="20">
-        <v>43065</v>
+        <v>43064</v>
       </c>
       <c r="J89" s="20">
         <v>43065</v>
@@ -2970,67 +3015,67 @@
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="38"/>
-      <c r="B90" s="40"/>
-      <c r="C90" s="42"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="46"/>
       <c r="D90" s="10"/>
       <c r="E90" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H90" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H90" s="16"/>
       <c r="I90" s="20">
-        <v>43066</v>
+        <v>43065</v>
       </c>
       <c r="J90" s="20">
-        <v>43066</v>
+        <v>43065</v>
       </c>
       <c r="K90" s="21"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="39"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F91" s="24"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F91" s="8"/>
       <c r="G91" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H91" s="13"/>
+      <c r="H91" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I91" s="20">
-        <v>43067</v>
+        <v>43066</v>
       </c>
       <c r="J91" s="20">
-        <v>43068</v>
+        <v>43066</v>
       </c>
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F92" s="8"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="45"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F92" s="24"/>
       <c r="G92" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H92" s="9"/>
+      <c r="H92" s="13"/>
       <c r="I92" s="20">
-        <v>43069</v>
+        <v>43067</v>
       </c>
       <c r="J92" s="20">
-        <v>43069</v>
+        <v>43068</v>
       </c>
       <c r="K92" s="21"/>
     </row>
@@ -3040,7 +3085,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
       <c r="E93" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="22" t="s">
@@ -3048,10 +3093,10 @@
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="20">
-        <v>43070</v>
+        <v>43069</v>
       </c>
       <c r="J93" s="20">
-        <v>43071</v>
+        <v>43069</v>
       </c>
       <c r="K93" s="21"/>
     </row>
@@ -3061,20 +3106,18 @@
       <c r="C94" s="9"/>
       <c r="D94" s="10"/>
       <c r="E94" s="9" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H94" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H94" s="9"/>
       <c r="I94" s="20">
-        <v>43072</v>
+        <v>43070</v>
       </c>
       <c r="J94" s="20">
-        <v>43073</v>
+        <v>43071</v>
       </c>
       <c r="K94" s="21"/>
     </row>
@@ -3084,134 +3127,157 @@
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
       <c r="E95" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H95" s="16"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F96" s="26"/>
+      <c r="H95" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I95" s="20">
+        <v>43072</v>
+      </c>
+      <c r="J95" s="20">
+        <v>43073</v>
+      </c>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="9"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="8"/>
       <c r="G96" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="20">
-        <v>43062</v>
-      </c>
+      <c r="H96" s="16"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
       <c r="K96" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
       <c r="D97" s="9"/>
       <c r="E97" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="22" t="s">
         <v>25</v>
       </c>
       <c r="H97" s="9"/>
-      <c r="I97" s="20">
+      <c r="I97" s="9"/>
+      <c r="J97" s="20">
+        <v>43062</v>
+      </c>
+      <c r="K97" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F98" s="26"/>
+      <c r="G98" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" s="9"/>
+      <c r="I98" s="20">
         <v>43074</v>
       </c>
-      <c r="J97" s="20">
+      <c r="J98" s="20">
         <v>43074</v>
       </c>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="9">
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="9">
         <v>3</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C98" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="27"/>
+      <c r="B99" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>161</v>
+      </c>
       <c r="D99" s="28"/>
-      <c r="E99" s="31"/>
+      <c r="E99" s="29"/>
       <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
       <c r="I99" s="28"/>
       <c r="J99" s="28"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="9">
-        <v>5</v>
-      </c>
+      <c r="A100" s="9"/>
       <c r="B100" s="9"/>
-      <c r="C100" s="25" t="s">
-        <v>165</v>
-      </c>
+      <c r="C100" s="27"/>
       <c r="D100" s="28"/>
       <c r="E100" s="31"/>
-      <c r="F100" s="32"/>
-      <c r="G100" s="32"/>
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
       <c r="J100" s="28"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
+      <c r="A101" s="9">
+        <v>5</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="D101" s="28"/>
       <c r="E101" s="31"/>
-      <c r="F101" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="G101" s="28"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
       <c r="J101" s="28"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E102" s="33"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E104" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A5:A91"/>
-    <mergeCell ref="B5:B91"/>
-    <mergeCell ref="C5:C91"/>
+    <mergeCell ref="A5:A92"/>
+    <mergeCell ref="B5:B92"/>
+    <mergeCell ref="C5:C92"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9390" tabRatio="271"/>
+    <workbookView xWindow="180" yWindow="3450" windowWidth="19770" windowHeight="9390" tabRatio="271"/>
   </bookViews>
   <sheets>
     <sheet name="工作量评估表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="178">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -290,9 +290,6 @@
     <t>施工现场安全用电检查表</t>
   </si>
   <si>
-    <t>施工现场维修记录</t>
-  </si>
-  <si>
     <t>安保人员值班安排及值班记录表</t>
   </si>
   <si>
@@ -614,6 +611,14 @@
   <si>
     <t xml:space="preserve">工程名称    时间   维修人员   
 维修内容:  </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工现场维修记录</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1239,7 +1244,7 @@
   <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E42"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1370,10 +1375,10 @@
       <c r="I5" s="9"/>
       <c r="J5" s="20"/>
       <c r="K5" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1962,7 +1967,7 @@
         <v>43069</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1981,7 +1986,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="37"/>
       <c r="K36" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2000,7 +2005,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="37"/>
       <c r="K37" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2017,7 +2022,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="37"/>
       <c r="K38" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2034,7 +2039,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="37"/>
       <c r="K39" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2043,20 +2048,20 @@
       <c r="C40" s="46"/>
       <c r="D40" s="35"/>
       <c r="E40" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="15"/>
       <c r="H40" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I40" s="34"/>
       <c r="J40" s="37"/>
       <c r="K40" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2075,7 +2080,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="37"/>
       <c r="K41" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2084,7 +2089,7 @@
       <c r="C42" s="46"/>
       <c r="D42" s="10"/>
       <c r="E42" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>77</v>
@@ -2094,7 +2099,7 @@
       <c r="I42" s="9"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
@@ -2106,13 +2111,15 @@
         <v>78</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
       <c r="I43" s="9"/>
       <c r="J43" s="20"/>
-      <c r="K43" s="21"/>
+      <c r="K43" s="21" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A44" s="42"/>
@@ -2120,16 +2127,18 @@
       <c r="C44" s="46"/>
       <c r="D44" s="10"/>
       <c r="E44" s="17" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="16"/>
       <c r="I44" s="9"/>
       <c r="J44" s="20"/>
-      <c r="K44" s="21"/>
+      <c r="K44" s="21" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A45" s="42"/>
@@ -2137,10 +2146,10 @@
       <c r="C45" s="46"/>
       <c r="D45" s="10"/>
       <c r="E45" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>22</v>
@@ -2160,10 +2169,10 @@
       <c r="C46" s="46"/>
       <c r="D46" s="10"/>
       <c r="E46" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>22</v>
@@ -2183,10 +2192,10 @@
       <c r="C47" s="46"/>
       <c r="D47" s="10"/>
       <c r="E47" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>22</v>
@@ -2208,10 +2217,10 @@
       <c r="C48" s="46"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>22</v>
@@ -2233,10 +2242,10 @@
       <c r="C49" s="46"/>
       <c r="D49" s="10"/>
       <c r="E49" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>22</v>
@@ -2258,10 +2267,10 @@
       <c r="C50" s="46"/>
       <c r="D50" s="10"/>
       <c r="E50" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>22</v>
@@ -2283,10 +2292,10 @@
       <c r="C51" s="46"/>
       <c r="D51" s="10"/>
       <c r="E51" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="G51" s="15"/>
       <c r="H51" s="16"/>
@@ -2300,7 +2309,7 @@
       <c r="C52" s="46"/>
       <c r="D52" s="10"/>
       <c r="E52" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="15"/>
@@ -2317,7 +2326,7 @@
       <c r="C53" s="46"/>
       <c r="D53" s="10"/>
       <c r="E53" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="15"/>
@@ -2334,7 +2343,7 @@
       <c r="C54" s="46"/>
       <c r="D54" s="10"/>
       <c r="E54" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="15"/>
@@ -2351,7 +2360,7 @@
       <c r="C55" s="46"/>
       <c r="D55" s="10"/>
       <c r="E55" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="15"/>
@@ -2366,7 +2375,7 @@
       <c r="C56" s="46"/>
       <c r="D56" s="10"/>
       <c r="E56" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="15"/>
@@ -2383,7 +2392,7 @@
       <c r="C57" s="46"/>
       <c r="D57" s="10"/>
       <c r="E57" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="15"/>
@@ -2400,7 +2409,7 @@
       <c r="C58" s="46"/>
       <c r="D58" s="10"/>
       <c r="E58" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="15"/>
@@ -2417,7 +2426,7 @@
       <c r="C59" s="46"/>
       <c r="D59" s="10"/>
       <c r="E59" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="15"/>
@@ -2434,7 +2443,7 @@
       <c r="C60" s="46"/>
       <c r="D60" s="10"/>
       <c r="E60" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="15"/>
@@ -2449,7 +2458,7 @@
       <c r="C61" s="46"/>
       <c r="D61" s="10"/>
       <c r="E61" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="15"/>
@@ -2464,7 +2473,7 @@
       <c r="C62" s="46"/>
       <c r="D62" s="10"/>
       <c r="E62" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="15"/>
@@ -2481,7 +2490,7 @@
       <c r="C63" s="46"/>
       <c r="D63" s="10"/>
       <c r="E63" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="15"/>
@@ -2498,7 +2507,7 @@
       <c r="C64" s="46"/>
       <c r="D64" s="10"/>
       <c r="E64" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="15" t="s">
@@ -2517,7 +2526,7 @@
       <c r="C65" s="46"/>
       <c r="D65" s="10"/>
       <c r="E65" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="15"/>
@@ -2532,7 +2541,7 @@
       <c r="C66" s="46"/>
       <c r="D66" s="10"/>
       <c r="E66" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="15"/>
@@ -2547,7 +2556,7 @@
       <c r="C67" s="46"/>
       <c r="D67" s="10"/>
       <c r="E67" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="15"/>
@@ -2564,7 +2573,7 @@
       <c r="C68" s="46"/>
       <c r="D68" s="10"/>
       <c r="E68" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="15"/>
@@ -2579,10 +2588,10 @@
       <c r="C69" s="46"/>
       <c r="D69" s="10"/>
       <c r="E69" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="G69" s="15" t="s">
         <v>22</v>
@@ -2600,10 +2609,10 @@
       <c r="C70" s="46"/>
       <c r="D70" s="10"/>
       <c r="E70" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>22</v>
@@ -2621,10 +2630,10 @@
       <c r="C71" s="46"/>
       <c r="D71" s="10"/>
       <c r="E71" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>22</v>
@@ -2642,10 +2651,10 @@
       <c r="C72" s="46"/>
       <c r="D72" s="10"/>
       <c r="E72" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>22</v>
@@ -2663,10 +2672,10 @@
       <c r="C73" s="46"/>
       <c r="D73" s="10"/>
       <c r="E73" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>22</v>
@@ -2684,10 +2693,10 @@
       <c r="C74" s="46"/>
       <c r="D74" s="10"/>
       <c r="E74" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="G74" s="15" t="s">
         <v>22</v>
@@ -2696,7 +2705,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="20"/>
       <c r="K74" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2705,10 +2714,10 @@
       <c r="C75" s="46"/>
       <c r="D75" s="10"/>
       <c r="E75" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="G75" s="22" t="s">
         <v>25</v>
@@ -2726,10 +2735,10 @@
       <c r="C76" s="46"/>
       <c r="D76" s="10"/>
       <c r="E76" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>25</v>
@@ -2747,10 +2756,10 @@
       <c r="C77" s="46"/>
       <c r="D77" s="10"/>
       <c r="E77" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>25</v>
@@ -2768,10 +2777,10 @@
       <c r="C78" s="46"/>
       <c r="D78" s="10"/>
       <c r="E78" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>25</v>
@@ -2789,10 +2798,10 @@
       <c r="C79" s="46"/>
       <c r="D79" s="10"/>
       <c r="E79" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="G79" s="22" t="s">
         <v>25</v>
@@ -2810,10 +2819,10 @@
       <c r="C80" s="46"/>
       <c r="D80" s="10"/>
       <c r="E80" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="G80" s="22" t="s">
         <v>25</v>
@@ -2831,10 +2840,10 @@
       <c r="C81" s="46"/>
       <c r="D81" s="10"/>
       <c r="E81" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>25</v>
@@ -2852,10 +2861,10 @@
       <c r="C82" s="46"/>
       <c r="D82" s="10"/>
       <c r="E82" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="G82" s="22" t="s">
         <v>25</v>
@@ -2875,10 +2884,10 @@
       <c r="C83" s="46"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="G83" s="22" t="s">
         <v>25</v>
@@ -2896,10 +2905,10 @@
       <c r="C84" s="46"/>
       <c r="D84" s="10"/>
       <c r="E84" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F84" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="G84" s="22" t="s">
         <v>25</v>
@@ -2917,7 +2926,7 @@
       <c r="C85" s="46"/>
       <c r="D85" s="10"/>
       <c r="E85" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="22" t="s">
@@ -2936,7 +2945,7 @@
       <c r="C86" s="46"/>
       <c r="D86" s="10"/>
       <c r="E86" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="22" t="s">
@@ -2955,7 +2964,7 @@
       <c r="C87" s="46"/>
       <c r="D87" s="10"/>
       <c r="E87" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="22" t="s">
@@ -2976,7 +2985,7 @@
       <c r="C88" s="46"/>
       <c r="D88" s="10"/>
       <c r="E88" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="22" t="s">
@@ -2996,10 +3005,10 @@
       <c r="B89" s="44"/>
       <c r="C89" s="46"/>
       <c r="D89" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="22" t="s">
@@ -3020,7 +3029,7 @@
       <c r="C90" s="46"/>
       <c r="D90" s="10"/>
       <c r="E90" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="22" t="s">
@@ -3041,7 +3050,7 @@
       <c r="C91" s="46"/>
       <c r="D91" s="10"/>
       <c r="E91" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="22" t="s">
@@ -3064,7 +3073,7 @@
       <c r="C92" s="46"/>
       <c r="D92" s="23"/>
       <c r="E92" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F92" s="24"/>
       <c r="G92" s="22" t="s">
@@ -3085,7 +3094,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
       <c r="E93" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="22" t="s">
@@ -3106,7 +3115,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="10"/>
       <c r="E94" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="22" t="s">
@@ -3127,7 +3136,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
       <c r="E95" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="22" t="s">
@@ -3150,7 +3159,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="10"/>
       <c r="E96" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="22" t="s">
@@ -3169,7 +3178,7 @@
       <c r="C97" s="25"/>
       <c r="D97" s="9"/>
       <c r="E97" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="22" t="s">
@@ -3181,7 +3190,7 @@
         <v>43062</v>
       </c>
       <c r="K97" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3190,7 +3199,7 @@
       <c r="C98" s="25"/>
       <c r="D98" s="9"/>
       <c r="E98" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="22" t="s">
@@ -3210,10 +3219,10 @@
         <v>3</v>
       </c>
       <c r="B99" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C99" s="27" t="s">
         <v>160</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>161</v>
       </c>
       <c r="D99" s="28"/>
       <c r="E99" s="29"/>
@@ -3241,7 +3250,7 @@
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D101" s="28"/>
       <c r="E101" s="31"/>
@@ -3258,7 +3267,7 @@
       <c r="D102" s="28"/>
       <c r="E102" s="31"/>
       <c r="F102" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G102" s="28"/>
       <c r="H102" s="28"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="工作量评估表" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作量评估表!$A$3:$L$98</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -372,9 +375,6 @@
     <t>会议纪要</t>
   </si>
   <si>
-    <t>工程影像资料</t>
-  </si>
-  <si>
     <t>支出合同</t>
   </si>
   <si>
@@ -619,6 +619,38 @@
   </si>
   <si>
     <t>施工现场维修记录</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢松</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>差项目级的</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘洋</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程影像资料</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1241,10 +1273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L104"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1351,7 +1384,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42">
         <v>2</v>
       </c>
@@ -1375,13 +1408,13 @@
       <c r="I5" s="9"/>
       <c r="J5" s="20"/>
       <c r="K5" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="42"/>
       <c r="B6" s="44"/>
       <c r="C6" s="46"/>
@@ -1422,7 +1455,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="42"/>
       <c r="B8" s="44"/>
       <c r="C8" s="46"/>
@@ -1446,7 +1479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="46"/>
@@ -1467,7 +1500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42"/>
       <c r="B10" s="44"/>
       <c r="C10" s="46"/>
@@ -1490,7 +1523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="46"/>
@@ -1513,7 +1546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="46"/>
@@ -1536,7 +1569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="42"/>
       <c r="B13" s="44"/>
       <c r="C13" s="46"/>
@@ -1561,7 +1594,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="42"/>
       <c r="B14" s="44"/>
       <c r="C14" s="46"/>
@@ -1584,7 +1617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="42"/>
       <c r="B15" s="44"/>
       <c r="C15" s="46"/>
@@ -1607,7 +1640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42"/>
       <c r="B16" s="44"/>
       <c r="C16" s="46"/>
@@ -1633,7 +1666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="42"/>
       <c r="B17" s="44"/>
       <c r="C17" s="46"/>
@@ -1656,47 +1689,55 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="42"/>
       <c r="B18" s="44"/>
       <c r="C18" s="46"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="9"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="K18" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="42"/>
       <c r="B19" s="44"/>
       <c r="C19" s="46"/>
-      <c r="D19" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>178</v>
+      </c>
       <c r="H19" s="16"/>
       <c r="I19" s="9"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42"/>
       <c r="B20" s="44"/>
       <c r="C20" s="46"/>
       <c r="D20" s="10"/>
       <c r="E20" s="14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>54</v>
@@ -1705,32 +1746,39 @@
       <c r="H20" s="16"/>
       <c r="I20" s="9"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
       <c r="B21" s="44"/>
       <c r="C21" s="46"/>
       <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
       <c r="I21" s="9"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="K21" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A22" s="42"/>
       <c r="B22" s="44"/>
       <c r="C22" s="46"/>
       <c r="D22" s="10"/>
       <c r="E22" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>57</v>
@@ -1739,51 +1787,60 @@
       <c r="H22" s="16"/>
       <c r="I22" s="9"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="K22" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42"/>
       <c r="B23" s="44"/>
       <c r="C23" s="46"/>
       <c r="D23" s="10"/>
       <c r="E23" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="44"/>
       <c r="C24" s="46"/>
       <c r="D24" s="10"/>
       <c r="E24" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>60</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="15"/>
       <c r="H24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="20"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="42"/>
       <c r="B25" s="44"/>
       <c r="C25" s="46"/>
       <c r="D25" s="10"/>
       <c r="E25" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="15"/>
@@ -1796,111 +1853,127 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="42"/>
       <c r="B26" s="44"/>
       <c r="C26" s="46"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>181</v>
+      </c>
       <c r="H26" s="16" t="s">
         <v>40</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
       <c r="B27" s="44"/>
       <c r="C27" s="46"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="G27" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="16"/>
       <c r="I27" s="9"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
       <c r="B28" s="44"/>
       <c r="C28" s="46"/>
       <c r="D28" s="10"/>
       <c r="E28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>178</v>
+      </c>
       <c r="H28" s="16"/>
       <c r="I28" s="9"/>
       <c r="J28" s="20"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
       <c r="B29" s="44"/>
       <c r="C29" s="46"/>
       <c r="D29" s="10"/>
       <c r="E29" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>66</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="15"/>
       <c r="H29" s="16"/>
       <c r="I29" s="9"/>
       <c r="J29" s="20"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
       <c r="B30" s="44"/>
       <c r="C30" s="46"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="15"/>
       <c r="H30" s="16"/>
       <c r="I30" s="9"/>
       <c r="J30" s="20"/>
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="42"/>
       <c r="B31" s="44"/>
       <c r="C31" s="46"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="20"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="42"/>
       <c r="B32" s="44"/>
       <c r="C32" s="46"/>
       <c r="D32" s="10"/>
       <c r="E32" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="15"/>
@@ -1910,16 +1983,16 @@
       <c r="I32" s="9"/>
       <c r="J32" s="20"/>
       <c r="K32" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
       <c r="B33" s="44"/>
       <c r="C33" s="46"/>
       <c r="D33" s="10"/>
       <c r="E33" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="15"/>
@@ -1928,15 +2001,17 @@
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="20"/>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
       <c r="B34" s="44"/>
       <c r="C34" s="46"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="14" t="s">
-        <v>71</v>
+      <c r="E34" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="15"/>
@@ -1944,18 +2019,20 @@
         <v>40</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="J34" s="20"/>
+      <c r="J34" s="37">
+        <v>43069</v>
+      </c>
       <c r="K34" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42"/>
       <c r="B35" s="44"/>
       <c r="C35" s="46"/>
       <c r="D35" s="10"/>
       <c r="E35" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="15"/>
@@ -1963,20 +2040,18 @@
         <v>40</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="37">
-        <v>43069</v>
-      </c>
-      <c r="K35" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J35" s="37"/>
+      <c r="K35" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="42"/>
       <c r="B36" s="44"/>
       <c r="C36" s="46"/>
       <c r="D36" s="10"/>
       <c r="E36" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="15"/>
@@ -1986,35 +2061,33 @@
       <c r="I36" s="9"/>
       <c r="J36" s="37"/>
       <c r="K36" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42"/>
       <c r="B37" s="44"/>
       <c r="C37" s="46"/>
       <c r="D37" s="10"/>
       <c r="E37" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="15"/>
-      <c r="H37" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H37" s="16"/>
       <c r="I37" s="9"/>
       <c r="J37" s="37"/>
-      <c r="K37" s="36" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K37" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="42"/>
       <c r="B38" s="44"/>
       <c r="C38" s="46"/>
       <c r="D38" s="10"/>
       <c r="E38" s="18" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="15"/>
@@ -2022,93 +2095,95 @@
       <c r="I38" s="9"/>
       <c r="J38" s="37"/>
       <c r="K38" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="42"/>
       <c r="B39" s="44"/>
       <c r="C39" s="46"/>
-      <c r="D39" s="10"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="18" t="s">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="I39" s="34"/>
       <c r="J39" s="37"/>
       <c r="K39" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="42"/>
       <c r="B40" s="44"/>
       <c r="C40" s="46"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="18" t="s">
-        <v>169</v>
+      <c r="D40" s="10"/>
+      <c r="E40" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="15"/>
       <c r="H40" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="I40" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="I40" s="9"/>
       <c r="J40" s="37"/>
       <c r="K40" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="42"/>
       <c r="B41" s="44"/>
       <c r="C41" s="46"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F41" s="8"/>
+      <c r="E41" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G41" s="15"/>
-      <c r="H41" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H41" s="16"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="37"/>
+      <c r="J41" s="20"/>
       <c r="K41" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="42"/>
       <c r="B42" s="44"/>
       <c r="C42" s="46"/>
       <c r="D42" s="10"/>
       <c r="E42" s="17" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
       <c r="I42" s="9"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="42"/>
       <c r="B43" s="44"/>
       <c r="C43" s="46"/>
       <c r="D43" s="10"/>
       <c r="E43" s="17" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>174</v>
@@ -2118,38 +2193,42 @@
       <c r="I43" s="9"/>
       <c r="J43" s="20"/>
       <c r="K43" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="42"/>
       <c r="B44" s="44"/>
       <c r="C44" s="46"/>
       <c r="D44" s="10"/>
       <c r="E44" s="17" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G44" s="15"/>
+        <v>80</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="H44" s="16"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="20"/>
+      <c r="J44" s="20">
+        <v>43037</v>
+      </c>
       <c r="K44" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="42"/>
       <c r="B45" s="44"/>
       <c r="C45" s="46"/>
       <c r="D45" s="10"/>
       <c r="E45" s="17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>22</v>
@@ -2157,45 +2236,47 @@
       <c r="H45" s="16"/>
       <c r="I45" s="9"/>
       <c r="J45" s="20">
-        <v>43037</v>
+        <v>43038</v>
       </c>
       <c r="K45" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="42"/>
       <c r="B46" s="44"/>
       <c r="C46" s="46"/>
       <c r="D46" s="10"/>
       <c r="E46" s="17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="16"/>
+      <c r="H46" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="20">
-        <v>43038</v>
+        <v>43039</v>
       </c>
       <c r="K46" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="42"/>
       <c r="B47" s="44"/>
       <c r="C47" s="46"/>
       <c r="D47" s="10"/>
       <c r="E47" s="17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>22</v>
@@ -2211,16 +2292,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="42"/>
       <c r="B48" s="44"/>
       <c r="C48" s="46"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>22</v>
@@ -2230,22 +2311,22 @@
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="20">
-        <v>43039</v>
+        <v>43041</v>
       </c>
       <c r="K48" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42"/>
       <c r="B49" s="44"/>
       <c r="C49" s="46"/>
       <c r="D49" s="10"/>
       <c r="E49" s="17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>22</v>
@@ -2267,38 +2348,30 @@
       <c r="C50" s="46"/>
       <c r="D50" s="10"/>
       <c r="E50" s="17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G50" s="15"/>
+      <c r="H50" s="16"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="20">
-        <v>43041</v>
-      </c>
-      <c r="K50" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="J50" s="20"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42"/>
       <c r="B51" s="44"/>
       <c r="C51" s="46"/>
       <c r="D51" s="10"/>
-      <c r="E51" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="E51" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="8"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
+      <c r="H51" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="20"/>
       <c r="K51" s="21"/>
@@ -2309,7 +2382,7 @@
       <c r="C52" s="46"/>
       <c r="D52" s="10"/>
       <c r="E52" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="15"/>
@@ -2326,7 +2399,7 @@
       <c r="C53" s="46"/>
       <c r="D53" s="10"/>
       <c r="E53" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="15"/>
@@ -2343,13 +2416,11 @@
       <c r="C54" s="46"/>
       <c r="D54" s="10"/>
       <c r="E54" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="15"/>
-      <c r="H54" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H54" s="16"/>
       <c r="I54" s="9"/>
       <c r="J54" s="20"/>
       <c r="K54" s="21"/>
@@ -2360,11 +2431,13 @@
       <c r="C55" s="46"/>
       <c r="D55" s="10"/>
       <c r="E55" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="15"/>
-      <c r="H55" s="16"/>
+      <c r="H55" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="20"/>
       <c r="K55" s="21"/>
@@ -2375,7 +2448,7 @@
       <c r="C56" s="46"/>
       <c r="D56" s="10"/>
       <c r="E56" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="15"/>
@@ -2392,7 +2465,7 @@
       <c r="C57" s="46"/>
       <c r="D57" s="10"/>
       <c r="E57" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="15"/>
@@ -2409,7 +2482,7 @@
       <c r="C58" s="46"/>
       <c r="D58" s="10"/>
       <c r="E58" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="15"/>
@@ -2426,16 +2499,16 @@
       <c r="C59" s="46"/>
       <c r="D59" s="10"/>
       <c r="E59" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H59" s="16"/>
       <c r="I59" s="9"/>
       <c r="J59" s="20"/>
-      <c r="K59" s="21"/>
+      <c r="K59" s="21" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42"/>
@@ -2443,7 +2516,7 @@
       <c r="C60" s="46"/>
       <c r="D60" s="10"/>
       <c r="E60" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="15"/>
@@ -2458,11 +2531,13 @@
       <c r="C61" s="46"/>
       <c r="D61" s="10"/>
       <c r="E61" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="16"/>
+      <c r="H61" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="20"/>
       <c r="K61" s="21"/>
@@ -2473,7 +2548,7 @@
       <c r="C62" s="46"/>
       <c r="D62" s="10"/>
       <c r="E62" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="15"/>
@@ -2484,22 +2559,24 @@
       <c r="J62" s="20"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42"/>
       <c r="B63" s="44"/>
       <c r="C63" s="46"/>
       <c r="D63" s="10"/>
       <c r="E63" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F63" s="8"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="G63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="16"/>
       <c r="I63" s="9"/>
       <c r="J63" s="20"/>
-      <c r="K63" s="21"/>
+      <c r="K63" s="21" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="42"/>
@@ -2507,18 +2584,14 @@
       <c r="C64" s="46"/>
       <c r="D64" s="10"/>
       <c r="E64" s="14" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="F64" s="8"/>
-      <c r="G64" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="G64" s="15"/>
       <c r="H64" s="16"/>
       <c r="I64" s="9"/>
       <c r="J64" s="20"/>
-      <c r="K64" s="21" t="s">
-        <v>26</v>
-      </c>
+      <c r="K64" s="21"/>
     </row>
     <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="42"/>
@@ -2545,12 +2618,14 @@
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="15"/>
-      <c r="H66" s="16"/>
+      <c r="H66" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I66" s="9"/>
       <c r="J66" s="20"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="42"/>
       <c r="B67" s="44"/>
       <c r="C67" s="46"/>
@@ -2560,14 +2635,12 @@
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="15"/>
-      <c r="H67" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H67" s="16"/>
       <c r="I67" s="9"/>
       <c r="J67" s="20"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="42"/>
       <c r="B68" s="44"/>
       <c r="C68" s="46"/>
@@ -2575,23 +2648,29 @@
       <c r="E68" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="15"/>
+      <c r="F68" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="H68" s="16"/>
       <c r="I68" s="9"/>
       <c r="J68" s="20"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="K68" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="42"/>
       <c r="B69" s="44"/>
       <c r="C69" s="46"/>
       <c r="D69" s="10"/>
       <c r="E69" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G69" s="15" t="s">
         <v>22</v>
@@ -2603,16 +2682,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="42"/>
       <c r="B70" s="44"/>
       <c r="C70" s="46"/>
       <c r="D70" s="10"/>
       <c r="E70" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>22</v>
@@ -2624,16 +2703,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="42"/>
       <c r="B71" s="44"/>
       <c r="C71" s="46"/>
       <c r="D71" s="10"/>
       <c r="E71" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>22</v>
@@ -2645,16 +2724,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="42"/>
       <c r="B72" s="44"/>
       <c r="C72" s="46"/>
       <c r="D72" s="10"/>
       <c r="E72" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>22</v>
@@ -2666,16 +2745,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="42"/>
       <c r="B73" s="44"/>
       <c r="C73" s="46"/>
       <c r="D73" s="10"/>
       <c r="E73" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>22</v>
@@ -2684,40 +2763,40 @@
       <c r="I73" s="9"/>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="42"/>
       <c r="B74" s="44"/>
       <c r="C74" s="46"/>
       <c r="D74" s="10"/>
-      <c r="E74" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>22</v>
+      <c r="E74" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="9"/>
       <c r="J74" s="20"/>
       <c r="K74" s="21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="42"/>
       <c r="B75" s="44"/>
       <c r="C75" s="46"/>
       <c r="D75" s="10"/>
       <c r="E75" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G75" s="22" t="s">
         <v>25</v>
@@ -2729,16 +2808,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="42"/>
       <c r="B76" s="44"/>
       <c r="C76" s="46"/>
       <c r="D76" s="10"/>
       <c r="E76" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>25</v>
@@ -2750,16 +2829,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="42"/>
       <c r="B77" s="44"/>
       <c r="C77" s="46"/>
       <c r="D77" s="10"/>
       <c r="E77" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>25</v>
@@ -2771,16 +2850,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="42"/>
       <c r="B78" s="44"/>
       <c r="C78" s="46"/>
       <c r="D78" s="10"/>
       <c r="E78" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>25</v>
@@ -2792,16 +2871,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="42"/>
       <c r="B79" s="44"/>
       <c r="C79" s="46"/>
       <c r="D79" s="10"/>
       <c r="E79" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G79" s="22" t="s">
         <v>25</v>
@@ -2813,16 +2892,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="42"/>
       <c r="B80" s="44"/>
       <c r="C80" s="46"/>
       <c r="D80" s="10"/>
       <c r="E80" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G80" s="22" t="s">
         <v>25</v>
@@ -2834,60 +2913,60 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="42"/>
       <c r="B81" s="44"/>
       <c r="C81" s="46"/>
       <c r="D81" s="10"/>
       <c r="E81" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="20"/>
       <c r="K81" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="42"/>
       <c r="B82" s="44"/>
       <c r="C82" s="46"/>
       <c r="D82" s="10"/>
       <c r="E82" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G82" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H82" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H82" s="16"/>
       <c r="I82" s="9"/>
       <c r="J82" s="20"/>
       <c r="K82" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="42"/>
       <c r="B83" s="44"/>
       <c r="C83" s="46"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G83" s="22" t="s">
         <v>25</v>
@@ -2899,17 +2978,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="42"/>
       <c r="B84" s="44"/>
       <c r="C84" s="46"/>
       <c r="D84" s="10"/>
       <c r="E84" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F84" s="10" t="s">
         <v>142</v>
       </c>
+      <c r="F84" s="8"/>
       <c r="G84" s="22" t="s">
         <v>25</v>
       </c>
@@ -2920,7 +2997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="42"/>
       <c r="B85" s="44"/>
       <c r="C85" s="46"/>
@@ -2939,7 +3016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="42"/>
       <c r="B86" s="44"/>
       <c r="C86" s="46"/>
@@ -2952,13 +3029,15 @@
         <v>25</v>
       </c>
       <c r="H86" s="16"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I86" s="20">
+        <v>43061</v>
+      </c>
+      <c r="J86" s="20">
+        <v>43062</v>
+      </c>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="42"/>
       <c r="B87" s="44"/>
       <c r="C87" s="46"/>
@@ -2972,10 +3051,10 @@
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="20">
-        <v>43061</v>
+        <v>43063</v>
       </c>
       <c r="J87" s="20">
-        <v>43062</v>
+        <v>43064</v>
       </c>
       <c r="K87" s="21"/>
     </row>
@@ -2983,9 +3062,11 @@
       <c r="A88" s="42"/>
       <c r="B88" s="44"/>
       <c r="C88" s="46"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="9" t="s">
+      <c r="D88" s="10" t="s">
         <v>146</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="22" t="s">
@@ -2993,10 +3074,10 @@
       </c>
       <c r="H88" s="16"/>
       <c r="I88" s="20">
-        <v>43063</v>
+        <v>43064</v>
       </c>
       <c r="J88" s="20">
-        <v>43064</v>
+        <v>43065</v>
       </c>
       <c r="K88" s="21"/>
     </row>
@@ -3004,10 +3085,8 @@
       <c r="A89" s="42"/>
       <c r="B89" s="44"/>
       <c r="C89" s="46"/>
-      <c r="D89" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E89" s="12" t="s">
+      <c r="D89" s="10"/>
+      <c r="E89" s="9" t="s">
         <v>148</v>
       </c>
       <c r="F89" s="8"/>
@@ -3016,7 +3095,7 @@
       </c>
       <c r="H89" s="16"/>
       <c r="I89" s="20">
-        <v>43064</v>
+        <v>43065</v>
       </c>
       <c r="J89" s="20">
         <v>43065</v>
@@ -3035,56 +3114,56 @@
       <c r="G90" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H90" s="16"/>
+      <c r="H90" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I90" s="20">
-        <v>43065</v>
+        <v>43066</v>
       </c>
       <c r="J90" s="20">
-        <v>43065</v>
+        <v>43066</v>
       </c>
       <c r="K90" s="21"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="42"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="46"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="9" t="s">
+      <c r="D91" s="23"/>
+      <c r="E91" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F91" s="8"/>
+      <c r="F91" s="24"/>
       <c r="G91" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H91" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="H91" s="13"/>
       <c r="I91" s="20">
-        <v>43066</v>
+        <v>43067</v>
       </c>
       <c r="J91" s="20">
-        <v>43066</v>
+        <v>43068</v>
       </c>
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="43"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="6" t="s">
+      <c r="A92" s="9"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F92" s="24"/>
+      <c r="F92" s="8"/>
       <c r="G92" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H92" s="13"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="20">
-        <v>43067</v>
+        <v>43069</v>
       </c>
       <c r="J92" s="20">
-        <v>43068</v>
+        <v>43069</v>
       </c>
       <c r="K92" s="21"/>
     </row>
@@ -3102,10 +3181,10 @@
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="20">
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="J93" s="20">
-        <v>43069</v>
+        <v>43071</v>
       </c>
       <c r="K93" s="21"/>
     </row>
@@ -3121,16 +3200,18 @@
       <c r="G94" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H94" s="9"/>
+      <c r="H94" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="I94" s="20">
-        <v>43070</v>
+        <v>43072</v>
       </c>
       <c r="J94" s="20">
-        <v>43071</v>
+        <v>43073</v>
       </c>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="9"/>
@@ -3142,151 +3223,135 @@
       <c r="G95" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H95" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I95" s="20">
-        <v>43072</v>
-      </c>
-      <c r="J95" s="20">
-        <v>43073</v>
-      </c>
-      <c r="K95" s="21"/>
-    </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="9" t="s">
+      <c r="H95" s="16"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="20"/>
+      <c r="K95" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="F96" s="8"/>
+      <c r="F96" s="26"/>
       <c r="G96" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H96" s="16"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="20">
+        <v>43062</v>
+      </c>
       <c r="K96" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
       <c r="D97" s="9"/>
       <c r="E97" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="22" t="s">
         <v>25</v>
       </c>
       <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="20">
+        <v>43074</v>
+      </c>
       <c r="J97" s="20">
-        <v>43062</v>
-      </c>
-      <c r="K97" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="12" t="s">
+        <v>43074</v>
+      </c>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="9">
+        <v>3</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F98" s="26"/>
-      <c r="G98" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" s="9"/>
-      <c r="I98" s="20">
-        <v>43074</v>
-      </c>
-      <c r="J98" s="20">
-        <v>43074</v>
-      </c>
-      <c r="K98" s="21"/>
+      <c r="C98" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="28"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="9">
-        <v>3</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C99" s="27" t="s">
-        <v>160</v>
-      </c>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="27"/>
       <c r="D99" s="28"/>
-      <c r="E99" s="29"/>
+      <c r="E99" s="31"/>
       <c r="F99" s="28"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
       <c r="I99" s="28"/>
       <c r="J99" s="28"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="9"/>
+      <c r="A100" s="9">
+        <v>5</v>
+      </c>
       <c r="B100" s="9"/>
-      <c r="C100" s="27"/>
+      <c r="C100" s="25" t="s">
+        <v>160</v>
+      </c>
       <c r="D100" s="28"/>
       <c r="E100" s="31"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
       <c r="J100" s="28"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="9">
-        <v>5</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="25" t="s">
-        <v>161</v>
-      </c>
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
       <c r="D101" s="28"/>
       <c r="E101" s="31"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
+      <c r="F101" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G101" s="28"/>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
       <c r="J101" s="28"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
+      <c r="E102" s="33"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E103" s="33"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E104" s="33"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A3:L98">
+    <filterColumn colId="10">
+      <filters blank="1">
+        <filter val="未完成"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A5:A92"/>
-    <mergeCell ref="B5:B92"/>
-    <mergeCell ref="C5:C92"/>
+    <mergeCell ref="A5:A91"/>
+    <mergeCell ref="B5:B91"/>
+    <mergeCell ref="C5:C91"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="186">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -647,6 +647,10 @@
   </si>
   <si>
     <t>工程影像资料</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1276,8 +1280,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1766,7 +1770,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="20"/>
       <c r="K21" s="21" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>179</v>
@@ -1788,7 +1792,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="20"/>
       <c r="K22" s="21" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>179</v>
@@ -3341,7 +3345,7 @@
   </sheetData>
   <autoFilter ref="A3:L98">
     <filterColumn colId="10">
-      <filters blank="1">
+      <filters>
         <filter val="未完成"/>
       </filters>
     </filterColumn>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -655,6 +655,18 @@
   </si>
   <si>
     <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务不清楚</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统级施工图目录分类及项目级施工图资料</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1280,8 +1292,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1934,6 +1946,9 @@
       <c r="K29" s="21" t="s">
         <v>180</v>
       </c>
+      <c r="L29" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
@@ -1951,6 +1966,9 @@
       <c r="K30" s="21" t="s">
         <v>180</v>
       </c>
+      <c r="L30" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="42"/>
@@ -2321,7 +2339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="42"/>
       <c r="B49" s="44"/>
       <c r="C49" s="46"/>
@@ -2346,7 +2364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A50" s="42"/>
       <c r="B50" s="44"/>
       <c r="C50" s="46"/>
@@ -2363,7 +2381,7 @@
       <c r="J50" s="20"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42"/>
       <c r="B51" s="44"/>
       <c r="C51" s="46"/>
@@ -2380,7 +2398,7 @@
       <c r="J51" s="20"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="42"/>
       <c r="B52" s="44"/>
       <c r="C52" s="46"/>
@@ -2397,7 +2415,7 @@
       <c r="J52" s="20"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="42"/>
       <c r="B53" s="44"/>
       <c r="C53" s="46"/>
@@ -2414,7 +2432,7 @@
       <c r="J53" s="20"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="42"/>
       <c r="B54" s="44"/>
       <c r="C54" s="46"/>
@@ -2429,7 +2447,7 @@
       <c r="J54" s="20"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="42"/>
       <c r="B55" s="44"/>
       <c r="C55" s="46"/>
@@ -2446,7 +2464,7 @@
       <c r="J55" s="20"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="42"/>
       <c r="B56" s="44"/>
       <c r="C56" s="46"/>
@@ -2463,7 +2481,7 @@
       <c r="J56" s="20"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="42"/>
       <c r="B57" s="44"/>
       <c r="C57" s="46"/>
@@ -2480,7 +2498,7 @@
       <c r="J57" s="20"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="42"/>
       <c r="B58" s="44"/>
       <c r="C58" s="46"/>
@@ -2497,7 +2515,7 @@
       <c r="J58" s="20"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="42"/>
       <c r="B59" s="44"/>
       <c r="C59" s="46"/>
@@ -2514,7 +2532,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="42"/>
       <c r="B60" s="44"/>
       <c r="C60" s="46"/>
@@ -2529,7 +2547,7 @@
       <c r="J60" s="20"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="42"/>
       <c r="B61" s="44"/>
       <c r="C61" s="46"/>
@@ -2544,9 +2562,14 @@
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="20"/>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K61" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="42"/>
       <c r="B62" s="44"/>
       <c r="C62" s="46"/>
@@ -2563,7 +2586,7 @@
       <c r="J62" s="20"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="42"/>
       <c r="B63" s="44"/>
       <c r="C63" s="46"/>
@@ -2582,7 +2605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="42"/>
       <c r="B64" s="44"/>
       <c r="C64" s="46"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="191">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -266,9 +266,6 @@
     <t>设计变更、洽商</t>
   </si>
   <si>
-    <t>往来单位函件</t>
-  </si>
-  <si>
     <t>安全教育花名册</t>
   </si>
   <si>
@@ -327,9 +324,6 @@
   </si>
   <si>
     <t>巡逻线路、范围 巡逻注意事项 有无异常 处理办法（□向主管反应 □及时制止）</t>
-  </si>
-  <si>
-    <t>施工样板清单</t>
   </si>
   <si>
     <t xml:space="preserve">工程项目 样板种类 配合的技术交底
@@ -642,10 +636,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>工程影像资料</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -667,6 +657,26 @@
   </si>
   <si>
     <t>系统级施工图目录分类及项目级施工图资料</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工样板清单</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务不清楚</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务不清楚</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>往来单位函件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1292,8 +1302,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1424,10 +1434,10 @@
       <c r="I5" s="9"/>
       <c r="J5" s="20"/>
       <c r="K5" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1738,13 +1748,13 @@
         <v>54</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="9"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1763,7 +1773,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="20"/>
       <c r="K20" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
@@ -1782,10 +1792,10 @@
       <c r="I21" s="9"/>
       <c r="J21" s="20"/>
       <c r="K21" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
@@ -1804,10 +1814,10 @@
       <c r="I22" s="9"/>
       <c r="J22" s="20"/>
       <c r="K22" s="21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1828,7 +1838,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1879,7 +1889,7 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H26" s="16" t="s">
         <v>40</v>
@@ -1887,7 +1897,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="20"/>
       <c r="K26" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1900,13 +1910,13 @@
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="9"/>
       <c r="J27" s="20"/>
       <c r="K27" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1921,13 +1931,13 @@
         <v>66</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="9"/>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1944,10 +1954,10 @@
       <c r="I29" s="9"/>
       <c r="J29" s="20"/>
       <c r="K29" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1964,10 +1974,10 @@
       <c r="I30" s="9"/>
       <c r="J30" s="20"/>
       <c r="K30" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -1995,7 +2005,7 @@
       <c r="C32" s="46"/>
       <c r="D32" s="10"/>
       <c r="E32" s="14" t="s">
-        <v>70</v>
+        <v>189</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="15"/>
@@ -2005,7 +2015,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="20"/>
       <c r="K32" s="21" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2014,7 +2024,7 @@
       <c r="C33" s="46"/>
       <c r="D33" s="10"/>
       <c r="E33" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="15"/>
@@ -2033,7 +2043,7 @@
       <c r="C34" s="46"/>
       <c r="D34" s="10"/>
       <c r="E34" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="15"/>
@@ -2045,7 +2055,7 @@
         <v>43069</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2054,7 +2064,7 @@
       <c r="C35" s="46"/>
       <c r="D35" s="10"/>
       <c r="E35" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="15"/>
@@ -2064,7 +2074,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="37"/>
       <c r="K35" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2073,7 +2083,7 @@
       <c r="C36" s="46"/>
       <c r="D36" s="10"/>
       <c r="E36" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="15"/>
@@ -2083,7 +2093,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="37"/>
       <c r="K36" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2092,7 +2102,7 @@
       <c r="C37" s="46"/>
       <c r="D37" s="10"/>
       <c r="E37" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="15"/>
@@ -2100,7 +2110,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="37"/>
       <c r="K37" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2117,7 +2127,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="37"/>
       <c r="K38" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2126,20 +2136,20 @@
       <c r="C39" s="46"/>
       <c r="D39" s="35"/>
       <c r="E39" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="15"/>
       <c r="H39" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I39" s="34"/>
       <c r="J39" s="37"/>
       <c r="K39" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2148,7 +2158,7 @@
       <c r="C40" s="46"/>
       <c r="D40" s="10"/>
       <c r="E40" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="15"/>
@@ -2158,7 +2168,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="37"/>
       <c r="K40" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2167,17 +2177,17 @@
       <c r="C41" s="46"/>
       <c r="D41" s="10"/>
       <c r="E41" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="16"/>
       <c r="I41" s="9"/>
       <c r="J41" s="20"/>
       <c r="K41" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
@@ -2186,17 +2196,17 @@
       <c r="C42" s="46"/>
       <c r="D42" s="10"/>
       <c r="E42" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="16"/>
       <c r="I42" s="9"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
@@ -2205,17 +2215,17 @@
       <c r="C43" s="46"/>
       <c r="D43" s="10"/>
       <c r="E43" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
       <c r="I43" s="9"/>
       <c r="J43" s="20"/>
       <c r="K43" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.35">
@@ -2224,10 +2234,10 @@
       <c r="C44" s="46"/>
       <c r="D44" s="10"/>
       <c r="E44" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>22</v>
@@ -2247,10 +2257,10 @@
       <c r="C45" s="46"/>
       <c r="D45" s="10"/>
       <c r="E45" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>22</v>
@@ -2270,10 +2280,10 @@
       <c r="C46" s="46"/>
       <c r="D46" s="10"/>
       <c r="E46" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>22</v>
@@ -2295,10 +2305,10 @@
       <c r="C47" s="46"/>
       <c r="D47" s="10"/>
       <c r="E47" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>22</v>
@@ -2320,10 +2330,10 @@
       <c r="C48" s="46"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>22</v>
@@ -2345,10 +2355,10 @@
       <c r="C49" s="46"/>
       <c r="D49" s="10"/>
       <c r="E49" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>22</v>
@@ -2370,16 +2380,19 @@
       <c r="C50" s="46"/>
       <c r="D50" s="10"/>
       <c r="E50" s="17" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="16"/>
       <c r="I50" s="9"/>
       <c r="J50" s="20"/>
       <c r="K50" s="21"/>
+      <c r="L50" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="42"/>
@@ -2387,7 +2400,7 @@
       <c r="C51" s="46"/>
       <c r="D51" s="10"/>
       <c r="E51" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="15"/>
@@ -2404,7 +2417,7 @@
       <c r="C52" s="46"/>
       <c r="D52" s="10"/>
       <c r="E52" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="15"/>
@@ -2421,7 +2434,7 @@
       <c r="C53" s="46"/>
       <c r="D53" s="10"/>
       <c r="E53" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="15"/>
@@ -2438,7 +2451,7 @@
       <c r="C54" s="46"/>
       <c r="D54" s="10"/>
       <c r="E54" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="15"/>
@@ -2453,7 +2466,7 @@
       <c r="C55" s="46"/>
       <c r="D55" s="10"/>
       <c r="E55" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="15"/>
@@ -2470,7 +2483,7 @@
       <c r="C56" s="46"/>
       <c r="D56" s="10"/>
       <c r="E56" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="15"/>
@@ -2487,7 +2500,7 @@
       <c r="C57" s="46"/>
       <c r="D57" s="10"/>
       <c r="E57" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="15"/>
@@ -2504,7 +2517,7 @@
       <c r="C58" s="46"/>
       <c r="D58" s="10"/>
       <c r="E58" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="15"/>
@@ -2521,7 +2534,7 @@
       <c r="C59" s="46"/>
       <c r="D59" s="10"/>
       <c r="E59" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="15"/>
@@ -2529,7 +2542,7 @@
       <c r="I59" s="9"/>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2538,7 +2551,7 @@
       <c r="C60" s="46"/>
       <c r="D60" s="10"/>
       <c r="E60" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="15"/>
@@ -2553,7 +2566,7 @@
       <c r="C61" s="46"/>
       <c r="D61" s="10"/>
       <c r="E61" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="15"/>
@@ -2563,10 +2576,10 @@
       <c r="I61" s="9"/>
       <c r="J61" s="20"/>
       <c r="K61" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2575,7 +2588,7 @@
       <c r="C62" s="46"/>
       <c r="D62" s="10"/>
       <c r="E62" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="15"/>
@@ -2592,7 +2605,7 @@
       <c r="C63" s="46"/>
       <c r="D63" s="10"/>
       <c r="E63" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="15" t="s">
@@ -2611,7 +2624,7 @@
       <c r="C64" s="46"/>
       <c r="D64" s="10"/>
       <c r="E64" s="14" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="15"/>
@@ -2626,7 +2639,7 @@
       <c r="C65" s="46"/>
       <c r="D65" s="10"/>
       <c r="E65" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="15"/>
@@ -2641,7 +2654,7 @@
       <c r="C66" s="46"/>
       <c r="D66" s="10"/>
       <c r="E66" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="15"/>
@@ -2658,7 +2671,7 @@
       <c r="C67" s="46"/>
       <c r="D67" s="10"/>
       <c r="E67" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="15"/>
@@ -2673,10 +2686,10 @@
       <c r="C68" s="46"/>
       <c r="D68" s="10"/>
       <c r="E68" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G68" s="15" t="s">
         <v>22</v>
@@ -2694,10 +2707,10 @@
       <c r="C69" s="46"/>
       <c r="D69" s="10"/>
       <c r="E69" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G69" s="15" t="s">
         <v>22</v>
@@ -2715,10 +2728,10 @@
       <c r="C70" s="46"/>
       <c r="D70" s="10"/>
       <c r="E70" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>22</v>
@@ -2736,10 +2749,10 @@
       <c r="C71" s="46"/>
       <c r="D71" s="10"/>
       <c r="E71" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>22</v>
@@ -2757,10 +2770,10 @@
       <c r="C72" s="46"/>
       <c r="D72" s="10"/>
       <c r="E72" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>22</v>
@@ -2778,10 +2791,10 @@
       <c r="C73" s="46"/>
       <c r="D73" s="10"/>
       <c r="E73" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>22</v>
@@ -2790,7 +2803,7 @@
       <c r="I73" s="9"/>
       <c r="J73" s="20"/>
       <c r="K73" s="21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
@@ -2799,10 +2812,10 @@
       <c r="C74" s="46"/>
       <c r="D74" s="10"/>
       <c r="E74" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G74" s="22" t="s">
         <v>25</v>
@@ -2820,10 +2833,10 @@
       <c r="C75" s="46"/>
       <c r="D75" s="10"/>
       <c r="E75" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G75" s="22" t="s">
         <v>25</v>
@@ -2841,10 +2854,10 @@
       <c r="C76" s="46"/>
       <c r="D76" s="10"/>
       <c r="E76" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G76" s="22" t="s">
         <v>25</v>
@@ -2862,10 +2875,10 @@
       <c r="C77" s="46"/>
       <c r="D77" s="10"/>
       <c r="E77" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G77" s="22" t="s">
         <v>25</v>
@@ -2883,10 +2896,10 @@
       <c r="C78" s="46"/>
       <c r="D78" s="10"/>
       <c r="E78" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G78" s="22" t="s">
         <v>25</v>
@@ -2904,10 +2917,10 @@
       <c r="C79" s="46"/>
       <c r="D79" s="10"/>
       <c r="E79" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G79" s="22" t="s">
         <v>25</v>
@@ -2925,10 +2938,10 @@
       <c r="C80" s="46"/>
       <c r="D80" s="10"/>
       <c r="E80" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G80" s="22" t="s">
         <v>25</v>
@@ -2946,10 +2959,10 @@
       <c r="C81" s="46"/>
       <c r="D81" s="10"/>
       <c r="E81" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G81" s="22" t="s">
         <v>25</v>
@@ -2969,10 +2982,10 @@
       <c r="C82" s="46"/>
       <c r="D82" s="10"/>
       <c r="E82" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G82" s="22" t="s">
         <v>25</v>
@@ -2990,10 +3003,10 @@
       <c r="C83" s="46"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G83" s="22" t="s">
         <v>25</v>
@@ -3011,7 +3024,7 @@
       <c r="C84" s="46"/>
       <c r="D84" s="10"/>
       <c r="E84" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="22" t="s">
@@ -3030,7 +3043,7 @@
       <c r="C85" s="46"/>
       <c r="D85" s="10"/>
       <c r="E85" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="22" t="s">
@@ -3049,7 +3062,7 @@
       <c r="C86" s="46"/>
       <c r="D86" s="10"/>
       <c r="E86" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="22" t="s">
@@ -3070,7 +3083,7 @@
       <c r="C87" s="46"/>
       <c r="D87" s="10"/>
       <c r="E87" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="22" t="s">
@@ -3090,10 +3103,10 @@
       <c r="B88" s="44"/>
       <c r="C88" s="46"/>
       <c r="D88" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="22" t="s">
@@ -3114,7 +3127,7 @@
       <c r="C89" s="46"/>
       <c r="D89" s="10"/>
       <c r="E89" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="22" t="s">
@@ -3135,7 +3148,7 @@
       <c r="C90" s="46"/>
       <c r="D90" s="10"/>
       <c r="E90" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="22" t="s">
@@ -3158,7 +3171,7 @@
       <c r="C91" s="46"/>
       <c r="D91" s="23"/>
       <c r="E91" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F91" s="24"/>
       <c r="G91" s="22" t="s">
@@ -3179,7 +3192,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="10"/>
       <c r="E92" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="22" t="s">
@@ -3200,7 +3213,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="10"/>
       <c r="E93" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F93" s="8"/>
       <c r="G93" s="22" t="s">
@@ -3221,7 +3234,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="10"/>
       <c r="E94" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="22" t="s">
@@ -3244,7 +3257,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
       <c r="E95" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="22" t="s">
@@ -3263,7 +3276,7 @@
       <c r="C96" s="25"/>
       <c r="D96" s="9"/>
       <c r="E96" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F96" s="26"/>
       <c r="G96" s="22" t="s">
@@ -3275,7 +3288,7 @@
         <v>43062</v>
       </c>
       <c r="K96" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3284,7 +3297,7 @@
       <c r="C97" s="25"/>
       <c r="D97" s="9"/>
       <c r="E97" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="22" t="s">
@@ -3304,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="29"/>
@@ -3335,7 +3348,7 @@
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D100" s="28"/>
       <c r="E100" s="31"/>
@@ -3352,7 +3365,7 @@
       <c r="D101" s="28"/>
       <c r="E101" s="31"/>
       <c r="F101" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G101" s="28"/>
       <c r="H101" s="28"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9390" tabRatio="271"/>
+    <workbookView windowWidth="19770" windowHeight="9390" tabRatio="271"/>
   </bookViews>
   <sheets>
     <sheet name="工作量评估表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -603,24 +603,18 @@
   <si>
     <t>合计</t>
   </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务不清楚</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发完成</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,17 +666,155 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -696,14 +828,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,8 +860,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -795,26 +1107,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,7 +1416,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -866,9 +1426,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -891,49 +1448,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1222,20 +1799,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="D50" workbookViewId="0">
+      <selection activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="3" max="4" width="13.125" customWidth="1"/>
@@ -1248,2094 +1824,2096 @@
     <col min="12" max="12" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+    <row r="1" ht="21.95" customHeight="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:11">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40">
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="24" hidden="1" spans="1:12">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="14" t="s">
+    <row r="6" s="1" customFormat="1" hidden="1" spans="1:12">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="8" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:11">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" s="1" customFormat="1" hidden="1" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="10" t="s">
+    <row r="9" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="14" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="20">
+      <c r="H10" s="18"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="22">
         <v>43037</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="14" t="s">
+      <c r="K10" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="20">
+      <c r="H11" s="18"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="22">
         <v>43030</v>
       </c>
-      <c r="K11" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="14" t="s">
+      <c r="K11" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="20">
+      <c r="H12" s="18"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="22">
         <v>43030</v>
       </c>
-      <c r="K12" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="14" t="s">
+      <c r="K12" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="20">
+      <c r="I13" s="11"/>
+      <c r="J13" s="22">
         <v>43032</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="17" t="s">
+      <c r="K13" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="24" hidden="1" spans="1:11">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="20">
+      <c r="H14" s="18"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="22">
         <v>43034</v>
       </c>
-      <c r="K14" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="17" t="s">
+      <c r="K14" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="20">
+      <c r="H15" s="18"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="22">
         <v>43030</v>
       </c>
-      <c r="K15" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="17" t="s">
+      <c r="K15" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" hidden="1" spans="1:12">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="20">
+      <c r="H16" s="18"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="22">
         <v>43037</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="23" t="s">
         <v>23</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="40"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="17" t="s">
+    <row r="17" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="20">
+      <c r="H17" s="18"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="22">
         <v>43034</v>
       </c>
-      <c r="K17" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="40"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="10" t="s">
+      <c r="K17" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="24" hidden="1" spans="1:11">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="40"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="14" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="14" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:11">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="21" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A21" s="40"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="14" t="s">
+    <row r="21" s="1" customFormat="1" ht="24" spans="1:11">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="14" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="24" spans="1:11">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="40"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="14" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16" t="s">
+      <c r="G23" s="17"/>
+      <c r="H23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="40"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="14" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="14" t="s">
+      <c r="I24" s="11"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="40"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="14" t="s">
+      <c r="I25" s="11"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="15" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="14" t="s">
+      <c r="I26" s="11"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:11">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="21" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="14" t="s">
+    <row r="28" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="40"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="14" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:12">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="21" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23" t="s">
         <v>58</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="14" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:12">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="21" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23" t="s">
         <v>58</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="40"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="14" t="s">
+    <row r="31" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="14" t="s">
+      <c r="I31" s="11"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:11">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="16" t="s">
+      <c r="F32" s="10"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="14" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16" t="s">
+      <c r="F33" s="10"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="18" t="s">
+      <c r="I33" s="11"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16" t="s">
+      <c r="F34" s="10"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="22">
+      <c r="I34" s="11"/>
+      <c r="J34" s="24">
         <v>43069</v>
       </c>
-      <c r="K34" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="18" t="s">
+      <c r="K34" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="22"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="40"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="18" t="s">
+    <row r="36" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="22"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="40"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="18" t="s">
+    <row r="37" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="40"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="18" t="s">
+      <c r="F37" s="10"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="40"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="18" t="s">
+      <c r="F38" s="10"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" hidden="1" spans="1:12">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16" t="s">
+      <c r="F39" s="10"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="21" t="s">
+      <c r="I39" s="11"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="23" t="s">
         <v>23</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="40"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="14" t="s">
+    <row r="40" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="16" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="17" t="s">
+      <c r="I40" s="11"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="40"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="17" t="s">
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="24" hidden="1" spans="1:11">
+      <c r="A42" s="11"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="40"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="17" t="s">
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="24" hidden="1" spans="1:11">
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="17" t="s">
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="36" hidden="1" spans="1:11">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="20">
+      <c r="H44" s="18"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="22">
         <v>43037</v>
       </c>
-      <c r="K44" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="40"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="17" t="s">
+      <c r="K44" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="G45" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="20">
+      <c r="H45" s="18"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="22">
         <v>43038</v>
       </c>
-      <c r="K45" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="40"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="17" t="s">
+      <c r="K45" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="20">
+      <c r="I46" s="11"/>
+      <c r="J46" s="22">
         <v>43039</v>
       </c>
-      <c r="K46" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="40"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="17" t="s">
+      <c r="K46" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="24" hidden="1" spans="1:11">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="G47" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="20">
+      <c r="I47" s="11"/>
+      <c r="J47" s="22">
         <v>43039</v>
       </c>
-      <c r="K47" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="40"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="17" t="s">
+      <c r="K47" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="48" hidden="1" spans="1:11">
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="15" t="s">
+      <c r="G48" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="9"/>
-      <c r="J48" s="20">
+      <c r="I48" s="11"/>
+      <c r="J48" s="22">
         <v>43041</v>
       </c>
-      <c r="K48" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="40"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="17" t="s">
+      <c r="K48" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="24" hidden="1" spans="1:11">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="20">
+      <c r="I49" s="11"/>
+      <c r="J49" s="22">
         <v>43041</v>
       </c>
-      <c r="K49" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A50" s="40"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="17" t="s">
+      <c r="K49" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="24" spans="1:12">
+      <c r="A50" s="11"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="21" t="s">
-        <v>174</v>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="40"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="14" t="s">
+    <row r="51" s="1" customFormat="1" spans="1:12">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16" t="s">
+      <c r="F51" s="10"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="21" t="s">
-        <v>174</v>
+      <c r="I51" s="11"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="40"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:11">
+      <c r="A52" s="11"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16" t="s">
+      <c r="F52" s="10"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="40"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="14" t="s">
+      <c r="I52" s="11"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:11">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="16" t="s">
+      <c r="F53" s="10"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="9"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="40"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="14" t="s">
+      <c r="I53" s="11"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="23"/>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:11">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="40"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="14" t="s">
+      <c r="F54" s="10"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:11">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="16" t="s">
+      <c r="F55" s="10"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="9"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="40"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="14" t="s">
+      <c r="I55" s="11"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="23"/>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:11">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="16" t="s">
+      <c r="F56" s="10"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I56" s="9"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="40"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="14" t="s">
+      <c r="I56" s="11"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:11">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="16" t="s">
+      <c r="F57" s="10"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="9"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="40"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="14" t="s">
+      <c r="I57" s="11"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:11">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="16" t="s">
+      <c r="F58" s="10"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="9"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="40"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="14" t="s">
+      <c r="I58" s="11"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:11">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="40"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="14" t="s">
+      <c r="F59" s="10"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:11">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="40"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="14" t="s">
+      <c r="F60" s="10"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="23"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:12">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="16" t="s">
+      <c r="F61" s="10"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="21" t="s">
+      <c r="I61" s="11"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="23" t="s">
         <v>23</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="40"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="14" t="s">
+    <row r="62" s="1" customFormat="1" spans="1:11">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="16" t="s">
+      <c r="F62" s="10"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="40"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="14" t="s">
+      <c r="I62" s="11"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="15" t="s">
+      <c r="F63" s="10"/>
+      <c r="G63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="40"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="14" t="s">
+      <c r="H63" s="18"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:11">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="40"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="14" t="s">
+      <c r="F64" s="10"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="23"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:11">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="40"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="14" t="s">
+      <c r="F65" s="10"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="23"/>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:11">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="16" t="s">
+      <c r="F66" s="10"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="9"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="21"/>
-    </row>
-    <row r="67" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="40"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="14" t="s">
+      <c r="I66" s="11"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="23"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
+      <c r="A67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="40"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="14" t="s">
+      <c r="F67" s="10"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="36" hidden="1" spans="1:11">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H68" s="16"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="40"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="14" t="s">
+      <c r="H68" s="18"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="24" hidden="1" spans="1:11">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H69" s="16"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="40"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="14" t="s">
+      <c r="H69" s="18"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="24" hidden="1" spans="1:11">
+      <c r="A70" s="11"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="40"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="14" t="s">
+      <c r="H70" s="18"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="40"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="14" t="s">
+      <c r="H71" s="18"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A72" s="11"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H72" s="16"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="40"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="14" t="s">
+      <c r="H72" s="18"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A73" s="11"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="16"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="21" t="s">
+      <c r="H73" s="18"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="40"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="9" t="s">
+    <row r="74" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A74" s="11"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="F74" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G74" s="24" t="s">
+      <c r="G74" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="16"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="40"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="9" t="s">
+      <c r="H74" s="18"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A75" s="11"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F75" s="10" t="s">
+      <c r="F75" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G75" s="24" t="s">
+      <c r="G75" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="16"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="40"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="9" t="s">
+      <c r="H75" s="18"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A76" s="11"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G76" s="24" t="s">
+      <c r="G76" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="16"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="40"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="9" t="s">
+      <c r="H76" s="18"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A77" s="11"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F77" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G77" s="24" t="s">
+      <c r="G77" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="40"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="9" t="s">
+      <c r="H77" s="18"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A78" s="11"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G78" s="24" t="s">
+      <c r="G78" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="16"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="40"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="9" t="s">
+      <c r="H78" s="18"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="17.1" hidden="1" customHeight="1" spans="1:11">
+      <c r="A79" s="11"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="10" t="s">
+      <c r="F79" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G79" s="24" t="s">
+      <c r="G79" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="16"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="40"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="9" t="s">
+      <c r="H79" s="18"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A80" s="11"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F80" s="10" t="s">
+      <c r="F80" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G80" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="16"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="40"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="9" t="s">
+      <c r="H80" s="18"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A81" s="11"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F81" s="10" t="s">
+      <c r="F81" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G81" s="24" t="s">
+      <c r="G81" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I81" s="9"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="40"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="9" t="s">
+      <c r="I81" s="11"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A82" s="11"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="G82" s="24" t="s">
+      <c r="G82" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="40"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="9" t="s">
+      <c r="H82" s="18"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A83" s="11"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H83" s="16"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="40"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="9" t="s">
+      <c r="H83" s="18"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A84" s="11"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="24" t="s">
+      <c r="F84" s="10"/>
+      <c r="G84" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H84" s="16"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="20"/>
-      <c r="K84" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="40"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="9" t="s">
+      <c r="H84" s="18"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A85" s="11"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="24" t="s">
+      <c r="F85" s="10"/>
+      <c r="G85" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H85" s="16"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="40"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="9" t="s">
+      <c r="H85" s="18"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="17.1" customHeight="1" spans="1:11">
+      <c r="A86" s="11"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="24" t="s">
+      <c r="F86" s="10"/>
+      <c r="G86" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="16"/>
-      <c r="I86" s="20">
+      <c r="H86" s="18"/>
+      <c r="I86" s="22">
         <v>43061</v>
       </c>
-      <c r="J86" s="20">
+      <c r="J86" s="22">
         <v>43062</v>
       </c>
-      <c r="K86" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="40"/>
-      <c r="B87" s="42"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="9" t="s">
+      <c r="K86" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" spans="1:11">
+      <c r="A87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="24" t="s">
+      <c r="F87" s="10"/>
+      <c r="G87" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="16"/>
-      <c r="I87" s="20">
+      <c r="H87" s="18"/>
+      <c r="I87" s="22">
         <v>43063</v>
       </c>
-      <c r="J87" s="20">
+      <c r="J87" s="22">
         <v>43064</v>
       </c>
-      <c r="K87" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="40"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="10" t="s">
+      <c r="K87" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" spans="1:11">
+      <c r="A88" s="11"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="24" t="s">
+      <c r="F88" s="10"/>
+      <c r="G88" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H88" s="16"/>
-      <c r="I88" s="20">
+      <c r="H88" s="18"/>
+      <c r="I88" s="22">
         <v>43064</v>
       </c>
-      <c r="J88" s="20">
+      <c r="J88" s="22">
         <v>43065</v>
       </c>
-      <c r="K88" s="21"/>
-    </row>
-    <row r="89" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="40"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="9" t="s">
+      <c r="K88" s="23"/>
+    </row>
+    <row r="89" s="1" customFormat="1" spans="1:11">
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="24" t="s">
+      <c r="F89" s="10"/>
+      <c r="G89" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H89" s="16"/>
-      <c r="I89" s="20">
+      <c r="H89" s="18"/>
+      <c r="I89" s="22">
         <v>43065</v>
       </c>
-      <c r="J89" s="20">
+      <c r="J89" s="22">
         <v>43065</v>
       </c>
-      <c r="K89" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="40"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="9" t="s">
+      <c r="K89" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" spans="1:11">
+      <c r="A90" s="11"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="24" t="s">
+      <c r="F90" s="10"/>
+      <c r="G90" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H90" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I90" s="20">
+      <c r="I90" s="22">
         <v>43066</v>
       </c>
-      <c r="J90" s="20">
+      <c r="J90" s="22">
         <v>43066</v>
       </c>
-      <c r="K90" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="41"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="6" t="s">
+      <c r="K90" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" spans="1:11">
+      <c r="A91" s="8"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F91" s="26"/>
-      <c r="G91" s="24" t="s">
+      <c r="F91" s="27"/>
+      <c r="G91" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H91" s="13"/>
-      <c r="I91" s="20">
+      <c r="H91" s="15"/>
+      <c r="I91" s="22">
         <v>43067</v>
       </c>
-      <c r="J91" s="20">
+      <c r="J91" s="22">
         <v>43068</v>
       </c>
-      <c r="K91" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="9" t="s">
+      <c r="K91" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" spans="1:11">
+      <c r="A92" s="11"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="24" t="s">
+      <c r="F92" s="10"/>
+      <c r="G92" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H92" s="9"/>
-      <c r="I92" s="20">
+      <c r="H92" s="11"/>
+      <c r="I92" s="22">
         <v>43069</v>
       </c>
-      <c r="J92" s="20">
+      <c r="J92" s="22">
         <v>43069</v>
       </c>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="9"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="9" t="s">
+      <c r="K92" s="23"/>
+    </row>
+    <row r="93" s="1" customFormat="1" spans="1:11">
+      <c r="A93" s="11"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="24" t="s">
+      <c r="F93" s="10"/>
+      <c r="G93" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H93" s="9"/>
-      <c r="I93" s="20">
+      <c r="H93" s="11"/>
+      <c r="I93" s="22">
         <v>43070</v>
       </c>
-      <c r="J93" s="20">
+      <c r="J93" s="22">
         <v>43071</v>
       </c>
-      <c r="K93" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="9" t="s">
+      <c r="K93" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" spans="1:11">
+      <c r="A94" s="11"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="24" t="s">
+      <c r="F94" s="10"/>
+      <c r="G94" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H94" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="I94" s="20">
+      <c r="I94" s="22">
         <v>43072</v>
       </c>
-      <c r="J94" s="20">
+      <c r="J94" s="22">
         <v>43073</v>
       </c>
-      <c r="K94" s="21"/>
-    </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="9" t="s">
+      <c r="K94" s="23"/>
+    </row>
+    <row r="95" s="1" customFormat="1" hidden="1" spans="1:11">
+      <c r="A95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="24" t="s">
+      <c r="F95" s="10"/>
+      <c r="G95" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H95" s="16"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-      <c r="K95" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="12" t="s">
+      <c r="H95" s="18"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" spans="1:11">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F96" s="28"/>
-      <c r="G96" s="24" t="s">
+      <c r="F96" s="29"/>
+      <c r="G96" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="20">
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="22">
         <v>43062</v>
       </c>
-      <c r="K96" s="21" t="s">
+      <c r="K96" s="23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="12" t="s">
+    <row r="97" s="1" customFormat="1" spans="1:11">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F97" s="28"/>
-      <c r="G97" s="24" t="s">
+      <c r="F97" s="29"/>
+      <c r="G97" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H97" s="9"/>
-      <c r="I97" s="20">
+      <c r="H97" s="11"/>
+      <c r="I97" s="22">
         <v>43074</v>
       </c>
-      <c r="J97" s="20">
+      <c r="J97" s="22">
         <v>43074</v>
       </c>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="9">
+      <c r="K97" s="23"/>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="11">
         <v>3</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D98" s="30"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="29"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="9">
+      <c r="D98" s="31"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="31"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="31"/>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="11">
         <v>5</v>
       </c>
-      <c r="B100" s="9"/>
-      <c r="C100" s="27" t="s">
+      <c r="B100" s="11"/>
+      <c r="C100" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="D100" s="30"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="30"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="30"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="32" t="s">
+      <c r="D100" s="31"/>
+      <c r="E100" s="34"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="31"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="30"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E102" s="35"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E103" s="35"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" s="36"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="36"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:L98">
     <filterColumn colId="10">
-      <filters>
-        <filter val="未完成"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="未完成"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="5">
@@ -3345,8 +3923,8 @@
     <mergeCell ref="B5:B91"/>
     <mergeCell ref="C5:C91"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="180">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -613,6 +613,18 @@
   </si>
   <si>
     <t>开发完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统级和项目级均完成</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1228,11 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q14:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1339,7 +1350,7 @@
       <c r="J4" s="20"/>
       <c r="K4" s="21"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A5" s="40">
         <v>2</v>
       </c>
@@ -1369,7 +1380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
       <c r="B6" s="42"/>
       <c r="C6" s="44"/>
@@ -1410,7 +1421,7 @@
       <c r="J7" s="20"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="42"/>
       <c r="C8" s="44"/>
@@ -1434,7 +1445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
       <c r="B9" s="42"/>
       <c r="C9" s="44"/>
@@ -1455,7 +1466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="42"/>
       <c r="C10" s="44"/>
@@ -1478,7 +1489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="42"/>
       <c r="C11" s="44"/>
@@ -1501,7 +1512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="42"/>
       <c r="C12" s="44"/>
@@ -1524,7 +1535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="42"/>
       <c r="C13" s="44"/>
@@ -1549,7 +1560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
       <c r="B14" s="42"/>
       <c r="C14" s="44"/>
@@ -1572,7 +1583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
       <c r="B15" s="42"/>
       <c r="C15" s="44"/>
@@ -1595,7 +1606,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="40"/>
       <c r="B16" s="42"/>
       <c r="C16" s="44"/>
@@ -1621,7 +1632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="40"/>
       <c r="B17" s="42"/>
       <c r="C17" s="44"/>
@@ -1644,7 +1655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
       <c r="B18" s="42"/>
       <c r="C18" s="44"/>
@@ -1665,7 +1676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40"/>
       <c r="B19" s="42"/>
       <c r="C19" s="44"/>
@@ -1743,7 +1754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="40"/>
       <c r="B23" s="42"/>
       <c r="C23" s="44"/>
@@ -1764,7 +1775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="40"/>
       <c r="B24" s="42"/>
       <c r="C24" s="44"/>
@@ -1783,7 +1794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="40"/>
       <c r="B25" s="42"/>
       <c r="C25" s="44"/>
@@ -1802,7 +1813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="40"/>
       <c r="B26" s="42"/>
       <c r="C26" s="44"/>
@@ -1842,7 +1853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="40"/>
       <c r="B28" s="42"/>
       <c r="C28" s="44"/>
@@ -1903,7 +1914,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="40"/>
       <c r="B31" s="42"/>
       <c r="C31" s="44"/>
@@ -1941,7 +1952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="42"/>
       <c r="C33" s="44"/>
@@ -1960,7 +1971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="40"/>
       <c r="B34" s="42"/>
       <c r="C34" s="44"/>
@@ -1981,7 +1992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="40"/>
       <c r="B35" s="42"/>
       <c r="C35" s="44"/>
@@ -2000,7 +2011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
       <c r="B36" s="42"/>
       <c r="C36" s="44"/>
@@ -2019,7 +2030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="42"/>
       <c r="C37" s="44"/>
@@ -2036,7 +2047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="42"/>
       <c r="C38" s="44"/>
@@ -2053,7 +2064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40"/>
       <c r="B39" s="42"/>
       <c r="C39" s="44"/>
@@ -2075,7 +2086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="40"/>
       <c r="B40" s="42"/>
       <c r="C40" s="44"/>
@@ -2094,7 +2105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="40"/>
       <c r="B41" s="42"/>
       <c r="C41" s="44"/>
@@ -2113,7 +2124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A42" s="40"/>
       <c r="B42" s="42"/>
       <c r="C42" s="44"/>
@@ -2132,7 +2143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A43" s="40"/>
       <c r="B43" s="42"/>
       <c r="C43" s="44"/>
@@ -2151,7 +2162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A44" s="40"/>
       <c r="B44" s="42"/>
       <c r="C44" s="44"/>
@@ -2174,7 +2185,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="40"/>
       <c r="B45" s="42"/>
       <c r="C45" s="44"/>
@@ -2197,7 +2208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="40"/>
       <c r="B46" s="42"/>
       <c r="C46" s="44"/>
@@ -2222,7 +2233,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A47" s="40"/>
       <c r="B47" s="42"/>
       <c r="C47" s="44"/>
@@ -2247,7 +2258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="1" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
       <c r="A48" s="40"/>
       <c r="B48" s="42"/>
       <c r="C48" s="44"/>
@@ -2272,7 +2283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A49" s="40"/>
       <c r="B49" s="42"/>
       <c r="C49" s="44"/>
@@ -2390,7 +2401,12 @@
       <c r="H54" s="16"/>
       <c r="I54" s="9"/>
       <c r="J54" s="20"/>
-      <c r="K54" s="21"/>
+      <c r="K54" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="55" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="40"/>
@@ -2407,7 +2423,12 @@
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="20"/>
-      <c r="K55" s="21"/>
+      <c r="K55" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="56" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="40"/>
@@ -2535,9 +2556,11 @@
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="20"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:12" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K62" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="40"/>
       <c r="B63" s="42"/>
       <c r="C63" s="44"/>
@@ -2620,7 +2643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="1" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A68" s="40"/>
       <c r="B68" s="42"/>
       <c r="C68" s="44"/>
@@ -2641,7 +2664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A69" s="40"/>
       <c r="B69" s="42"/>
       <c r="C69" s="44"/>
@@ -2662,7 +2685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="1" customFormat="1" ht="24" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
       <c r="A70" s="40"/>
       <c r="B70" s="42"/>
       <c r="C70" s="44"/>
@@ -2683,7 +2706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="40"/>
       <c r="B71" s="42"/>
       <c r="C71" s="44"/>
@@ -2704,7 +2727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="40"/>
       <c r="B72" s="42"/>
       <c r="C72" s="44"/>
@@ -2725,7 +2748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="40"/>
       <c r="B73" s="42"/>
       <c r="C73" s="44"/>
@@ -2746,7 +2769,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="40"/>
       <c r="B74" s="42"/>
       <c r="C74" s="44"/>
@@ -2767,7 +2790,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="40"/>
       <c r="B75" s="42"/>
       <c r="C75" s="44"/>
@@ -2788,7 +2811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="40"/>
       <c r="B76" s="42"/>
       <c r="C76" s="44"/>
@@ -2809,7 +2832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="40"/>
       <c r="B77" s="42"/>
       <c r="C77" s="44"/>
@@ -2830,7 +2853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="40"/>
       <c r="B78" s="42"/>
       <c r="C78" s="44"/>
@@ -2851,7 +2874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="40"/>
       <c r="B79" s="42"/>
       <c r="C79" s="44"/>
@@ -2872,7 +2895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40"/>
       <c r="B80" s="42"/>
       <c r="C80" s="44"/>
@@ -2893,7 +2916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="40"/>
       <c r="B81" s="42"/>
       <c r="C81" s="44"/>
@@ -2916,7 +2939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="40"/>
       <c r="B82" s="42"/>
       <c r="C82" s="44"/>
@@ -2937,7 +2960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="40"/>
       <c r="B83" s="42"/>
       <c r="C83" s="44"/>
@@ -2958,7 +2981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="40"/>
       <c r="B84" s="42"/>
       <c r="C84" s="44"/>
@@ -2977,7 +3000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="40"/>
       <c r="B85" s="42"/>
       <c r="C85" s="44"/>
@@ -3203,7 +3226,7 @@
       </c>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="9"/>
@@ -3222,7 +3245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="27"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
@@ -3331,13 +3354,7 @@
       <c r="E103" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L98">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="未完成"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:L98"/>
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>

--- a/doc/需求清单及工作量（新修）.xlsx
+++ b/doc/需求清单及工作量（新修）.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="9390" tabRatio="271"/>
   </bookViews>
@@ -10,14 +10,14 @@
     <sheet name="工作量评估表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作量评估表!$A$3:$M$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作量评估表!$A$3:$P$3</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="198">
   <si>
     <t>需求清单及工作量评估</t>
   </si>
@@ -113,12 +113,6 @@
   </si>
   <si>
     <t>登录主页可配置，差权限可看范围</t>
-  </si>
-  <si>
-    <t>基础数据</t>
-  </si>
-  <si>
-    <t>物料</t>
   </si>
   <si>
     <t>方案库</t>
@@ -670,6 +664,38 @@
   </si>
   <si>
     <t>如果采取excel文档中整理的项目角色工作界面那个方式配置的话，涉及到系统权限架构的变化，影响范围较大，其中必定会涉及用户自定义的菜单设置。此开发周期较长，预计工作量30人/天（全日志）；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -934,13 +960,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -983,6 +1003,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,58 +1081,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1077,7 +1103,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1151,6 +1177,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1185,6 +1212,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1361,10 +1389,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1377,43 +1407,49 @@
     <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="12" width="11.125" customWidth="1"/>
-    <col min="13" max="13" width="55.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="55.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:16" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
       <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1433,7 +1469,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>8</v>
@@ -1447,14 +1483,23 @@
       <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1472,20 +1517,26 @@
         <v>17</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
-      <c r="A5" s="41">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="24"/>
+    </row>
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A5" s="57">
         <v>2</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="42" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="58" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1503,18 +1554,23 @@
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="P5" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="45"/>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="10"/>
       <c r="E6" s="14" t="s">
         <v>25</v>
@@ -1522,120 +1578,147 @@
       <c r="F6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>175</v>
+      <c r="G6" s="62" t="s">
+        <v>173</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="P6" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="41"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="45"/>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="57"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="10"/>
       <c r="E7" s="14"/>
       <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="15" t="s">
         <v>27</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A8" s="41"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="45"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A8" s="57"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="10"/>
       <c r="E8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>177</v>
+      <c r="F8" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>175</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="K8" s="19"/>
+      <c r="L8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="63" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54" t="s">
+    <row r="9" spans="1:16" s="49" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="P9" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="M9" s="62" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="10" t="s">
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="49" t="s">
-        <v>179</v>
+      <c r="G10" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="45"/>
+      <c r="K10" s="19">
+        <v>43037</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="57"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="10"/>
       <c r="E11" s="14" t="s">
         <v>34</v>
@@ -1643,105 +1726,121 @@
       <c r="F11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>178</v>
+      <c r="G11" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="20">
-        <v>43037</v>
-      </c>
-      <c r="L11" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="45"/>
+      <c r="K11" s="19">
+        <v>43030</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="24"/>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="57"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="10"/>
       <c r="E12" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>179</v>
+        <v>35</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <v>43030</v>
       </c>
-      <c r="L12" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="45"/>
+      <c r="L12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="24"/>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="57"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="10"/>
       <c r="E13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>179</v>
+        <v>35</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="H13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" s="9"/>
-      <c r="K13" s="20">
-        <v>43030</v>
-      </c>
-      <c r="L13" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="45"/>
+      <c r="K13" s="19">
+        <v>43032</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="24"/>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="57"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="I14" s="16"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="20">
-        <v>43032</v>
-      </c>
-      <c r="L14" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="45"/>
+      <c r="K14" s="19">
+        <v>43034</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="24"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A15" s="57"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="10"/>
       <c r="E15" s="17" t="s">
         <v>41</v>
@@ -1750,24 +1849,28 @@
         <v>42</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H15" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="20">
-        <v>43034</v>
-      </c>
-      <c r="L15" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="45"/>
+      <c r="K15" s="19">
+        <v>43030</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="24"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A16" s="57"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="10"/>
       <c r="E16" s="17" t="s">
         <v>43</v>
@@ -1776,620 +1879,740 @@
         <v>44</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H16" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="20">
-        <v>43030</v>
-      </c>
-      <c r="L16" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="41"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="45"/>
+      <c r="K16" s="19">
+        <v>43037</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A17" s="57"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="10"/>
       <c r="E17" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H17" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="20">
-        <v>43037</v>
-      </c>
-      <c r="L17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="41"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="17" t="s">
+      <c r="K17" s="19">
+        <v>43034</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="24"/>
+    </row>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="57"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="24"/>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A19" s="57"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="E19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="20">
-        <v>43034</v>
-      </c>
-      <c r="L18" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A19" s="41"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="51" t="s">
+      <c r="F19" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>179</v>
+      <c r="G19" s="15" t="s">
+        <v>176</v>
       </c>
       <c r="H19" s="15"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A20" s="41"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="10" t="s">
+      <c r="J19" s="9"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="24"/>
+    </row>
+    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="57"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="F20" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="48" t="s">
-        <v>182</v>
-      </c>
       <c r="G20" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="15"/>
+        <v>176</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="41"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="45"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="24"/>
+    </row>
+    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="57"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="10"/>
       <c r="E21" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>54</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="H21" s="15"/>
       <c r="I21" s="16"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="41"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="45"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="24"/>
+    </row>
+    <row r="22" spans="1:16" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A22" s="57"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="10"/>
       <c r="E22" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="16"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A23" s="41"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="45"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="24"/>
+    </row>
+    <row r="23" spans="1:16" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A23" s="57"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="10"/>
       <c r="E23" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="16"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A24" s="41"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="45"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="57"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="10"/>
       <c r="E24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="G24" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
+      <c r="I24" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J24" s="9"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="41"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="45"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="24"/>
+    </row>
+    <row r="25" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="57"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="10"/>
       <c r="E25" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J25" s="9"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="41"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="45"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="24"/>
+    </row>
+    <row r="26" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="57"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="10"/>
       <c r="E26" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="41"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="45"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="24"/>
+    </row>
+    <row r="27" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="57"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="10"/>
       <c r="E27" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="15"/>
+        <v>176</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>27</v>
+      </c>
       <c r="I27" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="45"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P27" s="24"/>
+    </row>
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="57"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="10"/>
       <c r="E28" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="I28" s="16"/>
       <c r="J28" s="9"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="41"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="45"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="24"/>
+    </row>
+    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="57"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="10"/>
       <c r="E29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="8"/>
       <c r="G29" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" s="16"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="41"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="45"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O29" s="19"/>
+      <c r="P29" s="24"/>
+    </row>
+    <row r="30" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="57"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="10"/>
       <c r="E30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>54</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="H30" s="15"/>
       <c r="I30" s="16"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="41"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="45"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="57"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="10"/>
       <c r="E31" s="14" t="s">
         <v>68</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="16"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="41"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="45"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="57"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="10"/>
       <c r="E32" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
+      <c r="I32" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J32" s="9"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="41"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="45"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="57"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="10"/>
       <c r="E33" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J33" s="9"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="41"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="45"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="57"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="10"/>
       <c r="E34" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J34" s="9"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="41"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="45"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="35" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="57"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="14" t="s">
-        <v>73</v>
+      <c r="E35" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J35" s="9"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="41"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="45"/>
+      <c r="K35" s="20">
+        <v>43069</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="24"/>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="57"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="10"/>
       <c r="E36" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J36" s="9"/>
-      <c r="K36" s="22">
-        <v>43069</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="41"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="45"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O36" s="19"/>
+      <c r="P36" s="24"/>
+    </row>
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="10"/>
       <c r="E37" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J37" s="9"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="41"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="45"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="O37" s="19"/>
+      <c r="P37" s="24"/>
+    </row>
+    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="57"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="10"/>
-      <c r="E38" s="18" t="s">
-        <v>76</v>
+      <c r="E38" s="39" t="s">
+        <v>178</v>
       </c>
       <c r="F38" s="8"/>
       <c r="G38" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H38" s="15"/>
-      <c r="I38" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="I38" s="16"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="41"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="45"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="24"/>
+    </row>
+    <row r="39" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="57"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="10"/>
-      <c r="E39" s="50" t="s">
-        <v>180</v>
+      <c r="E39" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H39" s="15"/>
       <c r="I39" s="16"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="41"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="45"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="24"/>
+    </row>
+    <row r="40" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="57"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="61"/>
       <c r="D40" s="10"/>
       <c r="E40" s="18" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H40" s="15"/>
-      <c r="I40" s="16"/>
+      <c r="I40" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J40" s="9"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="41"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="45"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="57"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="61"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="14" t="s">
         <v>77</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H41" s="15"/>
       <c r="I41" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J41" s="9"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="1" t="s">
+      <c r="K41" s="20"/>
+      <c r="L41" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="24"/>
+    </row>
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A42" s="57"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="17" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="41"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="14" t="s">
+      <c r="F42" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F42" s="8"/>
       <c r="G42" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H42" s="15"/>
-      <c r="I42" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="I42" s="16"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="41"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="45"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="24"/>
+    </row>
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A43" s="57"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="61"/>
       <c r="D43" s="10"/>
       <c r="E43" s="17" t="s">
         <v>80</v>
@@ -2398,20 +2621,26 @@
         <v>81</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H43" s="15"/>
       <c r="I43" s="16"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A44" s="41"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="45"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O43" s="19"/>
+      <c r="P43" s="24"/>
+    </row>
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A44" s="57"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="61"/>
       <c r="D44" s="10"/>
       <c r="E44" s="17" t="s">
         <v>82</v>
@@ -2420,20 +2649,24 @@
         <v>83</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="16"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A45" s="41"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="45"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="24"/>
+    </row>
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+      <c r="A45" s="57"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="10"/>
       <c r="E45" s="17" t="s">
         <v>84</v>
@@ -2442,20 +2675,28 @@
         <v>85</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H45" s="15"/>
+        <v>176</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="I45" s="16"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A46" s="41"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="45"/>
+      <c r="K45" s="19">
+        <v>43037</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="24"/>
+    </row>
+    <row r="46" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="57"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="10"/>
       <c r="E46" s="17" t="s">
         <v>86</v>
@@ -2464,24 +2705,28 @@
         <v>87</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I46" s="16"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="20">
-        <v>43037</v>
-      </c>
-      <c r="L46" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="41"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="45"/>
+      <c r="K46" s="19">
+        <v>43038</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="24"/>
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A47" s="57"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="61"/>
       <c r="D47" s="10"/>
       <c r="E47" s="17" t="s">
         <v>88</v>
@@ -2490,24 +2735,30 @@
         <v>89</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="16"/>
+      <c r="I47" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J47" s="9"/>
-      <c r="K47" s="20">
-        <v>43038</v>
-      </c>
-      <c r="L47" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="41"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="45"/>
+      <c r="K47" s="19">
+        <v>43039</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="24"/>
+    </row>
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A48" s="57"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="10"/>
       <c r="E48" s="17" t="s">
         <v>90</v>
@@ -2516,26 +2767,30 @@
         <v>91</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H48" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J48" s="9"/>
-      <c r="K48" s="20">
+      <c r="K48" s="19">
         <v>43039</v>
       </c>
-      <c r="L48" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A49" s="41"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="45"/>
+      <c r="L48" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="24"/>
+    </row>
+    <row r="49" spans="1:16" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+      <c r="A49" s="57"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="61"/>
       <c r="D49" s="10"/>
       <c r="E49" s="17" t="s">
         <v>92</v>
@@ -2544,26 +2799,30 @@
         <v>93</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H49" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J49" s="9"/>
-      <c r="K49" s="20">
-        <v>43039</v>
-      </c>
-      <c r="L49" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
-      <c r="A50" s="41"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="45"/>
+      <c r="K49" s="19">
+        <v>43041</v>
+      </c>
+      <c r="L49" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="24"/>
+    </row>
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A50" s="57"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="61"/>
       <c r="D50" s="10"/>
       <c r="E50" s="17" t="s">
         <v>94</v>
@@ -2572,26 +2831,30 @@
         <v>95</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H50" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="20">
+      <c r="K50" s="19">
         <v>43041</v>
       </c>
-      <c r="L50" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A51" s="41"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="45"/>
+      <c r="L50" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="24"/>
+    </row>
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A51" s="57"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="10"/>
       <c r="E51" s="17" t="s">
         <v>96</v>
@@ -2600,415 +2863,492 @@
         <v>97</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="16"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="20">
-        <v>43041</v>
-      </c>
-      <c r="L51" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A52" s="41"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="45"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="57"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="61"/>
       <c r="D52" s="10"/>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="8" t="s">
-        <v>99</v>
-      </c>
+      <c r="F52" s="8"/>
       <c r="G52" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H52" s="15"/>
-      <c r="I52" s="16"/>
+      <c r="I52" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J52" s="9"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="41"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="45"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="57"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="61"/>
       <c r="D53" s="10"/>
       <c r="E53" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H53" s="15"/>
       <c r="I53" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J53" s="9"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="41"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="45"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="24"/>
+    </row>
+    <row r="54" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="57"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="10"/>
       <c r="E54" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J54" s="9"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="41"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="45"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="24"/>
+    </row>
+    <row r="55" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="57"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="10"/>
       <c r="E55" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H55" s="15"/>
-      <c r="I55" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="I55" s="16"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="21"/>
-    </row>
-    <row r="56" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="41"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="45"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="57"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="10"/>
       <c r="E56" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H56" s="15"/>
-      <c r="I56" s="16"/>
+      <c r="I56" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J56" s="9"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="41"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="45"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="57"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="10"/>
       <c r="E57" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H57" s="15"/>
       <c r="I57" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J57" s="9"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="41"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="45"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="24"/>
+    </row>
+    <row r="58" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="57"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="61"/>
       <c r="D58" s="10"/>
       <c r="E58" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F58" s="8"/>
       <c r="G58" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H58" s="15"/>
       <c r="I58" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J58" s="9"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="41"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="45"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O58" s="19"/>
+      <c r="P58" s="24"/>
+    </row>
+    <row r="59" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="57"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="61"/>
       <c r="D59" s="10"/>
       <c r="E59" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H59" s="15"/>
       <c r="I59" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J59" s="9"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="41"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="45"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O59" s="19"/>
+      <c r="P59" s="24"/>
+    </row>
+    <row r="60" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="57"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="10"/>
       <c r="E60" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H60" s="15"/>
-      <c r="I60" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="I60" s="16"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="41"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="45"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="O60" s="19"/>
+      <c r="P60" s="24"/>
+    </row>
+    <row r="61" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="57"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="10"/>
       <c r="E61" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H61" s="15"/>
       <c r="I61" s="16"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="41"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="45"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="24"/>
+    </row>
+    <row r="62" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="57"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="10"/>
       <c r="E62" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H62" s="15"/>
-      <c r="I62" s="16"/>
+      <c r="I62" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J62" s="9"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="21"/>
-    </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="41"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="45"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="57"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="10"/>
       <c r="E63" s="14" t="s">
         <v>110</v>
       </c>
       <c r="F63" s="8"/>
       <c r="G63" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H63" s="15"/>
       <c r="I63" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J63" s="9"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="41"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="45"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="24"/>
+    </row>
+    <row r="64" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="57"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="61"/>
       <c r="D64" s="10"/>
       <c r="E64" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" s="16"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="41"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="45"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="24"/>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="57"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="61"/>
       <c r="D65" s="10"/>
       <c r="E65" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F65" s="8"/>
       <c r="G65" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>27</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="H65" s="15"/>
       <c r="I65" s="16"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="41"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="45"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="24"/>
+    </row>
+    <row r="66" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="57"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="61"/>
       <c r="D66" s="10"/>
       <c r="E66" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F66" s="8"/>
       <c r="G66" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="16"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="21"/>
-    </row>
-    <row r="67" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="41"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="45"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="24"/>
+    </row>
+    <row r="67" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="57"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="10"/>
       <c r="E67" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F67" s="8"/>
       <c r="G67" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
+      <c r="I67" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J67" s="9"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="21"/>
-    </row>
-    <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="41"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="45"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="24"/>
+    </row>
+    <row r="68" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="57"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="61"/>
       <c r="D68" s="10"/>
       <c r="E68" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" s="8"/>
       <c r="G68" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H68" s="15"/>
-      <c r="I68" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="I68" s="16"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="21"/>
-    </row>
-    <row r="69" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="41"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="45"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="24"/>
+    </row>
+    <row r="69" spans="1:16" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.35">
+      <c r="A69" s="57"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="61"/>
       <c r="D69" s="10"/>
       <c r="E69" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H69" s="15"/>
+      <c r="G69" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="I69" s="16"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
-      <c r="A70" s="41"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="45"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="24"/>
+    </row>
+    <row r="70" spans="1:16" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A70" s="57"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="61"/>
       <c r="D70" s="10"/>
       <c r="E70" s="14" t="s">
         <v>118</v>
@@ -3016,23 +3356,27 @@
       <c r="F70" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G70" s="49" t="s">
-        <v>184</v>
+      <c r="G70" s="38" t="s">
+        <v>183</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I70" s="16"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A71" s="41"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="45"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="24"/>
+    </row>
+    <row r="71" spans="1:16" s="1" customFormat="1" ht="36" x14ac:dyDescent="0.35">
+      <c r="A71" s="57"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="61"/>
       <c r="D71" s="10"/>
       <c r="E71" s="14" t="s">
         <v>120</v>
@@ -3040,23 +3384,27 @@
       <c r="F71" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G71" s="49" t="s">
-        <v>185</v>
+      <c r="G71" s="38" t="s">
+        <v>184</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I71" s="16"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A72" s="41"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="45"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="24"/>
+    </row>
+    <row r="72" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A72" s="57"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="61"/>
       <c r="D72" s="10"/>
       <c r="E72" s="14" t="s">
         <v>122</v>
@@ -3064,23 +3412,31 @@
       <c r="F72" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G72" s="49" t="s">
-        <v>186</v>
+      <c r="G72" s="38" t="s">
+        <v>181</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I72" s="16"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A73" s="41"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="45"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="N72" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="O72" s="19"/>
+      <c r="P72" s="24"/>
+    </row>
+    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="57"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="61"/>
       <c r="D73" s="10"/>
       <c r="E73" s="14" t="s">
         <v>124</v>
@@ -3088,23 +3444,27 @@
       <c r="F73" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G73" s="49" t="s">
-        <v>183</v>
+      <c r="G73" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I73" s="16"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="41"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="45"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="24"/>
+    </row>
+    <row r="74" spans="1:16" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
+      <c r="A74" s="57"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="61"/>
       <c r="D74" s="10"/>
       <c r="E74" s="14" t="s">
         <v>126</v>
@@ -3112,47 +3472,55 @@
       <c r="F74" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G74" s="49" t="s">
-        <v>179</v>
+      <c r="G74" s="38" t="s">
+        <v>185</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I74" s="16"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A75" s="41"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="45"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="24"/>
+    </row>
+    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="57"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="61"/>
       <c r="D75" s="10"/>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G75" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>22</v>
+      <c r="G75" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H75" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="I75" s="16"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="21" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="41"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="45"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="24"/>
+    </row>
+    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="57"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="61"/>
       <c r="D76" s="10"/>
       <c r="E76" s="9" t="s">
         <v>130</v>
@@ -3161,22 +3529,26 @@
         <v>131</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H76" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H76" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I76" s="16"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="41"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="45"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="24"/>
+    </row>
+    <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="57"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="61"/>
       <c r="D77" s="10"/>
       <c r="E77" s="9" t="s">
         <v>132</v>
@@ -3185,22 +3557,26 @@
         <v>133</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H77" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H77" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I77" s="16"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="41"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="45"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="24"/>
+    </row>
+    <row r="78" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="57"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="61"/>
       <c r="D78" s="10"/>
       <c r="E78" s="9" t="s">
         <v>134</v>
@@ -3209,22 +3585,26 @@
         <v>135</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H78" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H78" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I78" s="16"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="41"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="45"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="24"/>
+    </row>
+    <row r="79" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="57"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="61"/>
       <c r="D79" s="10"/>
       <c r="E79" s="9" t="s">
         <v>136</v>
@@ -3233,22 +3613,26 @@
         <v>137</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H79" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H79" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I79" s="16"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="41"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="45"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="24"/>
+    </row>
+    <row r="80" spans="1:16" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="57"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="61"/>
       <c r="D80" s="10"/>
       <c r="E80" s="9" t="s">
         <v>138</v>
@@ -3257,22 +3641,26 @@
         <v>139</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H80" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H80" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="41"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="45"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="24"/>
+    </row>
+    <row r="81" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="57"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="61"/>
       <c r="D81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>140</v>
@@ -3281,22 +3669,26 @@
         <v>141</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H81" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H81" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="41"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="45"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="24"/>
+    </row>
+    <row r="82" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="57"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="10"/>
       <c r="E82" s="9" t="s">
         <v>142</v>
@@ -3305,22 +3697,28 @@
         <v>143</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H82" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H82" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I82" s="16"/>
+      <c r="I82" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="J82" s="9"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="41"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="45"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="24"/>
+    </row>
+    <row r="83" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="57"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="61"/>
       <c r="D83" s="10"/>
       <c r="E83" s="9" t="s">
         <v>144</v>
@@ -3329,24 +3727,26 @@
         <v>145</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H83" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H83" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I83" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="I83" s="16"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="41"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="45"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="24"/>
+    </row>
+    <row r="84" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="57"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="61"/>
       <c r="D84" s="10"/>
       <c r="E84" s="9" t="s">
         <v>146</v>
@@ -3355,468 +3755,544 @@
         <v>147</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H84" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H84" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="41"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="45"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="24"/>
+    </row>
+    <row r="85" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="57"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="61"/>
       <c r="D85" s="10"/>
       <c r="E85" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F85" s="10" t="s">
-        <v>149</v>
-      </c>
+      <c r="F85" s="8"/>
       <c r="G85" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H85" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H85" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="41"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="45"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="24"/>
+    </row>
+    <row r="86" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="57"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="61"/>
       <c r="D86" s="10"/>
       <c r="E86" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H86" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H86" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="9"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="41"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="45"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="24"/>
+    </row>
+    <row r="87" spans="1:16" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="57"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="61"/>
       <c r="D87" s="10"/>
       <c r="E87" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H87" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H87" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I87" s="16"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="41"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="45"/>
+      <c r="J87" s="19">
+        <v>43061</v>
+      </c>
+      <c r="K87" s="19">
+        <v>43062</v>
+      </c>
+      <c r="L87" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="24"/>
+    </row>
+    <row r="88" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="57"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="61"/>
       <c r="D88" s="10"/>
       <c r="E88" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H88" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H88" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I88" s="16"/>
-      <c r="J88" s="20">
-        <v>43061</v>
-      </c>
-      <c r="K88" s="20">
-        <v>43062</v>
-      </c>
-      <c r="L88" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="41"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="9" t="s">
+      <c r="J88" s="19">
+        <v>43063</v>
+      </c>
+      <c r="K88" s="19">
+        <v>43064</v>
+      </c>
+      <c r="L88" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="24"/>
+    </row>
+    <row r="89" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="57"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>153</v>
       </c>
       <c r="F89" s="8"/>
       <c r="G89" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H89" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H89" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I89" s="16"/>
-      <c r="J89" s="20">
-        <v>43063</v>
-      </c>
-      <c r="K89" s="20">
+      <c r="J89" s="19">
         <v>43064</v>
       </c>
-      <c r="L89" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="41"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="10" t="s">
+      <c r="K89" s="19">
+        <v>43065</v>
+      </c>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P89" s="24"/>
+    </row>
+    <row r="90" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="57"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>155</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H90" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H90" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I90" s="16"/>
-      <c r="J90" s="20">
-        <v>43064</v>
-      </c>
-      <c r="K90" s="20">
+      <c r="J90" s="19">
         <v>43065</v>
       </c>
-      <c r="L90" s="21"/>
-    </row>
-    <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="41"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="45"/>
+      <c r="K90" s="19">
+        <v>43065</v>
+      </c>
+      <c r="L90" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P90" s="24"/>
+    </row>
+    <row r="91" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="57"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="61"/>
       <c r="D91" s="10"/>
       <c r="E91" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F91" s="8"/>
       <c r="G91" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H91" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H91" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I91" s="16"/>
-      <c r="J91" s="20">
-        <v>43065</v>
-      </c>
-      <c r="K91" s="20">
-        <v>43065</v>
-      </c>
-      <c r="L91" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="41"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="9" t="s">
+      <c r="I91" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J91" s="19">
+        <v>43066</v>
+      </c>
+      <c r="K91" s="19">
+        <v>43066</v>
+      </c>
+      <c r="L91" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P91" s="24"/>
+    </row>
+    <row r="92" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="58"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F92" s="23"/>
+      <c r="G92" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H92" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="19">
+        <v>43067</v>
+      </c>
+      <c r="K92" s="19">
+        <v>43068</v>
+      </c>
+      <c r="L92" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P92" s="24"/>
+    </row>
+    <row r="93" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="9"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H92" s="23" t="s">
+      <c r="F93" s="8"/>
+      <c r="G93" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H93" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I92" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J92" s="20">
-        <v>43066</v>
-      </c>
-      <c r="K92" s="20">
-        <v>43066</v>
-      </c>
-      <c r="L92" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="42"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F93" s="25"/>
-      <c r="G93" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="20">
-        <v>43067</v>
-      </c>
-      <c r="K93" s="20">
-        <v>43068</v>
-      </c>
-      <c r="L93" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I93" s="9"/>
+      <c r="J93" s="19">
+        <v>43069</v>
+      </c>
+      <c r="K93" s="19">
+        <v>43069</v>
+      </c>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P93" s="24"/>
+    </row>
+    <row r="94" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
       <c r="C94" s="9"/>
       <c r="D94" s="10"/>
       <c r="E94" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H94" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H94" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I94" s="9"/>
-      <c r="J94" s="20">
-        <v>43069</v>
-      </c>
-      <c r="K94" s="20">
-        <v>43069</v>
-      </c>
-      <c r="L94" s="21"/>
-    </row>
-    <row r="95" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J94" s="19">
+        <v>43070</v>
+      </c>
+      <c r="K94" s="19">
+        <v>43071</v>
+      </c>
+      <c r="L94" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P94" s="24"/>
+    </row>
+    <row r="95" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="9"/>
       <c r="D95" s="10"/>
       <c r="E95" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H95" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H95" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I95" s="9"/>
-      <c r="J95" s="20">
-        <v>43070</v>
-      </c>
-      <c r="K95" s="20">
-        <v>43071</v>
-      </c>
-      <c r="L95" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I95" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J95" s="19">
+        <v>43072</v>
+      </c>
+      <c r="K95" s="19">
+        <v>43073</v>
+      </c>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P95" s="24"/>
+    </row>
+    <row r="96" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="9"/>
       <c r="D96" s="10"/>
       <c r="E96" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H96" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H96" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I96" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J96" s="20">
-        <v>43072</v>
-      </c>
-      <c r="K96" s="20">
-        <v>43073</v>
-      </c>
-      <c r="L96" s="21"/>
-    </row>
-    <row r="97" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="9"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="9" t="s">
+      <c r="I96" s="16"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P96" s="24"/>
+    </row>
+    <row r="97" spans="1:16" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F97" s="25"/>
+      <c r="G97" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="H97" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="19">
+        <v>43062</v>
+      </c>
+      <c r="L97" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H97" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I97" s="16"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P97" s="24"/>
+    </row>
+    <row r="98" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
       <c r="D98" s="9"/>
       <c r="E98" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F98" s="27"/>
+      <c r="F98" s="25"/>
       <c r="G98" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H98" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="H98" s="21" t="s">
         <v>27</v>
       </c>
       <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="20">
-        <v>43062</v>
-      </c>
-      <c r="L98" s="21" t="s">
+      <c r="J98" s="19">
+        <v>43074</v>
+      </c>
+      <c r="K98" s="19">
+        <v>43074</v>
+      </c>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="P98" s="24"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A99" s="9">
+        <v>3</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="12" t="s">
+      <c r="C99" s="26" t="s">
         <v>165</v>
       </c>
+      <c r="D99" s="27"/>
+      <c r="E99" s="28"/>
       <c r="F99" s="27"/>
-      <c r="G99" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="H99" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I99" s="9"/>
-      <c r="J99" s="20">
-        <v>43074</v>
-      </c>
-      <c r="K99" s="20">
-        <v>43074</v>
-      </c>
-      <c r="L99" s="21"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A100" s="9">
-        <v>3</v>
-      </c>
-      <c r="B100" s="9" t="s">
+      <c r="G99" s="15"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="27"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A101" s="9">
+        <v>5</v>
+      </c>
+      <c r="B101" s="9"/>
+      <c r="C101" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="28" t="s">
+      <c r="D101" s="27"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="27"/>
+      <c r="N101" s="27"/>
+      <c r="O101" s="27"/>
+      <c r="P101" s="27"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="D100" s="29"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="29"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="29"/>
-      <c r="E101" s="32"/>
-      <c r="F101" s="29"/>
-      <c r="G101" s="29"/>
-      <c r="H101" s="29"/>
-      <c r="I101" s="29"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A102" s="9">
-        <v>5</v>
-      </c>
-      <c r="B102" s="9"/>
-      <c r="C102" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="27"/>
+      <c r="P102" s="27"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E103" s="32"/>
-      <c r="F103" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="G103" s="31"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E104" s="34"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E105" s="34"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E104" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M100"/>
+  <autoFilter ref="A3:P3"/>
   <mergeCells count="6">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A5:A93"/>
-    <mergeCell ref="B5:B93"/>
-    <mergeCell ref="C5:C93"/>
+    <mergeCell ref="A5:A92"/>
+    <mergeCell ref="B5:B92"/>
+    <mergeCell ref="C5:C92"/>
     <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
